--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>470</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>12.76595744680851</v>
+      </c>
       <c r="L12" t="n">
         <v>10111.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>480</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-17.14285714285714</v>
+      </c>
       <c r="L13" t="n">
         <v>10118.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>690</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-48.21428571428572</v>
+      </c>
       <c r="L14" t="n">
         <v>10091.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>805</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-24.81203007518797</v>
+      </c>
       <c r="L15" t="n">
         <v>10076</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>810</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-23.88059701492537</v>
+      </c>
       <c r="L16" t="n">
         <v>10060</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>975</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-38.92215568862276</v>
+      </c>
       <c r="L17" t="n">
         <v>10027.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1010</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-41.37931034482759</v>
+      </c>
       <c r="L18" t="n">
         <v>9991.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1190</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.5780346820809248</v>
+      </c>
       <c r="L19" t="n">
         <v>9973.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1210</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-13.1578947368421</v>
+      </c>
       <c r="L20" t="n">
         <v>9976</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1210</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-10.81081081081081</v>
+      </c>
       <c r="L21" t="n">
         <v>9966</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1310</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.204819277108434</v>
+      </c>
       <c r="L22" t="n">
         <v>9968</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1370</v>
       </c>
       <c r="K23" t="n">
-        <v>1.45985401459854</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L23" t="n">
         <v>9963</v>
@@ -1466,7 +1488,7 @@
         <v>1495</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.21611721611722</v>
+        <v>-11.59420289855072</v>
       </c>
       <c r="L24" t="n">
         <v>9966.5</v>
@@ -1515,7 +1537,7 @@
         <v>1590</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.58904109589041</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="L25" t="n">
         <v>9968</v>
@@ -1564,7 +1586,7 @@
         <v>1660</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.47368421052632</v>
+        <v>15.32846715328467</v>
       </c>
       <c r="L26" t="n">
         <v>9962</v>
@@ -1613,7 +1635,7 @@
         <v>1715</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.47619047619048</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L27" t="n">
         <v>9978</v>
@@ -1662,7 +1684,7 @@
         <v>1800</v>
       </c>
       <c r="K28" t="n">
-        <v>-15.06024096385542</v>
+        <v>-11.47540983606557</v>
       </c>
       <c r="L28" t="n">
         <v>9989</v>
@@ -1711,7 +1733,7 @@
         <v>1810</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.5688622754491</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>9981</v>
@@ -1760,7 +1782,7 @@
         <v>1850</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.540983606557377</v>
+        <v>-21.875</v>
       </c>
       <c r="L30" t="n">
         <v>9967</v>
@@ -1809,7 +1831,7 @@
         <v>1850</v>
       </c>
       <c r="K31" t="n">
-        <v>-17.14285714285714</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L31" t="n">
         <v>9953</v>
@@ -1860,7 +1882,7 @@
         <v>1960</v>
       </c>
       <c r="K32" t="n">
-        <v>-22.14765100671141</v>
+        <v>-49.15254237288136</v>
       </c>
       <c r="L32" t="n">
         <v>9918</v>
@@ -1911,7 +1933,7 @@
         <v>1990</v>
       </c>
       <c r="K33" t="n">
-        <v>-20.52980132450331</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L33" t="n">
         <v>9892</v>
@@ -1962,7 +1984,7 @@
         <v>2010</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.090909090909092</v>
+        <v>-59.52380952380953</v>
       </c>
       <c r="L34" t="n">
         <v>9876.5</v>
@@ -2013,7 +2035,7 @@
         <v>2030</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.55102040816326</v>
+        <v>-43.24324324324324</v>
       </c>
       <c r="L35" t="n">
         <v>9853.5</v>
@@ -2064,7 +2086,7 @@
         <v>2050</v>
       </c>
       <c r="K36" t="n">
-        <v>-19.35483870967742</v>
+        <v>-70.14925373134329</v>
       </c>
       <c r="L36" t="n">
         <v>9835.5</v>
@@ -2115,7 +2137,7 @@
         <v>2060</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.834101382488479</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L37" t="n">
         <v>9811</v>
@@ -2166,7 +2188,7 @@
         <v>2175</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.16309012875537</v>
+        <v>-72.60273972602739</v>
       </c>
       <c r="L38" t="n">
         <v>9783.5</v>
@@ -2217,7 +2239,7 @@
         <v>2235</v>
       </c>
       <c r="K39" t="n">
-        <v>-27.27272727272727</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L39" t="n">
         <v>9763</v>
@@ -2268,7 +2290,7 @@
         <v>2235</v>
       </c>
       <c r="K40" t="n">
-        <v>-29.75609756097561</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L40" t="n">
         <v>9746.5</v>
@@ -2319,7 +2341,7 @@
         <v>2260</v>
       </c>
       <c r="K41" t="n">
-        <v>-31.42857142857143</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>9727.5</v>
@@ -2370,7 +2392,7 @@
         <v>2360</v>
       </c>
       <c r="K42" t="n">
-        <v>-50.47619047619047</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L42" t="n">
         <v>9709.5</v>
@@ -2421,7 +2443,7 @@
         <v>2360</v>
       </c>
       <c r="K43" t="n">
-        <v>-47.47474747474747</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L43" t="n">
         <v>9688.5</v>
@@ -2472,7 +2494,7 @@
         <v>2380</v>
       </c>
       <c r="K44" t="n">
-        <v>-41.24293785310734</v>
+        <v>-65.71428571428571</v>
       </c>
       <c r="L44" t="n">
         <v>9667.5</v>
@@ -2523,7 +2545,7 @@
         <v>2430</v>
       </c>
       <c r="K45" t="n">
-        <v>-60.71428571428571</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L45" t="n">
         <v>9639.5</v>
@@ -2574,7 +2596,7 @@
         <v>2440</v>
       </c>
       <c r="K46" t="n">
-        <v>-57.69230769230769</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L46" t="n">
         <v>9612.5</v>
@@ -2625,7 +2647,7 @@
         <v>2440</v>
       </c>
       <c r="K47" t="n">
-        <v>-69.6551724137931</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L47" t="n">
         <v>9586.5</v>
@@ -2676,7 +2698,7 @@
         <v>2490</v>
       </c>
       <c r="K48" t="n">
-        <v>-68.11594202898551</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>9567</v>
@@ -2727,7 +2749,7 @@
         <v>2505</v>
       </c>
       <c r="K49" t="n">
-        <v>-64.02877697841727</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L49" t="n">
         <v>9543</v>
@@ -2778,7 +2800,7 @@
         <v>2515</v>
       </c>
       <c r="K50" t="n">
-        <v>-62.40601503759399</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L50" t="n">
         <v>9518</v>
@@ -2829,7 +2851,7 @@
         <v>2520</v>
       </c>
       <c r="K51" t="n">
-        <v>-62.68656716417911</v>
+        <v>-81.25</v>
       </c>
       <c r="L51" t="n">
         <v>9495</v>
@@ -2880,7 +2902,7 @@
         <v>2530</v>
       </c>
       <c r="K52" t="n">
-        <v>-56.14035087719298</v>
+        <v>-82.35294117647058</v>
       </c>
       <c r="L52" t="n">
         <v>9481</v>
@@ -2931,7 +2953,7 @@
         <v>2535</v>
       </c>
       <c r="K53" t="n">
-        <v>-63.30275229357798</v>
+        <v>-74.19354838709677</v>
       </c>
       <c r="L53" t="n">
         <v>9467.5</v>
@@ -3033,7 +3055,7 @@
         <v>2570</v>
       </c>
       <c r="K55" t="n">
-        <v>-70.37037037037037</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L55" t="n">
         <v>9446</v>
@@ -3084,7 +3106,7 @@
         <v>2580</v>
       </c>
       <c r="K56" t="n">
-        <v>-66.0377358490566</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L56" t="n">
         <v>9438</v>
@@ -3135,7 +3157,7 @@
         <v>2605</v>
       </c>
       <c r="K57" t="n">
-        <v>-57.79816513761467</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L57" t="n">
         <v>9432.5</v>
@@ -3186,7 +3208,7 @@
         <v>2635</v>
       </c>
       <c r="K58" t="n">
-        <v>-36.95652173913043</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L58" t="n">
         <v>9435</v>
@@ -3237,7 +3259,7 @@
         <v>2695</v>
       </c>
       <c r="K59" t="n">
-        <v>-63.04347826086957</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L59" t="n">
         <v>9430</v>
@@ -3288,7 +3310,7 @@
         <v>2775</v>
       </c>
       <c r="K60" t="n">
-        <v>-38.88888888888889</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L60" t="n">
         <v>9434</v>
@@ -3339,7 +3361,7 @@
         <v>2775</v>
       </c>
       <c r="K61" t="n">
-        <v>-35.92233009708738</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L61" t="n">
         <v>9438.5</v>
@@ -3390,7 +3412,7 @@
         <v>2815</v>
       </c>
       <c r="K62" t="n">
-        <v>-27.47252747252747</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L62" t="n">
         <v>9440</v>
@@ -3441,7 +3463,7 @@
         <v>2815</v>
       </c>
       <c r="K63" t="n">
-        <v>-27.47252747252747</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="L63" t="n">
         <v>9441</v>
@@ -3492,7 +3514,7 @@
         <v>2845</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L64" t="n">
         <v>9445</v>
@@ -3543,7 +3565,7 @@
         <v>2870</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L65" t="n">
         <v>9455</v>
@@ -3594,7 +3616,7 @@
         <v>2935</v>
       </c>
       <c r="K66" t="n">
-        <v>15.15151515151515</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L66" t="n">
         <v>9470.5</v>
@@ -3645,7 +3667,7 @@
         <v>2990</v>
       </c>
       <c r="K67" t="n">
-        <v>3.636363636363636</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="L67" t="n">
         <v>9478</v>
@@ -3696,7 +3718,7 @@
         <v>3015</v>
       </c>
       <c r="K68" t="n">
-        <v>8.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="L68" t="n">
         <v>9480</v>
@@ -3747,7 +3769,7 @@
         <v>3080</v>
       </c>
       <c r="K69" t="n">
-        <v>16.52173913043478</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L69" t="n">
         <v>9494.5</v>
@@ -3798,7 +3820,7 @@
         <v>3100</v>
       </c>
       <c r="K70" t="n">
-        <v>14.52991452991453</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L70" t="n">
         <v>9499</v>
@@ -3849,7 +3871,7 @@
         <v>3100</v>
       </c>
       <c r="K71" t="n">
-        <v>15.51724137931035</v>
+        <v>29.82456140350877</v>
       </c>
       <c r="L71" t="n">
         <v>9503.5</v>
@@ -3900,7 +3922,7 @@
         <v>3165</v>
       </c>
       <c r="K72" t="n">
-        <v>5.511811023622047</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="L72" t="n">
         <v>9505.5</v>
@@ -3951,7 +3973,7 @@
         <v>3180</v>
       </c>
       <c r="K73" t="n">
-        <v>2.325581395348837</v>
+        <v>-7.462686567164178</v>
       </c>
       <c r="L73" t="n">
         <v>9506</v>
@@ -4002,7 +4024,7 @@
         <v>3245</v>
       </c>
       <c r="K74" t="n">
-        <v>11.26760563380282</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
         <v>9510</v>
@@ -4053,7 +4075,7 @@
         <v>3245</v>
       </c>
       <c r="K75" t="n">
-        <v>17.03703703703704</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L75" t="n">
         <v>9511.5</v>
@@ -4104,7 +4126,7 @@
         <v>3245</v>
       </c>
       <c r="K76" t="n">
-        <v>15.78947368421053</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L76" t="n">
         <v>9506.5</v>
@@ -4155,7 +4177,7 @@
         <v>3245</v>
       </c>
       <c r="K77" t="n">
-        <v>12.5</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L77" t="n">
         <v>9507</v>
@@ -4206,7 +4228,7 @@
         <v>3250</v>
       </c>
       <c r="K78" t="n">
-        <v>8.943089430894309</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L78" t="n">
         <v>9510.5</v>
@@ -4257,7 +4279,7 @@
         <v>3250</v>
       </c>
       <c r="K79" t="n">
-        <v>20.72072072072072</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L79" t="n">
         <v>9507.5</v>
@@ -4308,7 +4330,7 @@
         <v>3250</v>
       </c>
       <c r="K80" t="n">
-        <v>7.368421052631578</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L80" t="n">
         <v>9506.5</v>
@@ -4359,7 +4381,7 @@
         <v>3250</v>
       </c>
       <c r="K81" t="n">
-        <v>7.368421052631578</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L81" t="n">
         <v>9505.5</v>
@@ -4410,7 +4432,7 @@
         <v>3255</v>
       </c>
       <c r="K82" t="n">
-        <v>15.90909090909091</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L82" t="n">
         <v>9510.5</v>
@@ -4461,7 +4483,7 @@
         <v>3255</v>
       </c>
       <c r="K83" t="n">
-        <v>15.90909090909091</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>9517</v>
@@ -4512,7 +4534,7 @@
         <v>3260</v>
       </c>
       <c r="K84" t="n">
-        <v>8.433734939759036</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>9516.5</v>
@@ -4563,7 +4585,7 @@
         <v>3295</v>
       </c>
       <c r="K85" t="n">
-        <v>10.58823529411765</v>
+        <v>60</v>
       </c>
       <c r="L85" t="n">
         <v>9519.5</v>
@@ -4614,7 +4636,7 @@
         <v>3305</v>
       </c>
       <c r="K86" t="n">
-        <v>-2.702702702702703</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L86" t="n">
         <v>9523.5</v>
@@ -4665,7 +4687,7 @@
         <v>3345</v>
       </c>
       <c r="K87" t="n">
-        <v>23.94366197183098</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L87" t="n">
         <v>9531.5</v>
@@ -4716,7 +4738,7 @@
         <v>3345</v>
       </c>
       <c r="K88" t="n">
-        <v>33.33333333333333</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L88" t="n">
         <v>9539</v>
@@ -4767,7 +4789,7 @@
         <v>3345</v>
       </c>
       <c r="K89" t="n">
-        <v>16.9811320754717</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L89" t="n">
         <v>9546.5</v>
@@ -4818,7 +4840,7 @@
         <v>3355</v>
       </c>
       <c r="K90" t="n">
-        <v>21.56862745098039</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L90" t="n">
         <v>9553</v>
@@ -4869,7 +4891,7 @@
         <v>3360</v>
       </c>
       <c r="K91" t="n">
-        <v>19.23076923076923</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L91" t="n">
         <v>9559</v>
@@ -4920,7 +4942,7 @@
         <v>3380</v>
       </c>
       <c r="K92" t="n">
-        <v>62.7906976744186</v>
+        <v>68</v>
       </c>
       <c r="L92" t="n">
         <v>9567.5</v>
@@ -4971,7 +4993,7 @@
         <v>3450</v>
       </c>
       <c r="K93" t="n">
-        <v>29.62962962962963</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L93" t="n">
         <v>9569</v>
@@ -5022,7 +5044,7 @@
         <v>3520</v>
       </c>
       <c r="K94" t="n">
-        <v>30.90909090909091</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L94" t="n">
         <v>9578</v>
@@ -5073,7 +5095,7 @@
         <v>3520</v>
       </c>
       <c r="K95" t="n">
-        <v>30.90909090909091</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L95" t="n">
         <v>9583.5</v>
@@ -5124,7 +5146,7 @@
         <v>3605</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L96" t="n">
         <v>9579.5</v>
@@ -5175,7 +5197,7 @@
         <v>3680</v>
       </c>
       <c r="K97" t="n">
-        <v>17.24137931034483</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L97" t="n">
         <v>9579</v>
@@ -5226,7 +5248,7 @@
         <v>3685</v>
       </c>
       <c r="K98" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>9579</v>
@@ -5277,7 +5299,7 @@
         <v>3685</v>
       </c>
       <c r="K99" t="n">
-        <v>17.24137931034483</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L99" t="n">
         <v>9579</v>
@@ -5328,7 +5350,7 @@
         <v>3685</v>
       </c>
       <c r="K100" t="n">
-        <v>17.24137931034483</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="L100" t="n">
         <v>9580</v>
@@ -5379,7 +5401,7 @@
         <v>3780</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.773584905660377</v>
+        <v>-25</v>
       </c>
       <c r="L101" t="n">
         <v>9572</v>
@@ -5430,7 +5452,7 @@
         <v>3870</v>
       </c>
       <c r="K102" t="n">
-        <v>12.19512195121951</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>9571</v>
@@ -5481,7 +5503,7 @@
         <v>3900</v>
       </c>
       <c r="K103" t="n">
-        <v>16.27906976744186</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L103" t="n">
         <v>9580</v>
@@ -5532,7 +5554,7 @@
         <v>3920</v>
       </c>
       <c r="K104" t="n">
-        <v>13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>9580</v>
@@ -5583,7 +5605,7 @@
         <v>3960</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571428</v>
+        <v>35.2112676056338</v>
       </c>
       <c r="L105" t="n">
         <v>9584</v>
@@ -5634,7 +5656,7 @@
         <v>3965</v>
       </c>
       <c r="K106" t="n">
-        <v>13.63636363636363</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L106" t="n">
         <v>9597</v>
@@ -5685,7 +5707,7 @@
         <v>3970</v>
       </c>
       <c r="K107" t="n">
-        <v>7.199999999999999</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L107" t="n">
         <v>9602</v>
@@ -5736,7 +5758,7 @@
         <v>3980</v>
       </c>
       <c r="K108" t="n">
-        <v>8.661417322834646</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="L108" t="n">
         <v>9607.5</v>
@@ -5787,7 +5809,7 @@
         <v>3995</v>
       </c>
       <c r="K109" t="n">
-        <v>10.76923076923077</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L109" t="n">
         <v>9614.5</v>
@@ -5838,7 +5860,7 @@
         <v>4000</v>
       </c>
       <c r="K110" t="n">
-        <v>13.17829457364341</v>
+        <v>77.27272727272727</v>
       </c>
       <c r="L110" t="n">
         <v>9622</v>
@@ -5889,7 +5911,7 @@
         <v>4030</v>
       </c>
       <c r="K111" t="n">
-        <v>17.91044776119403</v>
+        <v>68.75</v>
       </c>
       <c r="L111" t="n">
         <v>9642</v>
@@ -5940,7 +5962,7 @@
         <v>4030</v>
       </c>
       <c r="K112" t="n">
-        <v>15.38461538461539</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L112" t="n">
         <v>9653</v>
@@ -5991,7 +6013,7 @@
         <v>4030</v>
       </c>
       <c r="K113" t="n">
-        <v>29.3103448275862</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L113" t="n">
         <v>9661</v>
@@ -6042,7 +6064,7 @@
         <v>4040</v>
       </c>
       <c r="K114" t="n">
-        <v>21.15384615384615</v>
+        <v>87.5</v>
       </c>
       <c r="L114" t="n">
         <v>9672</v>
@@ -6093,7 +6115,7 @@
         <v>4050</v>
       </c>
       <c r="K115" t="n">
-        <v>22.64150943396227</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L115" t="n">
         <v>9680</v>
@@ -6144,7 +6166,7 @@
         <v>4075</v>
       </c>
       <c r="K116" t="n">
-        <v>48.93617021276596</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>9690</v>
@@ -6195,7 +6217,7 @@
         <v>4080</v>
       </c>
       <c r="K117" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>9701</v>
@@ -6246,7 +6268,7 @@
         <v>4085</v>
       </c>
       <c r="K118" t="n">
-        <v>37.5</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L118" t="n">
         <v>9710.5</v>
@@ -6297,7 +6319,7 @@
         <v>4200</v>
       </c>
       <c r="K119" t="n">
-        <v>6.796116504854369</v>
+        <v>-20</v>
       </c>
       <c r="L119" t="n">
         <v>9707</v>
@@ -6348,7 +6370,7 @@
         <v>4250</v>
       </c>
       <c r="K120" t="n">
-        <v>-2.654867256637168</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L120" t="n">
         <v>9698</v>
@@ -6399,7 +6421,7 @@
         <v>4250</v>
       </c>
       <c r="K121" t="n">
-        <v>17.02127659574468</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L121" t="n">
         <v>9686</v>
@@ -6450,7 +6472,7 @@
         <v>4290</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.9047619047619</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L122" t="n">
         <v>9670</v>
@@ -6501,7 +6523,7 @@
         <v>4290</v>
       </c>
       <c r="K123" t="n">
-        <v>-20.51282051282051</v>
+        <v>-68</v>
       </c>
       <c r="L123" t="n">
         <v>9654</v>
@@ -6552,7 +6574,7 @@
         <v>4305</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.68831168831169</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L124" t="n">
         <v>9638.5</v>
@@ -6603,7 +6625,7 @@
         <v>4305</v>
       </c>
       <c r="K125" t="n">
-        <v>-24.63768115942029</v>
+        <v>-82.60869565217391</v>
       </c>
       <c r="L125" t="n">
         <v>9622</v>
@@ -6654,7 +6676,7 @@
         <v>4325</v>
       </c>
       <c r="K126" t="n">
-        <v>-19.44444444444445</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L126" t="n">
         <v>9605</v>
@@ -6705,7 +6727,7 @@
         <v>4375</v>
       </c>
       <c r="K127" t="n">
-        <v>-28.39506172839506</v>
+        <v>-75.86206896551724</v>
       </c>
       <c r="L127" t="n">
         <v>9582.5</v>
@@ -6756,7 +6778,7 @@
         <v>4475</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.05050505050505</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L128" t="n">
         <v>9570.5</v>
@@ -6807,7 +6829,7 @@
         <v>4495</v>
       </c>
       <c r="K129" t="n">
-        <v>-4</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L129" t="n">
         <v>9572</v>
@@ -6858,7 +6880,7 @@
         <v>4500</v>
       </c>
       <c r="K130" t="n">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="L130" t="n">
         <v>9579</v>
@@ -6909,7 +6931,7 @@
         <v>4505</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.473684210526317</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L131" t="n">
         <v>9586.5</v>
@@ -6960,7 +6982,7 @@
         <v>4510</v>
       </c>
       <c r="K132" t="n">
-        <v>-8.333333333333332</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L132" t="n">
         <v>9598.5</v>
@@ -7011,7 +7033,7 @@
         <v>4515</v>
       </c>
       <c r="K133" t="n">
-        <v>-9.278350515463918</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L133" t="n">
         <v>9610</v>
@@ -7062,7 +7084,7 @@
         <v>4540</v>
       </c>
       <c r="K134" t="n">
-        <v>-6</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L134" t="n">
         <v>9622.5</v>
@@ -7113,7 +7135,7 @@
         <v>4560</v>
       </c>
       <c r="K135" t="n">
-        <v>-3.92156862745098</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L135" t="n">
         <v>9637</v>
@@ -7164,7 +7186,7 @@
         <v>4560</v>
       </c>
       <c r="K136" t="n">
-        <v>-9.278350515463918</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L136" t="n">
         <v>9649.5</v>
@@ -7215,7 +7237,7 @@
         <v>4590</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.92156862745098</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L137" t="n">
         <v>9670</v>
@@ -7266,7 +7288,7 @@
         <v>4600</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.9708737864077669</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L138" t="n">
         <v>9681.5</v>
@@ -7317,7 +7339,7 @@
         <v>4600</v>
       </c>
       <c r="K139" t="n">
-        <v>27.5</v>
+        <v>90</v>
       </c>
       <c r="L139" t="n">
         <v>9691</v>
@@ -7368,7 +7390,7 @@
         <v>4600</v>
       </c>
       <c r="K140" t="n">
-        <v>45.71428571428572</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L140" t="n">
         <v>9700</v>
@@ -7419,7 +7441,7 @@
         <v>4610</v>
       </c>
       <c r="K141" t="n">
-        <v>41.66666666666667</v>
+        <v>70</v>
       </c>
       <c r="L141" t="n">
         <v>9707.5</v>
@@ -7470,7 +7492,7 @@
         <v>4640</v>
       </c>
       <c r="K142" t="n">
-        <v>45.71428571428572</v>
+        <v>36</v>
       </c>
       <c r="L142" t="n">
         <v>9711.5</v>
@@ -7521,7 +7543,7 @@
         <v>4645</v>
       </c>
       <c r="K143" t="n">
-        <v>46.47887323943662</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L143" t="n">
         <v>9716.5</v>
@@ -7572,7 +7594,7 @@
         <v>4650</v>
       </c>
       <c r="K144" t="n">
-        <v>44.92753623188405</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L144" t="n">
         <v>9719.5</v>
@@ -7623,7 +7645,7 @@
         <v>4655</v>
       </c>
       <c r="K145" t="n">
-        <v>42.85714285714285</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L145" t="n">
         <v>9720</v>
@@ -7674,7 +7696,7 @@
         <v>4735</v>
       </c>
       <c r="K146" t="n">
-        <v>12.19512195121951</v>
+        <v>-72.41379310344827</v>
       </c>
       <c r="L146" t="n">
         <v>9712.5</v>
@@ -7725,7 +7747,7 @@
         <v>4810</v>
       </c>
       <c r="K147" t="n">
-        <v>40.22988505747126</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L147" t="n">
         <v>9709.5</v>
@@ -7776,7 +7798,7 @@
         <v>4820</v>
       </c>
       <c r="K148" t="n">
-        <v>18.84057971014493</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L148" t="n">
         <v>9704.5</v>
@@ -7827,7 +7849,7 @@
         <v>4825</v>
       </c>
       <c r="K149" t="n">
-        <v>12.12121212121212</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L149" t="n">
         <v>9699</v>
@@ -7878,7 +7900,7 @@
         <v>4825</v>
       </c>
       <c r="K150" t="n">
-        <v>10.76923076923077</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L150" t="n">
         <v>9693.5</v>
@@ -7929,7 +7951,7 @@
         <v>4840</v>
       </c>
       <c r="K151" t="n">
-        <v>13.43283582089552</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>9690.5</v>
@@ -7980,7 +8002,7 @@
         <v>4840</v>
       </c>
       <c r="K152" t="n">
-        <v>12.12121212121212</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L152" t="n">
         <v>9690.5</v>
@@ -8031,7 +8053,7 @@
         <v>4840</v>
       </c>
       <c r="K153" t="n">
-        <v>13.84615384615385</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L153" t="n">
         <v>9690</v>
@@ -8082,7 +8104,7 @@
         <v>4845</v>
       </c>
       <c r="K154" t="n">
-        <v>4.918032786885246</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L154" t="n">
         <v>9688.5</v>
@@ -8133,7 +8155,7 @@
         <v>4845</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.754385964912281</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L155" t="n">
         <v>9687.5</v>
@@ -8184,7 +8206,7 @@
         <v>4845</v>
       </c>
       <c r="K156" t="n">
-        <v>-1.754385964912281</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L156" t="n">
         <v>9694.5</v>
@@ -8235,7 +8257,7 @@
         <v>4850</v>
       </c>
       <c r="K157" t="n">
-        <v>-11.53846153846154</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>9694.5</v>
@@ -8286,7 +8308,7 @@
         <v>4850</v>
       </c>
       <c r="K158" t="n">
-        <v>-16</v>
+        <v>60</v>
       </c>
       <c r="L158" t="n">
         <v>9695.5</v>
@@ -8337,7 +8359,7 @@
         <v>4850</v>
       </c>
       <c r="K159" t="n">
-        <v>-16</v>
+        <v>60</v>
       </c>
       <c r="L159" t="n">
         <v>9697</v>
@@ -8388,7 +8410,7 @@
         <v>4850</v>
       </c>
       <c r="K160" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>9698.5</v>
@@ -8439,7 +8461,7 @@
         <v>4850</v>
       </c>
       <c r="K161" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>9698.5</v>
@@ -8541,7 +8563,7 @@
         <v>4850</v>
       </c>
       <c r="K163" t="n">
-        <v>-2.439024390243902</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
         <v>9698.5</v>
@@ -8592,7 +8614,7 @@
         <v>4850</v>
       </c>
       <c r="K164" t="n">
-        <v>-5</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>9699</v>
@@ -8643,7 +8665,7 @@
         <v>4930</v>
       </c>
       <c r="K165" t="n">
-        <v>-30.90909090909091</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L165" t="n">
         <v>9691.5</v>
@@ -8694,7 +8716,7 @@
         <v>5010</v>
       </c>
       <c r="K166" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>9692</v>
@@ -8796,7 +8818,7 @@
         <v>5010</v>
       </c>
       <c r="K168" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>9692</v>
@@ -8847,7 +8869,7 @@
         <v>5010</v>
       </c>
       <c r="K169" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>9692</v>
@@ -8898,7 +8920,7 @@
         <v>5015</v>
       </c>
       <c r="K170" t="n">
-        <v>5.263157894736842</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L170" t="n">
         <v>9691.5</v>
@@ -9000,7 +9022,7 @@
         <v>5040</v>
       </c>
       <c r="K172" t="n">
-        <v>-10</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L172" t="n">
         <v>9689.5</v>
@@ -9051,7 +9073,7 @@
         <v>5055</v>
       </c>
       <c r="K173" t="n">
-        <v>-2.325581395348837</v>
+        <v>-2.439024390243902</v>
       </c>
       <c r="L173" t="n">
         <v>9689</v>
@@ -9102,7 +9124,7 @@
         <v>5055</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L174" t="n">
         <v>9688.5</v>
@@ -9153,7 +9175,7 @@
         <v>5055</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L175" t="n">
         <v>9696</v>
@@ -9204,7 +9226,7 @@
         <v>5055</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L176" t="n">
         <v>9695.5</v>
@@ -9255,7 +9277,7 @@
         <v>5055</v>
       </c>
       <c r="K177" t="n">
-        <v>-2.439024390243902</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L177" t="n">
         <v>9695</v>
@@ -9306,7 +9328,7 @@
         <v>5055</v>
       </c>
       <c r="K178" t="n">
-        <v>-2.439024390243902</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L178" t="n">
         <v>9694.5</v>
@@ -9357,7 +9379,7 @@
         <v>5230</v>
       </c>
       <c r="K179" t="n">
-        <v>-47.36842105263158</v>
+        <v>-81.3953488372093</v>
       </c>
       <c r="L179" t="n">
         <v>9676.5</v>
@@ -9408,7 +9430,7 @@
         <v>5400</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.818181818181818</v>
+        <v>-2.631578947368421</v>
       </c>
       <c r="L180" t="n">
         <v>9676</v>

--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J4" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>130</v>
-      </c>
-      <c r="J5" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>140</v>
-      </c>
-      <c r="J6" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>140</v>
-      </c>
-      <c r="J7" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>140</v>
-      </c>
-      <c r="J9" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
-      </c>
-      <c r="J11" t="n">
-        <v>450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>10105.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
-      </c>
-      <c r="J12" t="n">
-        <v>470</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.76595744680851</v>
-      </c>
-      <c r="L12" t="n">
-        <v>10111.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" t="n">
-        <v>480</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-17.14285714285714</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10118.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-140</v>
-      </c>
-      <c r="J14" t="n">
-        <v>690</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-48.21428571428572</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10091.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J15" t="n">
-        <v>805</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-24.81203007518797</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10076</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>810</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-23.88059701492537</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10060</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-185</v>
-      </c>
-      <c r="J17" t="n">
-        <v>975</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-38.92215568862276</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10027.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-220</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-41.37931034482759</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9991.5</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5780346820809248</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9973.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1210</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-13.1578947368421</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9976</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1210</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-10.81081081081081</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>10035.75</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>80</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1310</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.204819277108434</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>10039.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1370</v>
-      </c>
-      <c r="K23" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>10040.75</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-105</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1495</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-11.59420289855072</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9966.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>10029</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1590</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.282051282051282</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>10022</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1660</v>
-      </c>
-      <c r="K26" t="n">
-        <v>15.32846715328467</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>10011</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1715</v>
-      </c>
-      <c r="K27" t="n">
-        <v>27.65957446808511</v>
-      </c>
-      <c r="L27" t="n">
-        <v>9978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>10002.75</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-110</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1800</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-11.47540983606557</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>9990.25</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-120</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1810</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>9977.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-160</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1850</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-21.875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>9971.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-160</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1850</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L31" t="n">
-        <v>9953</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>9959.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>10008.16666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-270</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1960</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-49.15254237288136</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>9943</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9999.166666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-240</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1990</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9892</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>9927.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9991.166666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-260</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2010</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-59.52380952380953</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9876.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>9921.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9978.166666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-240</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2030</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-43.24324324324324</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9853.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>9910.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>9965.833333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-260</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2050</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-70.14925373134329</v>
-      </c>
-      <c r="L36" t="n">
-        <v>9835.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>9898.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9952.5</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-270</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2060</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-61.53846153846154</v>
-      </c>
-      <c r="L37" t="n">
-        <v>9811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>9894.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9938.833333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-385</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2175</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-72.60273972602739</v>
-      </c>
-      <c r="L38" t="n">
-        <v>9783.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>9886.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9921.333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2235</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L39" t="n">
-        <v>9763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>9872</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9905.833333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2235</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L40" t="n">
-        <v>9746.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>9856.75</v>
-      </c>
-      <c r="N40" t="n">
-        <v>9896.5</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-350</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2260</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-26.66666666666667</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9727.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>9840.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>9882.166666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-450</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2360</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-56.75675675675676</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9709.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>9813.75</v>
-      </c>
-      <c r="N42" t="n">
-        <v>9865.166666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-450</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2360</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-54.28571428571428</v>
-      </c>
-      <c r="L43" t="n">
-        <v>9688.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>9790.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9847.833333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-470</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2380</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-65.71428571428571</v>
-      </c>
-      <c r="L44" t="n">
-        <v>9667.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>9772</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9836.833333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-520</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2430</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-68.42105263157895</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9639.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>9746.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9820.333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-530</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2440</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-68.42105263157895</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9612.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>9724</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9803.333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-530</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2440</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-54.71698113207547</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9586.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>9698.75</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9791.833333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-580</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2490</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>9567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>9675.25</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9779.833333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-565</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2505</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-88.88888888888889</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>9653</v>
-      </c>
-      <c r="N49" t="n">
-        <v>9762.333333333334</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-575</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2515</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-88.23529411764706</v>
-      </c>
-      <c r="L50" t="n">
-        <v>9518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>9632.25</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9743.833333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-580</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-81.25</v>
-      </c>
-      <c r="L51" t="n">
-        <v>9495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>9611.25</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9725.166666666666</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-590</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2530</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-82.35294117647058</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>9595.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>9702.833333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-585</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-74.19354838709677</v>
-      </c>
-      <c r="L53" t="n">
-        <v>9467.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>9578</v>
-      </c>
-      <c r="N53" t="n">
-        <v>9682.666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-585</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2535</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-61.90476190476191</v>
-      </c>
-      <c r="L54" t="n">
-        <v>9456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>9561.75</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9666.666666666666</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-620</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2570</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-69.23076923076923</v>
-      </c>
-      <c r="L55" t="n">
-        <v>9446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>9542.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>9646.333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-610</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2580</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L56" t="n">
-        <v>9438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>9525.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9628.666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-585</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2605</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L57" t="n">
-        <v>9432.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>9509.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>9610</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-555</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2635</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L58" t="n">
-        <v>9435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>9501</v>
-      </c>
-      <c r="N58" t="n">
-        <v>9595.166666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2446,21 @@
         <v>9801.916666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2695</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L59" t="n">
-        <v>9430</v>
+        <v>9490</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>9486.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>9578.666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2487,21 @@
         <v>9791</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-535</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2775</v>
-      </c>
-      <c r="K60" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9434</v>
+        <v>9485</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>9476</v>
-      </c>
-      <c r="N60" t="n">
-        <v>9566.166666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2528,21 @@
         <v>9780.916666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-535</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2775</v>
-      </c>
-      <c r="K61" t="n">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="L61" t="n">
-        <v>9438.5</v>
+        <v>9485</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>9466.75</v>
-      </c>
-      <c r="N61" t="n">
-        <v>9553.666666666666</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2569,21 @@
         <v>9771.333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-575</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2815</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9440</v>
+        <v>9445</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>9460.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>9543.5</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2610,21 @@
         <v>9761.75</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-575</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2815</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="L63" t="n">
-        <v>9441</v>
+        <v>9445</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>9454.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9532.333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2651,21 @@
         <v>9750.5</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-545</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2845</v>
-      </c>
-      <c r="K64" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L64" t="n">
-        <v>9445</v>
+        <v>9475</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>9450.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9522.833333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2692,21 @@
         <v>9739.666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2870</v>
-      </c>
-      <c r="K65" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9455</v>
+        <v>9500</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>9450.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>9513.5</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2733,21 @@
         <v>9729.75</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2935</v>
-      </c>
-      <c r="K66" t="n">
-        <v>39.39393939393939</v>
-      </c>
-      <c r="L66" t="n">
-        <v>9470.5</v>
+        <v>9565</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>9454.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9507</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2774,21 @@
         <v>9718.916666666666</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2990</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12.67605633802817</v>
-      </c>
-      <c r="L67" t="n">
-        <v>9478</v>
+        <v>9515</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>9455.25</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9499</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2815,21 @@
         <v>9707.666666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-535</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3015</v>
-      </c>
-      <c r="K68" t="n">
-        <v>25</v>
-      </c>
-      <c r="L68" t="n">
-        <v>9480</v>
+        <v>9495</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>9457.5</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9494</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2856,21 @@
         <v>9697.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3080</v>
-      </c>
-      <c r="K69" t="n">
-        <v>21.31147540983606</v>
-      </c>
-      <c r="L69" t="n">
-        <v>9494.5</v>
+        <v>9550</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>9462.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9489.166666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2897,21 @@
         <v>9690.083333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3100</v>
-      </c>
-      <c r="K70" t="n">
-        <v>13.84615384615385</v>
-      </c>
-      <c r="L70" t="n">
-        <v>9499</v>
+        <v>9530</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>9466.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>9483.666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2938,21 @@
         <v>9680.583333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-490</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3100</v>
-      </c>
-      <c r="K71" t="n">
-        <v>29.82456140350877</v>
-      </c>
-      <c r="L71" t="n">
-        <v>9503.5</v>
+        <v>9525</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>9471</v>
-      </c>
-      <c r="N71" t="n">
-        <v>9479</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2979,21 @@
         <v>9670.333333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-555</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3165</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9505.5</v>
+        <v>9465</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>9472.75</v>
-      </c>
-      <c r="N72" t="n">
-        <v>9475.5</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3020,21 @@
         <v>9659.666666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3180</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-7.462686567164178</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9506</v>
+        <v>9460</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>9473.5</v>
-      </c>
-      <c r="N73" t="n">
-        <v>9471.5</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3061,21 @@
         <v>9653.583333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>3245</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4</v>
-      </c>
-      <c r="L74" t="n">
-        <v>9510</v>
+        <v>9515</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>9477.5</v>
-      </c>
-      <c r="N74" t="n">
-        <v>9470.333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3102,21 @@
         <v>9645.583333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3245</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-16.12903225806452</v>
-      </c>
-      <c r="L75" t="n">
-        <v>9511.5</v>
+        <v>9515</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>9483.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>9470.833333333334</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3143,21 @@
         <v>9637.5</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3245</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="L76" t="n">
-        <v>9506.5</v>
+        <v>9515</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>9488.5</v>
-      </c>
-      <c r="N76" t="n">
-        <v>9471.666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3184,21 @@
         <v>9632.166666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3245</v>
-      </c>
-      <c r="K77" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>9507</v>
+        <v>9510</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>9492.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>9472.5</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3225,21 @@
         <v>9627.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L78" t="n">
-        <v>9510.5</v>
+        <v>9515</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>9495.25</v>
-      </c>
-      <c r="N78" t="n">
-        <v>9475.166666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3266,21 @@
         <v>9619.833333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L79" t="n">
-        <v>9507.5</v>
+        <v>9520</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>9501</v>
-      </c>
-      <c r="N79" t="n">
-        <v>9477.333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3307,21 @@
         <v>9611.833333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L80" t="n">
-        <v>9506.5</v>
+        <v>9520</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>9502.75</v>
-      </c>
-      <c r="N80" t="n">
-        <v>9479.833333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3348,21 @@
         <v>9603.833333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K81" t="n">
-        <v>64.70588235294117</v>
-      </c>
-      <c r="L81" t="n">
-        <v>9505.5</v>
+        <v>9520</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>9504.5</v>
-      </c>
-      <c r="N81" t="n">
-        <v>9482.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3389,21 @@
         <v>9594.083333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>3255</v>
-      </c>
-      <c r="K82" t="n">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="L82" t="n">
-        <v>9510.5</v>
+        <v>9515</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>9508</v>
-      </c>
-      <c r="N82" t="n">
-        <v>9485.333333333334</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3430,21 @@
         <v>9585.333333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>3255</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9517</v>
+        <v>9510</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>9511.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>9488</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3471,21 @@
         <v>9578.583333333334</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>3260</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>9516.5</v>
+        <v>9515</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>9513.25</v>
-      </c>
-      <c r="N84" t="n">
-        <v>9490.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3512,21 @@
         <v>9570.833333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-475</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3295</v>
-      </c>
-      <c r="K85" t="n">
-        <v>60</v>
-      </c>
-      <c r="L85" t="n">
-        <v>9519.5</v>
+        <v>9510</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>9515.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>9495.333333333334</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3553,21 @@
         <v>9564.416666666666</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-465</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3305</v>
-      </c>
-      <c r="K86" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L86" t="n">
-        <v>9523.5</v>
+        <v>9550</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>9515</v>
-      </c>
-      <c r="N86" t="n">
-        <v>9500.166666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3594,21 @@
         <v>9557.75</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-425</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>3345</v>
-      </c>
-      <c r="K87" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="L87" t="n">
-        <v>9531.5</v>
+        <v>9595</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>9519.25</v>
-      </c>
-      <c r="N87" t="n">
-        <v>9505.5</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3635,21 @@
         <v>9552.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-425</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>3345</v>
-      </c>
-      <c r="K88" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="L88" t="n">
-        <v>9539</v>
+        <v>9595</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>9524.75</v>
-      </c>
-      <c r="N88" t="n">
-        <v>9509.833333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3676,21 @@
         <v>9547.416666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-425</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3345</v>
-      </c>
-      <c r="K89" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="L89" t="n">
-        <v>9546.5</v>
+        <v>9595</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>9527</v>
-      </c>
-      <c r="N89" t="n">
-        <v>9516.166666666666</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3717,21 @@
         <v>9542.833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-435</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3355</v>
-      </c>
-      <c r="K90" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9553</v>
+        <v>9590</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>9529.75</v>
-      </c>
-      <c r="N90" t="n">
-        <v>9519.5</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,33 +3758,21 @@
         <v>9538.166666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-440</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3360</v>
-      </c>
-      <c r="K91" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9559</v>
-      </c>
-      <c r="M91" t="n">
-        <v>9532.25</v>
-      </c>
-      <c r="N91" t="n">
-        <v>9522.666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
-        <v>1</v>
-      </c>
+        <v>9580</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4933,31 +3797,23 @@
         <v>9535.666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-420</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>3380</v>
+        <v>9600</v>
       </c>
       <c r="K92" t="n">
-        <v>68</v>
-      </c>
-      <c r="L92" t="n">
-        <v>9567.5</v>
+        <v>9580</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>9539</v>
-      </c>
-      <c r="N92" t="n">
-        <v>9527.833333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3840,23 @@
         <v>9531.5</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-490</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3450</v>
+        <v>9595</v>
       </c>
       <c r="K93" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L93" t="n">
-        <v>9569</v>
+        <v>9580</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>9543</v>
-      </c>
-      <c r="N93" t="n">
-        <v>9530.666666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3883,23 @@
         <v>9528.833333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-420</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>3520</v>
+        <v>9600</v>
       </c>
       <c r="K94" t="n">
-        <v>24.44444444444444</v>
-      </c>
-      <c r="L94" t="n">
-        <v>9578</v>
+        <v>9580</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>9547.25</v>
-      </c>
-      <c r="N94" t="n">
-        <v>9534.833333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3926,23 @@
         <v>9525.833333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-420</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>3520</v>
+        <v>9600</v>
       </c>
       <c r="K95" t="n">
-        <v>20.93023255813954</v>
-      </c>
-      <c r="L95" t="n">
-        <v>9583.5</v>
+        <v>9580</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>9551.5</v>
-      </c>
-      <c r="N95" t="n">
-        <v>9538.166666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3969,23 @@
         <v>9521.75</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-505</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>3605</v>
+        <v>9520</v>
       </c>
       <c r="K96" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L96" t="n">
-        <v>9579.5</v>
+        <v>9580</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>9551.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>9536.5</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4012,23 @@
         <v>9519.083333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>3680</v>
+        <v>9590</v>
       </c>
       <c r="K97" t="n">
-        <v>-1.492537313432836</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9579</v>
+        <v>9580</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>9555.25</v>
-      </c>
-      <c r="N97" t="n">
-        <v>9539.166666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4055,23 @@
         <v>9518.416666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-425</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>3685</v>
+        <v>9595</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9579</v>
+        <v>9580</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>9559</v>
-      </c>
-      <c r="N98" t="n">
-        <v>9542.833333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4098,23 @@
         <v>9516.75</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-425</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>3685</v>
+        <v>9595</v>
       </c>
       <c r="K99" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9579</v>
+        <v>9580</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>9562.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>9544.333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4141,23 @@
         <v>9515.083333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-425</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>3685</v>
+        <v>9595</v>
       </c>
       <c r="K100" t="n">
-        <v>4.615384615384616</v>
-      </c>
-      <c r="L100" t="n">
         <v>9580</v>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
-        <v>9566.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>9546.5</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4184,23 @@
         <v>9512.25</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-520</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>3780</v>
+        <v>9500</v>
       </c>
       <c r="K101" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L101" t="n">
-        <v>9572</v>
+        <v>9580</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>9565.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>9545.5</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +4227,23 @@
         <v>9512.583333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-430</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>3870</v>
+        <v>9590</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9571</v>
+        <v>9580</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>9569.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>9549.666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4270,23 @@
         <v>9513.416666666666</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-400</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>3900</v>
+        <v>9585</v>
       </c>
       <c r="K103" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L103" t="n">
         <v>9580</v>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
-        <v>9574.5</v>
-      </c>
-      <c r="N103" t="n">
-        <v>9555.333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,32 +4313,24 @@
         <v>9514.25</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-420</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>3920</v>
+        <v>9600</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
         <v>9580</v>
       </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M104" t="n">
-        <v>9579</v>
-      </c>
-      <c r="N104" t="n">
-        <v>9558.166666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
+        <v>0.9970876826722338</v>
       </c>
     </row>
     <row r="105">
@@ -5596,31 +4356,23 @@
         <v>9516.583333333334</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-380</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>3960</v>
+        <v>9615</v>
       </c>
       <c r="K105" t="n">
-        <v>35.2112676056338</v>
-      </c>
-      <c r="L105" t="n">
-        <v>9584</v>
+        <v>9600</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>9583.75</v>
-      </c>
-      <c r="N105" t="n">
-        <v>9562.333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4399,23 @@
         <v>9519.166666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-375</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>3965</v>
+        <v>9645</v>
       </c>
       <c r="K106" t="n">
-        <v>19.29824561403509</v>
-      </c>
-      <c r="L106" t="n">
-        <v>9597</v>
+        <v>9600</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>9588.25</v>
-      </c>
-      <c r="N106" t="n">
-        <v>9566.666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4445,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-380</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3970</v>
-      </c>
-      <c r="K107" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L107" t="n">
-        <v>9602</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>9590.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>9570.833333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4480,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-370</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3980</v>
-      </c>
-      <c r="K108" t="n">
-        <v>18.64406779661017</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9607.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>9593.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>9575.166666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4515,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-355</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3995</v>
-      </c>
-      <c r="K109" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L109" t="n">
-        <v>9614.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>9596.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>9580</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4550,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-350</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4000</v>
-      </c>
-      <c r="K110" t="n">
-        <v>77.27272727272727</v>
-      </c>
-      <c r="L110" t="n">
-        <v>9622</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>9601</v>
-      </c>
-      <c r="N110" t="n">
-        <v>9585</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4585,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4030</v>
-      </c>
-      <c r="K111" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="L111" t="n">
-        <v>9642</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>9607</v>
-      </c>
-      <c r="N111" t="n">
-        <v>9591</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4620,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4030</v>
-      </c>
-      <c r="K112" t="n">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="L112" t="n">
-        <v>9653</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>9612</v>
-      </c>
-      <c r="N112" t="n">
-        <v>9597.166666666666</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4655,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4030</v>
-      </c>
-      <c r="K113" t="n">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="L113" t="n">
-        <v>9661</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>9620.5</v>
-      </c>
-      <c r="N113" t="n">
-        <v>9603.333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4690,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-310</v>
-      </c>
-      <c r="J114" t="n">
-        <v>4040</v>
-      </c>
-      <c r="K114" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L114" t="n">
-        <v>9672</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>9626</v>
-      </c>
-      <c r="N114" t="n">
-        <v>9610</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4725,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-300</v>
-      </c>
-      <c r="J115" t="n">
-        <v>4050</v>
-      </c>
-      <c r="K115" t="n">
-        <v>88.23529411764706</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9680</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>9632</v>
-      </c>
-      <c r="N115" t="n">
-        <v>9615.833333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4760,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-275</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4075</v>
-      </c>
-      <c r="K116" t="n">
-        <v>100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>9690</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>9643.5</v>
-      </c>
-      <c r="N116" t="n">
-        <v>9622.166666666666</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4795,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-270</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4080</v>
-      </c>
-      <c r="K117" t="n">
-        <v>100</v>
-      </c>
-      <c r="L117" t="n">
-        <v>9701</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>9651.5</v>
-      </c>
-      <c r="N117" t="n">
-        <v>9627.333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4830,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-275</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4085</v>
-      </c>
-      <c r="K118" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="L118" t="n">
-        <v>9710.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>9659</v>
-      </c>
-      <c r="N118" t="n">
-        <v>9632.333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4865,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-390</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4200</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L119" t="n">
-        <v>9707</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>9660.75</v>
-      </c>
-      <c r="N119" t="n">
-        <v>9633.5</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4900,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-440</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4250</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L120" t="n">
-        <v>9698</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>9660</v>
-      </c>
-      <c r="N120" t="n">
-        <v>9633.333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4935,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-440</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4250</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L121" t="n">
-        <v>9686</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>9664</v>
-      </c>
-      <c r="N121" t="n">
-        <v>9633.333333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4970,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-480</v>
-      </c>
-      <c r="J122" t="n">
-        <v>4290</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-61.53846153846154</v>
-      </c>
-      <c r="L122" t="n">
-        <v>9670</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>9661.5</v>
-      </c>
-      <c r="N122" t="n">
-        <v>9631.333333333334</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5005,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-480</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4290</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-68</v>
-      </c>
-      <c r="L123" t="n">
-        <v>9654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>9657.5</v>
-      </c>
-      <c r="N123" t="n">
-        <v>9631.666666666666</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5040,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-465</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4305</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-64.70588235294117</v>
-      </c>
-      <c r="L124" t="n">
-        <v>9638.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>9655.25</v>
-      </c>
-      <c r="N124" t="n">
-        <v>9630.166666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5075,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-465</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4305</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-82.60869565217391</v>
-      </c>
-      <c r="L125" t="n">
-        <v>9622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>9651</v>
-      </c>
-      <c r="N125" t="n">
-        <v>9628.666666666666</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5110,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-445</v>
-      </c>
-      <c r="J126" t="n">
-        <v>4325</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L126" t="n">
-        <v>9605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>9647.5</v>
-      </c>
-      <c r="N126" t="n">
-        <v>9630.666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5145,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-495</v>
-      </c>
-      <c r="J127" t="n">
-        <v>4375</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-75.86206896551724</v>
-      </c>
-      <c r="L127" t="n">
-        <v>9582.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>9641.75</v>
-      </c>
-      <c r="N127" t="n">
-        <v>9628.5</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5180,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-395</v>
-      </c>
-      <c r="J128" t="n">
-        <v>4475</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-1.818181818181818</v>
-      </c>
-      <c r="L128" t="n">
-        <v>9570.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>9640.5</v>
-      </c>
-      <c r="N128" t="n">
-        <v>9629.5</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5215,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-375</v>
-      </c>
-      <c r="J129" t="n">
-        <v>4495</v>
-      </c>
-      <c r="K129" t="n">
-        <v>26.53061224489796</v>
-      </c>
-      <c r="L129" t="n">
-        <v>9572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>9639.5</v>
-      </c>
-      <c r="N129" t="n">
-        <v>9631.166666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5250,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-370</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4500</v>
-      </c>
-      <c r="K130" t="n">
-        <v>28</v>
-      </c>
-      <c r="L130" t="n">
-        <v>9579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>9638.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>9633</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5285,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-365</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4505</v>
-      </c>
-      <c r="K131" t="n">
-        <v>53.48837209302325</v>
-      </c>
-      <c r="L131" t="n">
-        <v>9586.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>9636.25</v>
-      </c>
-      <c r="N131" t="n">
-        <v>9638.166666666666</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5320,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-360</v>
-      </c>
-      <c r="J132" t="n">
-        <v>4510</v>
-      </c>
-      <c r="K132" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="L132" t="n">
-        <v>9598.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>9634.25</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9640.5</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5355,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-365</v>
-      </c>
-      <c r="J133" t="n">
-        <v>4515</v>
-      </c>
-      <c r="K133" t="n">
-        <v>47.61904761904761</v>
-      </c>
-      <c r="L133" t="n">
-        <v>9610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>9632</v>
-      </c>
-      <c r="N133" t="n">
-        <v>9641.666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5390,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-340</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4540</v>
-      </c>
-      <c r="K134" t="n">
-        <v>53.19148936170212</v>
-      </c>
-      <c r="L134" t="n">
-        <v>9622.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>9630.5</v>
-      </c>
-      <c r="N134" t="n">
-        <v>9644.333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5425,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J135" t="n">
-        <v>4560</v>
-      </c>
-      <c r="K135" t="n">
-        <v>53.19148936170212</v>
-      </c>
-      <c r="L135" t="n">
-        <v>9637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>9629.5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>9646.333333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5460,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4560</v>
-      </c>
-      <c r="K136" t="n">
-        <v>94.5945945945946</v>
-      </c>
-      <c r="L136" t="n">
-        <v>9649.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>9627.25</v>
-      </c>
-      <c r="N136" t="n">
-        <v>9648.166666666666</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5495,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-290</v>
-      </c>
-      <c r="J137" t="n">
-        <v>4590</v>
-      </c>
-      <c r="K137" t="n">
-        <v>91.30434782608695</v>
-      </c>
-      <c r="L137" t="n">
-        <v>9670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>9626.25</v>
-      </c>
-      <c r="N137" t="n">
-        <v>9651.166666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5530,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-280</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4600</v>
-      </c>
-      <c r="K138" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L138" t="n">
-        <v>9681.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>9626</v>
-      </c>
-      <c r="N138" t="n">
-        <v>9654.166666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5565,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-280</v>
-      </c>
-      <c r="J139" t="n">
-        <v>4600</v>
-      </c>
-      <c r="K139" t="n">
-        <v>90</v>
-      </c>
-      <c r="L139" t="n">
-        <v>9691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>9631.5</v>
-      </c>
-      <c r="N139" t="n">
-        <v>9656.666666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5600,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-280</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4600</v>
-      </c>
-      <c r="K140" t="n">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="L140" t="n">
-        <v>9700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>9639.5</v>
-      </c>
-      <c r="N140" t="n">
-        <v>9659</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5635,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-290</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4610</v>
-      </c>
-      <c r="K141" t="n">
-        <v>70</v>
-      </c>
-      <c r="L141" t="n">
-        <v>9707.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>9647</v>
-      </c>
-      <c r="N141" t="n">
-        <v>9660</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5670,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4640</v>
-      </c>
-      <c r="K142" t="n">
-        <v>36</v>
-      </c>
-      <c r="L142" t="n">
-        <v>9711.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>9655</v>
-      </c>
-      <c r="N142" t="n">
-        <v>9660</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5705,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-315</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4645</v>
-      </c>
-      <c r="K143" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L143" t="n">
-        <v>9716.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>9663.25</v>
-      </c>
-      <c r="N143" t="n">
-        <v>9660.166666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5740,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-310</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4650</v>
-      </c>
-      <c r="K144" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L144" t="n">
-        <v>9719.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>9671</v>
-      </c>
-      <c r="N144" t="n">
-        <v>9660.166666666666</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5775,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-315</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4655</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L145" t="n">
-        <v>9720</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>9678.5</v>
-      </c>
-      <c r="N145" t="n">
-        <v>9659.666666666666</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5810,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-395</v>
-      </c>
-      <c r="J146" t="n">
-        <v>4735</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-72.41379310344827</v>
-      </c>
-      <c r="L146" t="n">
-        <v>9712.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>9681</v>
-      </c>
-      <c r="N146" t="n">
-        <v>9655.666666666666</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5845,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4810</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-19.04761904761905</v>
-      </c>
-      <c r="L147" t="n">
-        <v>9709.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>9689.75</v>
-      </c>
-      <c r="N147" t="n">
-        <v>9654</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5880,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-330</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4820</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-22.72727272727273</v>
-      </c>
-      <c r="L148" t="n">
-        <v>9704.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>9693</v>
-      </c>
-      <c r="N148" t="n">
-        <v>9652.166666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5915,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-335</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4825</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-24.44444444444444</v>
-      </c>
-      <c r="L149" t="n">
-        <v>9699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>9695</v>
-      </c>
-      <c r="N149" t="n">
-        <v>9654</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5950,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-335</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4825</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-20.93023255813954</v>
-      </c>
-      <c r="L150" t="n">
-        <v>9693.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>9696.75</v>
-      </c>
-      <c r="N150" t="n">
-        <v>9657.5</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5985,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4840</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>9690.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>9699</v>
-      </c>
-      <c r="N151" t="n">
-        <v>9661.5</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +6020,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4840</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L152" t="n">
-        <v>9690.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>9701</v>
-      </c>
-      <c r="N152" t="n">
-        <v>9666.833333333334</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6055,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4840</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L153" t="n">
-        <v>9690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>9703.25</v>
-      </c>
-      <c r="N153" t="n">
-        <v>9672.166666666666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6090,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4845</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L154" t="n">
-        <v>9688.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>9704</v>
-      </c>
-      <c r="N154" t="n">
-        <v>9676.833333333334</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6125,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4845</v>
-      </c>
-      <c r="K155" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L155" t="n">
-        <v>9687.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>9703.75</v>
-      </c>
-      <c r="N155" t="n">
-        <v>9681.5</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6160,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4845</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L156" t="n">
-        <v>9694.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>9703.5</v>
-      </c>
-      <c r="N156" t="n">
-        <v>9685.5</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6195,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K157" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L157" t="n">
-        <v>9694.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>9702</v>
-      </c>
-      <c r="N157" t="n">
-        <v>9691.333333333334</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,28 +6230,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K158" t="n">
-        <v>60</v>
-      </c>
-      <c r="L158" t="n">
-        <v>9695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>9700</v>
-      </c>
-      <c r="N158" t="n">
-        <v>9693.833333333334</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8353,1099 +6265,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K159" t="n">
-        <v>60</v>
-      </c>
-      <c r="L159" t="n">
-        <v>9697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>9698</v>
-      </c>
-      <c r="N159" t="n">
-        <v>9695.666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C160" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D160" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E160" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F160" t="n">
-        <v>183</v>
-      </c>
-      <c r="G160" t="n">
-        <v>9665.166666666666</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>9698.5</v>
-      </c>
-      <c r="M160" t="n">
-        <v>9696</v>
-      </c>
-      <c r="N160" t="n">
-        <v>9697.333333333334</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E161" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="G161" t="n">
-        <v>9668.5</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>9698.5</v>
-      </c>
-      <c r="M161" t="n">
-        <v>9694.5</v>
-      </c>
-      <c r="N161" t="n">
-        <v>9698.833333333334</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E162" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G162" t="n">
-        <v>9670.333333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>9698.5</v>
-      </c>
-      <c r="M162" t="n">
-        <v>9694.5</v>
-      </c>
-      <c r="N162" t="n">
-        <v>9700.166666666666</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F163" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="G163" t="n">
-        <v>9671.666666666666</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K163" t="n">
-        <v>100</v>
-      </c>
-      <c r="L163" t="n">
-        <v>9698.5</v>
-      </c>
-      <c r="M163" t="n">
-        <v>9694.25</v>
-      </c>
-      <c r="N163" t="n">
-        <v>9701.666666666666</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E164" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F164" t="n">
-        <v>33</v>
-      </c>
-      <c r="G164" t="n">
-        <v>9673.333333333334</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4850</v>
-      </c>
-      <c r="K164" t="n">
-        <v>100</v>
-      </c>
-      <c r="L164" t="n">
-        <v>9699</v>
-      </c>
-      <c r="M164" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N164" t="n">
-        <v>9702.333333333334</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E165" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1.0532</v>
-      </c>
-      <c r="G165" t="n">
-        <v>9673</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-400</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4930</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-88.23529411764706</v>
-      </c>
-      <c r="L165" t="n">
-        <v>9691.5</v>
-      </c>
-      <c r="M165" t="n">
-        <v>9689.5</v>
-      </c>
-      <c r="N165" t="n">
-        <v>9699.666666666666</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C166" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E166" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F166" t="n">
-        <v>42.0489</v>
-      </c>
-      <c r="G166" t="n">
-        <v>9673.916666666666</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J166" t="n">
-        <v>5010</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>9692</v>
-      </c>
-      <c r="M166" t="n">
-        <v>9693.25</v>
-      </c>
-      <c r="N166" t="n">
-        <v>9699.666666666666</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E167" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F167" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G167" t="n">
-        <v>9674.916666666666</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J167" t="n">
-        <v>5010</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>9692</v>
-      </c>
-      <c r="M167" t="n">
-        <v>9693.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>9698.666666666666</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E168" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F168" t="n">
-        <v>31</v>
-      </c>
-      <c r="G168" t="n">
-        <v>9675.75</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5010</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>9692</v>
-      </c>
-      <c r="M168" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N168" t="n">
-        <v>9697.333333333334</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E169" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F169" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="G169" t="n">
-        <v>9676.333333333334</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J169" t="n">
-        <v>5010</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>9692</v>
-      </c>
-      <c r="M169" t="n">
-        <v>9694.5</v>
-      </c>
-      <c r="N169" t="n">
-        <v>9696</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F170" t="n">
-        <v>28</v>
-      </c>
-      <c r="G170" t="n">
-        <v>9676.75</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J170" t="n">
-        <v>5015</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L170" t="n">
-        <v>9691.5</v>
-      </c>
-      <c r="M170" t="n">
-        <v>9695</v>
-      </c>
-      <c r="N170" t="n">
-        <v>9694.5</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C171" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D171" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E171" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F171" t="n">
-        <v>408.4998</v>
-      </c>
-      <c r="G171" t="n">
-        <v>9676.75</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>-320</v>
-      </c>
-      <c r="J171" t="n">
-        <v>5020</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>9691.5</v>
-      </c>
-      <c r="M171" t="n">
-        <v>9695</v>
-      </c>
-      <c r="N171" t="n">
-        <v>9693.5</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C172" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D172" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E172" t="n">
-        <v>9540</v>
-      </c>
-      <c r="F172" t="n">
-        <v>552.1676</v>
-      </c>
-      <c r="G172" t="n">
-        <v>9676.416666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-340</v>
-      </c>
-      <c r="J172" t="n">
-        <v>5040</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="L172" t="n">
-        <v>9689.5</v>
-      </c>
-      <c r="M172" t="n">
-        <v>9694</v>
-      </c>
-      <c r="N172" t="n">
-        <v>9692.833333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C173" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D173" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E173" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F173" t="n">
-        <v>12</v>
-      </c>
-      <c r="G173" t="n">
-        <v>9676.333333333334</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-2.439024390243902</v>
-      </c>
-      <c r="L173" t="n">
-        <v>9689</v>
-      </c>
-      <c r="M173" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N173" t="n">
-        <v>9692.5</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>9685</v>
-      </c>
-      <c r="C174" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E174" t="n">
-        <v>9685</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10</v>
-      </c>
-      <c r="G174" t="n">
-        <v>9676.083333333334</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J174" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K174" t="n">
-        <v>60</v>
-      </c>
-      <c r="L174" t="n">
-        <v>9688.5</v>
-      </c>
-      <c r="M174" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N174" t="n">
-        <v>9692</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2.5528</v>
-      </c>
-      <c r="G175" t="n">
-        <v>9675.666666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J175" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L175" t="n">
-        <v>9696</v>
-      </c>
-      <c r="M175" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N175" t="n">
-        <v>9691.666666666666</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E176" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F176" t="n">
-        <v>12</v>
-      </c>
-      <c r="G176" t="n">
-        <v>9674.833333333334</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J176" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L176" t="n">
-        <v>9695.5</v>
-      </c>
-      <c r="M176" t="n">
-        <v>9693.75</v>
-      </c>
-      <c r="N176" t="n">
-        <v>9694</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F177" t="n">
-        <v>10</v>
-      </c>
-      <c r="G177" t="n">
-        <v>9673.916666666666</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J177" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L177" t="n">
-        <v>9695</v>
-      </c>
-      <c r="M177" t="n">
-        <v>9693.5</v>
-      </c>
-      <c r="N177" t="n">
-        <v>9693.833333333334</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E178" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F178" t="n">
-        <v>12</v>
-      </c>
-      <c r="G178" t="n">
-        <v>9673.083333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>-325</v>
-      </c>
-      <c r="J178" t="n">
-        <v>5055</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L178" t="n">
-        <v>9694.5</v>
-      </c>
-      <c r="M178" t="n">
-        <v>9693.25</v>
-      </c>
-      <c r="N178" t="n">
-        <v>9694</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C179" t="n">
-        <v>9520</v>
-      </c>
-      <c r="D179" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9520</v>
-      </c>
-      <c r="F179" t="n">
-        <v>57.5536</v>
-      </c>
-      <c r="G179" t="n">
-        <v>9671.25</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>-500</v>
-      </c>
-      <c r="J179" t="n">
-        <v>5230</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-81.3953488372093</v>
-      </c>
-      <c r="L179" t="n">
-        <v>9676.5</v>
-      </c>
-      <c r="M179" t="n">
-        <v>9684.25</v>
-      </c>
-      <c r="N179" t="n">
-        <v>9688.5</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F180" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9673.083333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-330</v>
-      </c>
-      <c r="J180" t="n">
-        <v>5400</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-2.631578947368421</v>
-      </c>
-      <c r="L180" t="n">
-        <v>9676</v>
-      </c>
-      <c r="M180" t="n">
-        <v>9683.75</v>
-      </c>
-      <c r="N180" t="n">
-        <v>9688.666666666666</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -2446,594 +2446,536 @@
         <v>9801.916666666666</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9490</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9485</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9485</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9485</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9791</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9485</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9485</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9485</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9780.916666666666</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9445</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9445</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9445</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.7394</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9771.333333333334</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9445</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9445</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9445</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20.9312</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9761.75</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9475</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9475</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9475</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9475</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9.6342</v>
+      </c>
+      <c r="G64" t="n">
+        <v>9750.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9739.666666666666</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9565</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9565</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9565</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9565</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0085</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9729.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9515</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9515</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9510</v>
+      </c>
+      <c r="F67" t="n">
+        <v>156.8461</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9718.916666666666</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C68" t="n">
+        <v>9485</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9485</v>
+      </c>
+      <c r="F68" t="n">
+        <v>400.7795</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9707.666666666666</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9550</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E69" t="n">
+        <v>9550</v>
+      </c>
+      <c r="F69" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9697.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9485</v>
+      </c>
+      <c r="K69" t="n">
+        <v>9485</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9530</v>
+      </c>
+      <c r="F70" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9690.083333333334</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>9550</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9485</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9530</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9530</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F71" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9680.583333333334</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9485</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>9465</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9465</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9465</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9465</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9670.333333333334</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9460</v>
+      </c>
+      <c r="C73" t="n">
+        <v>9450</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9460</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9450</v>
+      </c>
+      <c r="F73" t="n">
+        <v>168.3499</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9659.666666666666</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>9465</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9485</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9485</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9485</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9485</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>9791</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9485</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>9485</v>
-      </c>
-      <c r="C61" t="n">
-        <v>9485</v>
-      </c>
-      <c r="D61" t="n">
-        <v>9485</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9485</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G61" t="n">
-        <v>9780.916666666666</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9485</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>9445</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9445</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9445</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9445</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1.7394</v>
-      </c>
-      <c r="G62" t="n">
-        <v>9771.333333333334</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9445</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>9445</v>
-      </c>
-      <c r="C63" t="n">
-        <v>9445</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9445</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9445</v>
-      </c>
-      <c r="F63" t="n">
-        <v>20.9312</v>
-      </c>
-      <c r="G63" t="n">
-        <v>9761.75</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9445</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>9475</v>
-      </c>
-      <c r="C64" t="n">
-        <v>9475</v>
-      </c>
-      <c r="D64" t="n">
-        <v>9475</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9475</v>
-      </c>
-      <c r="F64" t="n">
-        <v>9.6342</v>
-      </c>
-      <c r="G64" t="n">
-        <v>9750.5</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9475</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>9500</v>
-      </c>
-      <c r="C65" t="n">
-        <v>9500</v>
-      </c>
-      <c r="D65" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="G65" t="n">
-        <v>9739.666666666666</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>9500</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>9565</v>
-      </c>
-      <c r="C66" t="n">
-        <v>9565</v>
-      </c>
-      <c r="D66" t="n">
-        <v>9565</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9565</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.0085</v>
-      </c>
-      <c r="G66" t="n">
-        <v>9729.75</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9565</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>9515</v>
-      </c>
-      <c r="C67" t="n">
-        <v>9510</v>
-      </c>
-      <c r="D67" t="n">
-        <v>9515</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9510</v>
-      </c>
-      <c r="F67" t="n">
-        <v>156.8461</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9718.916666666666</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>9495</v>
-      </c>
-      <c r="C68" t="n">
-        <v>9485</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9495</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9485</v>
-      </c>
-      <c r="F68" t="n">
-        <v>400.7795</v>
-      </c>
-      <c r="G68" t="n">
-        <v>9707.666666666666</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9495</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>9550</v>
-      </c>
-      <c r="C69" t="n">
-        <v>9550</v>
-      </c>
-      <c r="D69" t="n">
-        <v>9550</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9550</v>
-      </c>
-      <c r="F69" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="G69" t="n">
-        <v>9697.5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>9530</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9530</v>
-      </c>
-      <c r="F70" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="G70" t="n">
-        <v>9690.083333333334</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>9525</v>
-      </c>
-      <c r="C71" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D71" t="n">
-        <v>9530</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9525</v>
-      </c>
-      <c r="F71" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="G71" t="n">
-        <v>9680.583333333334</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9525</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>9465</v>
-      </c>
-      <c r="C72" t="n">
-        <v>9465</v>
-      </c>
-      <c r="D72" t="n">
-        <v>9465</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9465</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="G72" t="n">
-        <v>9670.333333333334</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>9460</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9450</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9460</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9450</v>
-      </c>
-      <c r="F73" t="n">
-        <v>168.3499</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9659.666666666666</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3067,9 +3009,11 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>9450</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9530</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,15 +3046,15 @@
         <v>9645.583333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9530</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,15 +3087,15 @@
         <v>9637.5</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9530</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,15 +3128,15 @@
         <v>9632.166666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9530</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3225,15 +3169,15 @@
         <v>9627.5</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9530</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,15 +3210,15 @@
         <v>9619.833333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9520</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9530</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,15 +3251,15 @@
         <v>9611.833333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9520</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9530</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,15 +3292,15 @@
         <v>9603.833333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9520</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9530</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,15 +3333,15 @@
         <v>9594.083333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9530</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,15 +3374,15 @@
         <v>9585.333333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9530</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,15 +3415,15 @@
         <v>9578.583333333334</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9530</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,15 +3456,15 @@
         <v>9570.833333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9530</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,15 +3497,15 @@
         <v>9564.416666666666</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9530</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,15 +3538,15 @@
         <v>9557.75</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>9595</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9530</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,15 +3579,15 @@
         <v>9552.5</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>9595</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9530</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,15 +3620,15 @@
         <v>9547.416666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>9595</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9530</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,15 +3661,15 @@
         <v>9542.833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>9590</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9530</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,21 +3702,23 @@
         <v>9538.166666666666</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9580</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9530</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3797,20 +3743,18 @@
         <v>9535.666666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3840,20 +3784,18 @@
         <v>9531.5</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3883,16 +3825,14 @@
         <v>9528.833333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3926,16 +3866,14 @@
         <v>9525.833333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3969,16 +3907,14 @@
         <v>9521.75</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4012,16 +3948,14 @@
         <v>9519.083333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>9590</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4055,16 +3989,14 @@
         <v>9518.416666666666</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4098,16 +4030,14 @@
         <v>9516.75</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4141,16 +4071,14 @@
         <v>9515.083333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4184,16 +4112,14 @@
         <v>9512.25</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4227,16 +4153,14 @@
         <v>9512.583333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4270,16 +4194,14 @@
         <v>9513.416666666666</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>9585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4313,565 +4235,637 @@
         <v>9514.25</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>9580</v>
+        <v>9530</v>
       </c>
       <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9615</v>
+      </c>
+      <c r="F105" t="n">
+        <v>103.7212</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9516.583333333334</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9645</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9645</v>
+      </c>
+      <c r="F106" t="n">
+        <v>42.8731</v>
+      </c>
+      <c r="G106" t="n">
+        <v>9519.166666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9521.666666666666</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9650</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9525.166666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9665</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9665</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9528.666666666666</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9665</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="n">
+        <v>9532.416666666666</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9536.75</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F112" t="n">
+        <v>35</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9541.25</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9545.666666666666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9710</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F114" t="n">
+        <v>28</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9550.25</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9710</v>
+      </c>
+      <c r="F115" t="n">
+        <v>40</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9555.583333333334</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F116" t="n">
+        <v>33.4853</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9561.166666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9750</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9566.416666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9745</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10.1862</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9571.083333333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9440</v>
+      </c>
+      <c r="F119" t="n">
+        <v>77.9682</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9574.833333333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>0.9970876826722338</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F105" t="n">
-        <v>103.7212</v>
-      </c>
-      <c r="G105" t="n">
-        <v>9516.583333333334</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K105" t="n">
-        <v>9600</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9645</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9645</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9645</v>
-      </c>
-      <c r="F106" t="n">
-        <v>42.8731</v>
-      </c>
-      <c r="G106" t="n">
-        <v>9519.166666666666</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>9645</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9600</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="G107" t="n">
-        <v>9521.666666666666</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9525.166666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9665</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9665</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F109" t="n">
-        <v>14</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9528.666666666666</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9665</v>
-      </c>
-      <c r="F110" t="n">
-        <v>14</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9532.416666666666</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9670</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9670</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4</v>
-      </c>
-      <c r="G111" t="n">
-        <v>9536.75</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F112" t="n">
-        <v>35</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9541.25</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-      <c r="G113" t="n">
-        <v>9545.666666666666</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9710</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9710</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F114" t="n">
-        <v>28</v>
-      </c>
-      <c r="G114" t="n">
-        <v>9550.25</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9710</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9720</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9720</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9710</v>
-      </c>
-      <c r="F115" t="n">
-        <v>40</v>
-      </c>
-      <c r="G115" t="n">
-        <v>9555.583333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9720</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9720</v>
-      </c>
-      <c r="F116" t="n">
-        <v>33.4853</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9561.166666666666</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9750</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9750</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9750</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9566.416666666666</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9745</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9745</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10.1862</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9571.083333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9440</v>
-      </c>
-      <c r="F119" t="n">
-        <v>77.9682</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9574.833333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>1.005493179433368</v>
       </c>
     </row>
     <row r="120">
@@ -4935,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4970,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5565,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5635,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5670,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5775,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5810,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5985,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -6055,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6125,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10140</v>
+        <v>10090</v>
       </c>
       <c r="C2" t="n">
-        <v>10020</v>
+        <v>10090</v>
       </c>
       <c r="D2" t="n">
-        <v>10160</v>
+        <v>10090</v>
       </c>
       <c r="E2" t="n">
-        <v>10020</v>
+        <v>10090</v>
       </c>
       <c r="F2" t="n">
-        <v>1604.25639921</v>
+        <v>3.9785</v>
       </c>
       <c r="G2" t="n">
-        <v>9890.416666666666</v>
+        <v>9884.916666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10130</v>
+        <v>10140</v>
       </c>
       <c r="C3" t="n">
         <v>10020</v>
@@ -480,10 +480,10 @@
         <v>10020</v>
       </c>
       <c r="F3" t="n">
-        <v>177.72413267</v>
+        <v>1604.25639921</v>
       </c>
       <c r="G3" t="n">
-        <v>9895.833333333334</v>
+        <v>9890.416666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10100</v>
+        <v>10130</v>
       </c>
       <c r="C4" t="n">
-        <v>10150</v>
+        <v>10020</v>
       </c>
       <c r="D4" t="n">
-        <v>10150</v>
+        <v>10160</v>
       </c>
       <c r="E4" t="n">
-        <v>10100</v>
+        <v>10020</v>
       </c>
       <c r="F4" t="n">
-        <v>107.082</v>
+        <v>177.72413267</v>
       </c>
       <c r="G4" t="n">
-        <v>9904.25</v>
+        <v>9895.833333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10150</v>
+        <v>10100</v>
       </c>
       <c r="C5" t="n">
         <v>10150</v>
@@ -547,13 +547,13 @@
         <v>10150</v>
       </c>
       <c r="E5" t="n">
-        <v>10150</v>
+        <v>10100</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>107.082</v>
       </c>
       <c r="G5" t="n">
-        <v>9911.75</v>
+        <v>9904.25</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="C6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="D6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="E6" t="n">
-        <v>10160</v>
+        <v>10150</v>
       </c>
       <c r="F6" t="n">
-        <v>44.26079291</v>
+        <v>63</v>
       </c>
       <c r="G6" t="n">
-        <v>9919.416666666666</v>
+        <v>9911.75</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>10160</v>
       </c>
       <c r="F7" t="n">
-        <v>32.5</v>
+        <v>44.26079291</v>
       </c>
       <c r="G7" t="n">
-        <v>9927.083333333334</v>
+        <v>9919.416666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>10160</v>
       </c>
       <c r="F8" t="n">
-        <v>186.3713</v>
+        <v>32.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9935.75</v>
+        <v>9927.083333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>10160</v>
       </c>
       <c r="F9" t="n">
-        <v>48.5838</v>
+        <v>186.3713</v>
       </c>
       <c r="G9" t="n">
-        <v>9944.333333333334</v>
+        <v>9935.75</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10030</v>
+        <v>10160</v>
       </c>
       <c r="C10" t="n">
-        <v>9975</v>
+        <v>10160</v>
       </c>
       <c r="D10" t="n">
-        <v>10030</v>
+        <v>10160</v>
       </c>
       <c r="E10" t="n">
-        <v>9975</v>
+        <v>10160</v>
       </c>
       <c r="F10" t="n">
-        <v>629.3538</v>
+        <v>48.5838</v>
       </c>
       <c r="G10" t="n">
-        <v>9948.916666666666</v>
+        <v>9944.333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10140</v>
+        <v>10030</v>
       </c>
       <c r="C11" t="n">
-        <v>10100</v>
+        <v>9975</v>
       </c>
       <c r="D11" t="n">
-        <v>10140</v>
+        <v>10030</v>
       </c>
       <c r="E11" t="n">
-        <v>10100</v>
+        <v>9975</v>
       </c>
       <c r="F11" t="n">
-        <v>62.34</v>
+        <v>629.3538</v>
       </c>
       <c r="G11" t="n">
-        <v>9955.75</v>
+        <v>9948.916666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10080</v>
+        <v>10140</v>
       </c>
       <c r="C12" t="n">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="D12" t="n">
-        <v>10080</v>
+        <v>10140</v>
       </c>
       <c r="E12" t="n">
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="F12" t="n">
-        <v>55.14</v>
+        <v>62.34</v>
       </c>
       <c r="G12" t="n">
-        <v>9962.25</v>
+        <v>9955.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9985</v>
+        <v>10080</v>
       </c>
       <c r="C13" t="n">
-        <v>10090</v>
+        <v>10080</v>
       </c>
       <c r="D13" t="n">
-        <v>10090</v>
+        <v>10080</v>
       </c>
       <c r="E13" t="n">
-        <v>9985</v>
+        <v>10080</v>
       </c>
       <c r="F13" t="n">
-        <v>262.0066</v>
+        <v>55.14</v>
       </c>
       <c r="G13" t="n">
-        <v>9968.666666666666</v>
+        <v>9962.25</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9980</v>
+        <v>9985</v>
       </c>
       <c r="C14" t="n">
-        <v>9880</v>
+        <v>10090</v>
       </c>
       <c r="D14" t="n">
-        <v>9980</v>
+        <v>10090</v>
       </c>
       <c r="E14" t="n">
-        <v>9880</v>
+        <v>9985</v>
       </c>
       <c r="F14" t="n">
-        <v>30.8346</v>
+        <v>262.0066</v>
       </c>
       <c r="G14" t="n">
-        <v>9971.583333333334</v>
+        <v>9968.666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10070</v>
+        <v>9980</v>
       </c>
       <c r="C15" t="n">
-        <v>9995</v>
+        <v>9880</v>
       </c>
       <c r="D15" t="n">
-        <v>10070</v>
+        <v>9980</v>
       </c>
       <c r="E15" t="n">
-        <v>9995</v>
+        <v>9880</v>
       </c>
       <c r="F15" t="n">
-        <v>17.12790025</v>
+        <v>30.8346</v>
       </c>
       <c r="G15" t="n">
-        <v>9976</v>
+        <v>9971.583333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>10070</v>
+      </c>
+      <c r="C16" t="n">
         <v>9995</v>
       </c>
-      <c r="C16" t="n">
-        <v>10000</v>
-      </c>
       <c r="D16" t="n">
-        <v>10000</v>
+        <v>10070</v>
       </c>
       <c r="E16" t="n">
         <v>9995</v>
       </c>
       <c r="F16" t="n">
-        <v>10.00221474</v>
+        <v>17.12790025</v>
       </c>
       <c r="G16" t="n">
-        <v>9980.5</v>
+        <v>9976</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9835</v>
+        <v>9995</v>
       </c>
       <c r="C17" t="n">
-        <v>9835</v>
+        <v>10000</v>
       </c>
       <c r="D17" t="n">
-        <v>9835</v>
+        <v>10000</v>
       </c>
       <c r="E17" t="n">
-        <v>9835</v>
+        <v>9995</v>
       </c>
       <c r="F17" t="n">
-        <v>16.0871</v>
+        <v>10.00221474</v>
       </c>
       <c r="G17" t="n">
-        <v>9982.25</v>
+        <v>9980.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9810</v>
+        <v>9835</v>
       </c>
       <c r="C18" t="n">
-        <v>9800</v>
+        <v>9835</v>
       </c>
       <c r="D18" t="n">
-        <v>9810</v>
+        <v>9835</v>
       </c>
       <c r="E18" t="n">
-        <v>9800</v>
+        <v>9835</v>
       </c>
       <c r="F18" t="n">
-        <v>84.14570000000001</v>
+        <v>16.0871</v>
       </c>
       <c r="G18" t="n">
-        <v>9983.416666666666</v>
+        <v>9982.25</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9830</v>
+        <v>9810</v>
       </c>
       <c r="C19" t="n">
-        <v>9980</v>
+        <v>9800</v>
       </c>
       <c r="D19" t="n">
-        <v>9980</v>
+        <v>9810</v>
       </c>
       <c r="E19" t="n">
-        <v>9830</v>
+        <v>9800</v>
       </c>
       <c r="F19" t="n">
-        <v>227.5611</v>
+        <v>84.14570000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>9987.583333333334</v>
+        <v>9983.416666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C20" t="n">
         <v>9980</v>
       </c>
-      <c r="C20" t="n">
-        <v>10000</v>
-      </c>
       <c r="D20" t="n">
-        <v>10000</v>
+        <v>9980</v>
       </c>
       <c r="E20" t="n">
-        <v>9980</v>
+        <v>9830</v>
       </c>
       <c r="F20" t="n">
-        <v>32.5</v>
+        <v>227.5611</v>
       </c>
       <c r="G20" t="n">
-        <v>9992.083333333334</v>
+        <v>9987.583333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9990</v>
+        <v>9980</v>
       </c>
       <c r="C21" t="n">
         <v>10000</v>
@@ -1107,13 +1107,13 @@
         <v>10000</v>
       </c>
       <c r="E21" t="n">
-        <v>9990</v>
+        <v>9980</v>
       </c>
       <c r="F21" t="n">
-        <v>74</v>
+        <v>32.5</v>
       </c>
       <c r="G21" t="n">
-        <v>9996.583333333334</v>
+        <v>9992.083333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>9990</v>
+      </c>
+      <c r="C22" t="n">
         <v>10000</v>
       </c>
-      <c r="C22" t="n">
-        <v>10100</v>
-      </c>
       <c r="D22" t="n">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
+        <v>9990</v>
       </c>
       <c r="F22" t="n">
-        <v>562.04948501</v>
+        <v>74</v>
       </c>
       <c r="G22" t="n">
-        <v>10002.75</v>
+        <v>9996.583333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10040</v>
+        <v>10000</v>
       </c>
       <c r="C23" t="n">
-        <v>10040</v>
+        <v>10100</v>
       </c>
       <c r="D23" t="n">
-        <v>10040</v>
+        <v>10100</v>
       </c>
       <c r="E23" t="n">
-        <v>10040</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>562.04948501</v>
       </c>
       <c r="G23" t="n">
-        <v>10007.91666666667</v>
+        <v>10002.75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="C24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="D24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="E24" t="n">
-        <v>9915</v>
+        <v>10040</v>
       </c>
       <c r="F24" t="n">
-        <v>19.1997</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>10011</v>
+        <v>10007.91666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>9915</v>
       </c>
       <c r="C25" t="n">
-        <v>10010</v>
+        <v>9915</v>
       </c>
       <c r="D25" t="n">
-        <v>10010</v>
+        <v>9915</v>
       </c>
       <c r="E25" t="n">
         <v>9915</v>
       </c>
       <c r="F25" t="n">
-        <v>37.2674</v>
+        <v>19.1997</v>
       </c>
       <c r="G25" t="n">
-        <v>10015.66666666667</v>
+        <v>10011</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9970</v>
+        <v>9915</v>
       </c>
       <c r="C26" t="n">
-        <v>9940</v>
+        <v>10010</v>
       </c>
       <c r="D26" t="n">
-        <v>9970</v>
+        <v>10010</v>
       </c>
       <c r="E26" t="n">
-        <v>9940</v>
+        <v>9915</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>37.2674</v>
       </c>
       <c r="G26" t="n">
-        <v>10019.16666666667</v>
+        <v>10015.66666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9840</v>
+        <v>9970</v>
       </c>
       <c r="C27" t="n">
-        <v>9995</v>
+        <v>9940</v>
       </c>
       <c r="D27" t="n">
-        <v>9995</v>
+        <v>9970</v>
       </c>
       <c r="E27" t="n">
-        <v>9840</v>
+        <v>9940</v>
       </c>
       <c r="F27" t="n">
-        <v>101.6151</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>10023.58333333333</v>
+        <v>10019.16666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9920</v>
+        <v>9840</v>
       </c>
       <c r="C28" t="n">
-        <v>9910</v>
+        <v>9995</v>
       </c>
       <c r="D28" t="n">
-        <v>9920</v>
+        <v>9995</v>
       </c>
       <c r="E28" t="n">
-        <v>9910</v>
+        <v>9840</v>
       </c>
       <c r="F28" t="n">
-        <v>10.8171</v>
+        <v>101.6151</v>
       </c>
       <c r="G28" t="n">
-        <v>10026.58333333333</v>
+        <v>10023.58333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9900</v>
+        <v>9920</v>
       </c>
       <c r="C29" t="n">
-        <v>9900</v>
+        <v>9910</v>
       </c>
       <c r="D29" t="n">
-        <v>9905</v>
+        <v>9920</v>
       </c>
       <c r="E29" t="n">
-        <v>9870</v>
+        <v>9910</v>
       </c>
       <c r="F29" t="n">
-        <v>168.2356</v>
+        <v>10.8171</v>
       </c>
       <c r="G29" t="n">
-        <v>10028.25</v>
+        <v>10026.58333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9875</v>
+        <v>9900</v>
       </c>
       <c r="C30" t="n">
-        <v>9860</v>
+        <v>9900</v>
       </c>
       <c r="D30" t="n">
-        <v>9875</v>
+        <v>9905</v>
       </c>
       <c r="E30" t="n">
-        <v>9860</v>
+        <v>9870</v>
       </c>
       <c r="F30" t="n">
-        <v>26</v>
+        <v>168.2356</v>
       </c>
       <c r="G30" t="n">
-        <v>10029.25</v>
+        <v>10028.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9860</v>
+        <v>9875</v>
       </c>
       <c r="C31" t="n">
         <v>9860</v>
       </c>
       <c r="D31" t="n">
-        <v>9865</v>
+        <v>9875</v>
       </c>
       <c r="E31" t="n">
         <v>9860</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>10029.83333333333</v>
+        <v>10029.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="C32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="D32" t="n">
-        <v>9750</v>
+        <v>9865</v>
       </c>
       <c r="E32" t="n">
-        <v>9750</v>
+        <v>9860</v>
       </c>
       <c r="F32" t="n">
-        <v>34.597</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>10028.5</v>
+        <v>10029.83333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9670</v>
+        <v>9750</v>
       </c>
       <c r="C33" t="n">
-        <v>9780</v>
+        <v>9750</v>
       </c>
       <c r="D33" t="n">
-        <v>9785</v>
+        <v>9750</v>
       </c>
       <c r="E33" t="n">
-        <v>9630</v>
+        <v>9750</v>
       </c>
       <c r="F33" t="n">
-        <v>844.4372</v>
+        <v>34.597</v>
       </c>
       <c r="G33" t="n">
-        <v>10027.5</v>
+        <v>10028.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9655</v>
+        <v>9670</v>
       </c>
       <c r="C34" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D34" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="E34" t="n">
-        <v>9655</v>
+        <v>9630</v>
       </c>
       <c r="F34" t="n">
-        <v>93.48090000000001</v>
+        <v>844.4372</v>
       </c>
       <c r="G34" t="n">
-        <v>10024.83333333333</v>
+        <v>10027.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>9655</v>
+      </c>
+      <c r="C35" t="n">
         <v>9760</v>
       </c>
-      <c r="C35" t="n">
-        <v>9780</v>
-      </c>
       <c r="D35" t="n">
-        <v>9780</v>
+        <v>9770</v>
       </c>
       <c r="E35" t="n">
-        <v>9645</v>
+        <v>9655</v>
       </c>
       <c r="F35" t="n">
-        <v>525.9692</v>
+        <v>93.48090000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>10022.41666666667</v>
+        <v>10024.83333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9750</v>
+        <v>9760</v>
       </c>
       <c r="C36" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D36" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="E36" t="n">
-        <v>9750</v>
+        <v>9645</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>525.9692</v>
       </c>
       <c r="G36" t="n">
-        <v>10019.58333333333</v>
+        <v>10022.41666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="C37" t="n">
+        <v>9760</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9760</v>
+      </c>
+      <c r="E37" t="n">
         <v>9750</v>
       </c>
-      <c r="D37" t="n">
-        <v>9750</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9745</v>
-      </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
-        <v>10015.41666666667</v>
+        <v>10019.58333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C38" t="n">
         <v>9750</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9635</v>
       </c>
       <c r="D38" t="n">
         <v>9750</v>
       </c>
       <c r="E38" t="n">
-        <v>9635</v>
+        <v>9745</v>
       </c>
       <c r="F38" t="n">
-        <v>451.6566</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>10009.33333333333</v>
+        <v>10015.41666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9630</v>
+        <v>9750</v>
       </c>
       <c r="C39" t="n">
-        <v>9695</v>
+        <v>9635</v>
       </c>
       <c r="D39" t="n">
-        <v>9740</v>
+        <v>9750</v>
       </c>
       <c r="E39" t="n">
-        <v>9600</v>
+        <v>9635</v>
       </c>
       <c r="F39" t="n">
-        <v>860.008</v>
+        <v>451.6566</v>
       </c>
       <c r="G39" t="n">
-        <v>10004.08333333333</v>
+        <v>10009.33333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9695</v>
+        <v>9630</v>
       </c>
       <c r="C40" t="n">
         <v>9695</v>
       </c>
       <c r="D40" t="n">
-        <v>9695</v>
+        <v>9740</v>
       </c>
       <c r="E40" t="n">
-        <v>9695</v>
+        <v>9600</v>
       </c>
       <c r="F40" t="n">
-        <v>35</v>
+        <v>860.008</v>
       </c>
       <c r="G40" t="n">
-        <v>9999</v>
+        <v>10004.08333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9600</v>
+        <v>9695</v>
       </c>
       <c r="C41" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="D41" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="E41" t="n">
-        <v>9595</v>
+        <v>9695</v>
       </c>
       <c r="F41" t="n">
-        <v>129.1925</v>
+        <v>35</v>
       </c>
       <c r="G41" t="n">
-        <v>9993.333333333334</v>
+        <v>9999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E42" t="n">
         <v>9595</v>
       </c>
-      <c r="C42" t="n">
-        <v>9570</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9570</v>
-      </c>
       <c r="F42" t="n">
-        <v>254.6913</v>
+        <v>129.1925</v>
       </c>
       <c r="G42" t="n">
-        <v>9986.5</v>
+        <v>9993.333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9570</v>
+        <v>9595</v>
       </c>
       <c r="C43" t="n">
         <v>9570</v>
       </c>
       <c r="D43" t="n">
-        <v>9575</v>
+        <v>9595</v>
       </c>
       <c r="E43" t="n">
         <v>9570</v>
       </c>
       <c r="F43" t="n">
-        <v>101.063</v>
+        <v>254.6913</v>
       </c>
       <c r="G43" t="n">
-        <v>9979.666666666666</v>
+        <v>9986.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>9570</v>
       </c>
       <c r="C44" t="n">
-        <v>9550</v>
+        <v>9570</v>
       </c>
       <c r="D44" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E44" t="n">
         <v>9570</v>
       </c>
-      <c r="E44" t="n">
-        <v>9550</v>
-      </c>
       <c r="F44" t="n">
-        <v>177.347</v>
+        <v>101.063</v>
       </c>
       <c r="G44" t="n">
-        <v>9970.5</v>
+        <v>9979.666666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>9570</v>
+      </c>
+      <c r="C45" t="n">
         <v>9550</v>
       </c>
-      <c r="C45" t="n">
-        <v>9500</v>
-      </c>
       <c r="D45" t="n">
+        <v>9570</v>
+      </c>
+      <c r="E45" t="n">
         <v>9550</v>
       </c>
-      <c r="E45" t="n">
-        <v>9495</v>
-      </c>
       <c r="F45" t="n">
-        <v>518.9675999999999</v>
+        <v>177.347</v>
       </c>
       <c r="G45" t="n">
-        <v>9960.5</v>
+        <v>9970.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E46" t="n">
         <v>9495</v>
       </c>
-      <c r="C46" t="n">
-        <v>9490</v>
-      </c>
-      <c r="D46" t="n">
-        <v>9500</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9485</v>
-      </c>
       <c r="F46" t="n">
-        <v>132.7348</v>
+        <v>518.9675999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>9950.333333333334</v>
+        <v>9960.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2014,16 +2014,16 @@
         <v>9490</v>
       </c>
       <c r="D47" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="E47" t="n">
         <v>9485</v>
       </c>
       <c r="F47" t="n">
-        <v>209.7856</v>
+        <v>132.7348</v>
       </c>
       <c r="G47" t="n">
-        <v>9940.166666666666</v>
+        <v>9950.333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>9495</v>
+      </c>
+      <c r="C48" t="n">
+        <v>9490</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9495</v>
+      </c>
+      <c r="E48" t="n">
         <v>9485</v>
       </c>
-      <c r="C48" t="n">
-        <v>9440</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9485</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9440</v>
-      </c>
       <c r="F48" t="n">
-        <v>82.64060000000001</v>
+        <v>209.7856</v>
       </c>
       <c r="G48" t="n">
-        <v>9928.833333333334</v>
+        <v>9940.166666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>9485</v>
+      </c>
+      <c r="C49" t="n">
         <v>9440</v>
       </c>
-      <c r="C49" t="n">
-        <v>9455</v>
-      </c>
       <c r="D49" t="n">
-        <v>9455</v>
+        <v>9485</v>
       </c>
       <c r="E49" t="n">
         <v>9440</v>
       </c>
       <c r="F49" t="n">
-        <v>227.6278</v>
+        <v>82.64060000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>9917.75</v>
+        <v>9928.833333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9440</v>
+      </c>
+      <c r="C50" t="n">
         <v>9455</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9445</v>
       </c>
       <c r="D50" t="n">
         <v>9455</v>
       </c>
       <c r="E50" t="n">
-        <v>9445</v>
+        <v>9440</v>
       </c>
       <c r="F50" t="n">
-        <v>23.1887</v>
+        <v>227.6278</v>
       </c>
       <c r="G50" t="n">
-        <v>9906.166666666666</v>
+        <v>9917.75</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>9455</v>
+      </c>
+      <c r="C51" t="n">
         <v>9445</v>
       </c>
-      <c r="C51" t="n">
-        <v>9440</v>
-      </c>
       <c r="D51" t="n">
+        <v>9455</v>
+      </c>
+      <c r="E51" t="n">
         <v>9445</v>
       </c>
-      <c r="E51" t="n">
-        <v>9440</v>
-      </c>
       <c r="F51" t="n">
-        <v>97.3865</v>
+        <v>23.1887</v>
       </c>
       <c r="G51" t="n">
-        <v>9894.5</v>
+        <v>9906.166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>9445</v>
       </c>
       <c r="C52" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="D52" t="n">
-        <v>9450</v>
+        <v>9445</v>
       </c>
       <c r="E52" t="n">
-        <v>9430</v>
+        <v>9440</v>
       </c>
       <c r="F52" t="n">
-        <v>165.0508</v>
+        <v>97.3865</v>
       </c>
       <c r="G52" t="n">
-        <v>9882.666666666666</v>
+        <v>9894.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,32 +2218,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9435</v>
+        <v>9445</v>
       </c>
       <c r="C53" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="D53" t="n">
-        <v>9435</v>
+        <v>9450</v>
       </c>
       <c r="E53" t="n">
-        <v>9435</v>
+        <v>9430</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>165.0508</v>
       </c>
       <c r="G53" t="n">
-        <v>9870.583333333334</v>
+        <v>9882.666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9440</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,20 +2271,26 @@
         <v>9435</v>
       </c>
       <c r="F54" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>9858.833333333334</v>
+        <v>9870.583333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9430</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2291,29 +2303,35 @@
         <v>9435</v>
       </c>
       <c r="C55" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="D55" t="n">
         <v>9435</v>
       </c>
       <c r="E55" t="n">
-        <v>9400</v>
+        <v>9435</v>
       </c>
       <c r="F55" t="n">
-        <v>219.6466</v>
+        <v>27</v>
       </c>
       <c r="G55" t="n">
-        <v>9848.166666666666</v>
+        <v>9858.833333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9435</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9405</v>
+        <v>9435</v>
       </c>
       <c r="C56" t="n">
-        <v>9410</v>
+        <v>9400</v>
       </c>
       <c r="D56" t="n">
-        <v>9415</v>
+        <v>9435</v>
       </c>
       <c r="E56" t="n">
-        <v>9405</v>
+        <v>9400</v>
       </c>
       <c r="F56" t="n">
-        <v>265.9343</v>
+        <v>219.6466</v>
       </c>
       <c r="G56" t="n">
-        <v>9836.166666666666</v>
+        <v>9848.166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2366,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2361,29 +2383,35 @@
         <v>9405</v>
       </c>
       <c r="C57" t="n">
-        <v>9435</v>
+        <v>9410</v>
       </c>
       <c r="D57" t="n">
-        <v>9435</v>
+        <v>9415</v>
       </c>
       <c r="E57" t="n">
         <v>9405</v>
       </c>
       <c r="F57" t="n">
-        <v>17.1806</v>
+        <v>265.9343</v>
       </c>
       <c r="G57" t="n">
-        <v>9825.416666666666</v>
+        <v>9836.166666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9400</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2421,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>9405</v>
+      </c>
+      <c r="C58" t="n">
         <v>9435</v>
       </c>
-      <c r="C58" t="n">
-        <v>9465</v>
-      </c>
       <c r="D58" t="n">
-        <v>9465</v>
+        <v>9435</v>
       </c>
       <c r="E58" t="n">
-        <v>9425</v>
+        <v>9405</v>
       </c>
       <c r="F58" t="n">
-        <v>49.3572</v>
+        <v>17.1806</v>
       </c>
       <c r="G58" t="n">
-        <v>9814.166666666666</v>
+        <v>9825.416666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2446,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2460,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="C59" t="n">
-        <v>9405</v>
+        <v>9465</v>
       </c>
       <c r="D59" t="n">
-        <v>9490</v>
+        <v>9465</v>
       </c>
       <c r="E59" t="n">
-        <v>9405</v>
+        <v>9425</v>
       </c>
       <c r="F59" t="n">
-        <v>14.4395</v>
+        <v>49.3572</v>
       </c>
       <c r="G59" t="n">
-        <v>9801.916666666666</v>
+        <v>9814.166666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2485,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9485</v>
+        <v>9490</v>
       </c>
       <c r="C60" t="n">
-        <v>9485</v>
+        <v>9405</v>
       </c>
       <c r="D60" t="n">
-        <v>9485</v>
+        <v>9490</v>
       </c>
       <c r="E60" t="n">
-        <v>9485</v>
+        <v>9405</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>14.4395</v>
       </c>
       <c r="G60" t="n">
-        <v>9791</v>
+        <v>9801.916666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2524,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2550,10 @@
         <v>9485</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>9780.916666666666</v>
+        <v>9791</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2563,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2577,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="C62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="D62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="E62" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="F62" t="n">
-        <v>1.7394</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>9771.333333333334</v>
+        <v>9780.916666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2602,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2628,10 @@
         <v>9445</v>
       </c>
       <c r="F63" t="n">
-        <v>20.9312</v>
+        <v>1.7394</v>
       </c>
       <c r="G63" t="n">
-        <v>9761.75</v>
+        <v>9771.333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2641,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="C64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="D64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="E64" t="n">
-        <v>9475</v>
+        <v>9445</v>
       </c>
       <c r="F64" t="n">
-        <v>9.6342</v>
+        <v>20.9312</v>
       </c>
       <c r="G64" t="n">
-        <v>9750.5</v>
+        <v>9761.75</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2680,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2694,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="C65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="D65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="E65" t="n">
-        <v>9500</v>
+        <v>9475</v>
       </c>
       <c r="F65" t="n">
-        <v>1.893</v>
+        <v>9.6342</v>
       </c>
       <c r="G65" t="n">
-        <v>9739.666666666666</v>
+        <v>9750.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2719,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2733,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="C66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="D66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="E66" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0085</v>
+        <v>1.893</v>
       </c>
       <c r="G66" t="n">
-        <v>9729.75</v>
+        <v>9739.666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2758,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2772,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9515</v>
+        <v>9565</v>
       </c>
       <c r="C67" t="n">
-        <v>9510</v>
+        <v>9565</v>
       </c>
       <c r="D67" t="n">
-        <v>9515</v>
+        <v>9565</v>
       </c>
       <c r="E67" t="n">
-        <v>9510</v>
+        <v>9565</v>
       </c>
       <c r="F67" t="n">
-        <v>156.8461</v>
+        <v>1.0085</v>
       </c>
       <c r="G67" t="n">
-        <v>9718.916666666666</v>
+        <v>9729.75</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2797,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2811,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9495</v>
+        <v>9515</v>
       </c>
       <c r="C68" t="n">
-        <v>9485</v>
+        <v>9510</v>
       </c>
       <c r="D68" t="n">
-        <v>9495</v>
+        <v>9515</v>
       </c>
       <c r="E68" t="n">
-        <v>9485</v>
+        <v>9510</v>
       </c>
       <c r="F68" t="n">
-        <v>400.7795</v>
+        <v>156.8461</v>
       </c>
       <c r="G68" t="n">
-        <v>9707.666666666666</v>
+        <v>9718.916666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2836,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,36 +2850,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="C69" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="D69" t="n">
-        <v>9550</v>
+        <v>9495</v>
       </c>
       <c r="E69" t="n">
-        <v>9550</v>
+        <v>9485</v>
       </c>
       <c r="F69" t="n">
-        <v>30.5</v>
+        <v>400.7795</v>
       </c>
       <c r="G69" t="n">
-        <v>9697.5</v>
+        <v>9707.666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>9485</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9485</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2817,38 +2889,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="C70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="D70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="E70" t="n">
-        <v>9530</v>
+        <v>9550</v>
       </c>
       <c r="F70" t="n">
-        <v>40.5</v>
+        <v>30.5</v>
       </c>
       <c r="G70" t="n">
-        <v>9690.083333333334</v>
+        <v>9697.5</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>9550</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9485</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2860,7 +2928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="C71" t="n">
         <v>9530</v>
@@ -2869,29 +2937,25 @@
         <v>9530</v>
       </c>
       <c r="E71" t="n">
-        <v>9525</v>
+        <v>9530</v>
       </c>
       <c r="F71" t="n">
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="G71" t="n">
-        <v>9680.583333333334</v>
+        <v>9690.083333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9485</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2903,36 +2967,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="C72" t="n">
-        <v>9465</v>
+        <v>9530</v>
       </c>
       <c r="D72" t="n">
-        <v>9465</v>
+        <v>9530</v>
       </c>
       <c r="E72" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="F72" t="n">
-        <v>0.367</v>
+        <v>34.5</v>
       </c>
       <c r="G72" t="n">
-        <v>9670.333333333334</v>
+        <v>9680.583333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9530</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,38 +3006,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="C73" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="D73" t="n">
-        <v>9460</v>
+        <v>9465</v>
       </c>
       <c r="E73" t="n">
-        <v>9450</v>
+        <v>9465</v>
       </c>
       <c r="F73" t="n">
-        <v>168.3499</v>
+        <v>0.367</v>
       </c>
       <c r="G73" t="n">
-        <v>9659.666666666666</v>
+        <v>9670.333333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9465</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9530</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -2985,35 +3045,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="C74" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="D74" t="n">
-        <v>9515</v>
+        <v>9460</v>
       </c>
       <c r="E74" t="n">
-        <v>9515</v>
+        <v>9450</v>
       </c>
       <c r="F74" t="n">
-        <v>6.46</v>
+        <v>168.3499</v>
       </c>
       <c r="G74" t="n">
-        <v>9653.583333333334</v>
+        <v>9659.666666666666</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9450</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9530</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,10 +3096,10 @@
         <v>9515</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>6.46</v>
       </c>
       <c r="G75" t="n">
-        <v>9645.583333333334</v>
+        <v>9653.583333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3052,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,10 +3135,10 @@
         <v>9515</v>
       </c>
       <c r="F76" t="n">
-        <v>1.051</v>
+        <v>22</v>
       </c>
       <c r="G76" t="n">
-        <v>9637.5</v>
+        <v>9645.583333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3093,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C77" t="n">
         <v>9515</v>
@@ -3119,13 +3171,13 @@
         <v>9515</v>
       </c>
       <c r="E77" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F77" t="n">
-        <v>26</v>
+        <v>1.051</v>
       </c>
       <c r="G77" t="n">
-        <v>9632.166666666666</v>
+        <v>9637.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3134,9 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,22 +3201,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C78" t="n">
         <v>9515</v>
       </c>
-      <c r="C78" t="n">
-        <v>9520</v>
-      </c>
       <c r="D78" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="E78" t="n">
-        <v>9515</v>
+        <v>9510</v>
       </c>
       <c r="F78" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>9627.5</v>
+        <v>9632.166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3175,9 +3225,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,7 +3240,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="C79" t="n">
         <v>9520</v>
@@ -3201,13 +3249,13 @@
         <v>9520</v>
       </c>
       <c r="E79" t="n">
-        <v>9520</v>
+        <v>9515</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G79" t="n">
-        <v>9619.833333333334</v>
+        <v>9627.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3216,9 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,10 +3291,10 @@
         <v>9520</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>9611.833333333334</v>
+        <v>9619.833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3257,9 +3303,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,10 +3330,10 @@
         <v>9520</v>
       </c>
       <c r="F81" t="n">
-        <v>8.43</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>9603.833333333334</v>
+        <v>9611.833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3298,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,22 +3357,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="C82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="D82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="E82" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>8.43</v>
       </c>
       <c r="G82" t="n">
-        <v>9594.083333333334</v>
+        <v>9603.833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3339,9 +3381,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,7 +3396,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="C83" t="n">
         <v>9515</v>
@@ -3365,13 +3405,13 @@
         <v>9515</v>
       </c>
       <c r="E83" t="n">
-        <v>9510</v>
+        <v>9515</v>
       </c>
       <c r="F83" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>9585.333333333334</v>
+        <v>9594.083333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3380,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,10 +3435,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>9510</v>
+      </c>
+      <c r="C84" t="n">
         <v>9515</v>
-      </c>
-      <c r="C84" t="n">
-        <v>9510</v>
       </c>
       <c r="D84" t="n">
         <v>9515</v>
@@ -3409,10 +3447,10 @@
         <v>9510</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>9578.583333333334</v>
+        <v>9585.333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3421,9 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,22 +3474,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>9515</v>
+      </c>
+      <c r="C85" t="n">
         <v>9510</v>
       </c>
-      <c r="C85" t="n">
-        <v>9545</v>
-      </c>
       <c r="D85" t="n">
-        <v>9545</v>
+        <v>9515</v>
       </c>
       <c r="E85" t="n">
         <v>9510</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>9570.833333333334</v>
+        <v>9578.583333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,9 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3479,22 +3513,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="C86" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="D86" t="n">
-        <v>9555</v>
+        <v>9545</v>
       </c>
       <c r="E86" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>9564.416666666666</v>
+        <v>9570.833333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3503,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3520,22 +3552,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9595</v>
+        <v>9550</v>
       </c>
       <c r="C87" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="D87" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="E87" t="n">
-        <v>9595</v>
+        <v>9550</v>
       </c>
       <c r="F87" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>9557.75</v>
+        <v>9564.416666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3544,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3573,10 +3603,10 @@
         <v>9595</v>
       </c>
       <c r="F88" t="n">
-        <v>63.5</v>
+        <v>34</v>
       </c>
       <c r="G88" t="n">
-        <v>9552.5</v>
+        <v>9557.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3585,9 +3615,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,10 +3642,10 @@
         <v>9595</v>
       </c>
       <c r="F89" t="n">
-        <v>42.8571</v>
+        <v>63.5</v>
       </c>
       <c r="G89" t="n">
-        <v>9547.416666666666</v>
+        <v>9552.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3626,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,22 +3669,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9590</v>
+        <v>9595</v>
       </c>
       <c r="C90" t="n">
-        <v>9585</v>
+        <v>9595</v>
       </c>
       <c r="D90" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="E90" t="n">
-        <v>9585</v>
+        <v>9595</v>
       </c>
       <c r="F90" t="n">
-        <v>122.5</v>
+        <v>42.8571</v>
       </c>
       <c r="G90" t="n">
-        <v>9542.833333333334</v>
+        <v>9547.416666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3667,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3684,22 +3708,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9580</v>
+        <v>9590</v>
       </c>
       <c r="C91" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D91" t="n">
-        <v>9580</v>
+        <v>9600</v>
       </c>
       <c r="E91" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>122.5</v>
       </c>
       <c r="G91" t="n">
-        <v>9538.166666666666</v>
+        <v>9542.833333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3708,9 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,22 +3747,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="C92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="D92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="E92" t="n">
-        <v>9600</v>
+        <v>9580</v>
       </c>
       <c r="F92" t="n">
-        <v>27.08</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>9535.666666666666</v>
+        <v>9538.166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3749,9 +3771,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,22 +3786,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9595</v>
+        <v>9600</v>
       </c>
       <c r="C93" t="n">
-        <v>9530</v>
+        <v>9600</v>
       </c>
       <c r="D93" t="n">
-        <v>9595</v>
+        <v>9600</v>
       </c>
       <c r="E93" t="n">
-        <v>9530</v>
+        <v>9600</v>
       </c>
       <c r="F93" t="n">
-        <v>18</v>
+        <v>27.08</v>
       </c>
       <c r="G93" t="n">
-        <v>9531.5</v>
+        <v>9535.666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3790,9 +3810,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3807,22 +3825,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="C94" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="D94" t="n">
-        <v>9600</v>
+        <v>9595</v>
       </c>
       <c r="E94" t="n">
-        <v>9600</v>
+        <v>9530</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>9528.833333333334</v>
+        <v>9531.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3831,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,10 +3876,10 @@
         <v>9600</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>9525.833333333334</v>
+        <v>9528.833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3872,9 +3888,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,22 +3903,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9520</v>
+        <v>9600</v>
       </c>
       <c r="C96" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="D96" t="n">
-        <v>9520</v>
+        <v>9600</v>
       </c>
       <c r="E96" t="n">
-        <v>9515</v>
+        <v>9600</v>
       </c>
       <c r="F96" t="n">
-        <v>111.1119</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>9521.75</v>
+        <v>9525.833333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3913,9 +3927,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,22 +3942,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="C97" t="n">
-        <v>9590</v>
+        <v>9515</v>
       </c>
       <c r="D97" t="n">
-        <v>9590</v>
+        <v>9520</v>
       </c>
       <c r="E97" t="n">
-        <v>9590</v>
+        <v>9515</v>
       </c>
       <c r="F97" t="n">
-        <v>12.3186</v>
+        <v>111.1119</v>
       </c>
       <c r="G97" t="n">
-        <v>9519.083333333334</v>
+        <v>9521.75</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3954,9 +3966,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,22 +3981,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="C98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="D98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="E98" t="n">
-        <v>9595</v>
+        <v>9590</v>
       </c>
       <c r="F98" t="n">
-        <v>38</v>
+        <v>12.3186</v>
       </c>
       <c r="G98" t="n">
-        <v>9518.416666666666</v>
+        <v>9519.083333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3995,9 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,10 +4032,10 @@
         <v>9595</v>
       </c>
       <c r="F99" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G99" t="n">
-        <v>9516.75</v>
+        <v>9518.416666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4036,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,10 +4071,10 @@
         <v>9595</v>
       </c>
       <c r="F100" t="n">
-        <v>12.56</v>
+        <v>31</v>
       </c>
       <c r="G100" t="n">
-        <v>9515.083333333334</v>
+        <v>9516.75</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4077,9 +4083,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,22 +4098,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="C101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="D101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="E101" t="n">
-        <v>9500</v>
+        <v>9595</v>
       </c>
       <c r="F101" t="n">
-        <v>6.79</v>
+        <v>12.56</v>
       </c>
       <c r="G101" t="n">
-        <v>9512.25</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4118,9 +4122,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,22 +4137,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="C102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="D102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="E102" t="n">
-        <v>9590</v>
+        <v>9500</v>
       </c>
       <c r="F102" t="n">
-        <v>3.39</v>
+        <v>6.79</v>
       </c>
       <c r="G102" t="n">
-        <v>9512.583333333334</v>
+        <v>9512.25</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4159,9 +4161,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,22 +4176,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9585</v>
+        <v>9590</v>
       </c>
       <c r="C103" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="D103" t="n">
-        <v>9620</v>
+        <v>9590</v>
       </c>
       <c r="E103" t="n">
-        <v>9585</v>
+        <v>9590</v>
       </c>
       <c r="F103" t="n">
-        <v>80.5</v>
+        <v>3.39</v>
       </c>
       <c r="G103" t="n">
-        <v>9513.416666666666</v>
+        <v>9512.583333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4200,9 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,22 +4215,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9600</v>
+        <v>9585</v>
       </c>
       <c r="C104" t="n">
-        <v>9600</v>
+        <v>9620</v>
       </c>
       <c r="D104" t="n">
-        <v>9600</v>
+        <v>9620</v>
       </c>
       <c r="E104" t="n">
-        <v>9600</v>
+        <v>9585</v>
       </c>
       <c r="F104" t="n">
-        <v>15.53</v>
+        <v>80.5</v>
       </c>
       <c r="G104" t="n">
-        <v>9514.25</v>
+        <v>9513.416666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4241,9 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,22 +4254,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="C105" t="n">
-        <v>9640</v>
+        <v>9600</v>
       </c>
       <c r="D105" t="n">
-        <v>9640</v>
+        <v>9600</v>
       </c>
       <c r="E105" t="n">
-        <v>9615</v>
+        <v>9600</v>
       </c>
       <c r="F105" t="n">
-        <v>103.7212</v>
+        <v>15.53</v>
       </c>
       <c r="G105" t="n">
-        <v>9516.583333333334</v>
+        <v>9514.25</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4282,9 +4278,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,22 +4293,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="C106" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="D106" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="E106" t="n">
-        <v>9645</v>
+        <v>9615</v>
       </c>
       <c r="F106" t="n">
-        <v>42.8731</v>
+        <v>103.7212</v>
       </c>
       <c r="G106" t="n">
-        <v>9519.166666666666</v>
+        <v>9516.583333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4323,9 +4317,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,22 +4332,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="C107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="D107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E107" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="F107" t="n">
-        <v>6.35</v>
+        <v>42.8731</v>
       </c>
       <c r="G107" t="n">
-        <v>9521.666666666666</v>
+        <v>9519.166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4364,9 +4356,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,22 +4371,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="C108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="D108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="E108" t="n">
-        <v>9650</v>
+        <v>9640</v>
       </c>
       <c r="F108" t="n">
-        <v>6.18</v>
+        <v>6.35</v>
       </c>
       <c r="G108" t="n">
-        <v>9525.166666666666</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4405,9 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,19 +4413,19 @@
         <v>9650</v>
       </c>
       <c r="C109" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="D109" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="E109" t="n">
         <v>9650</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>6.18</v>
       </c>
       <c r="G109" t="n">
-        <v>9528.666666666666</v>
+        <v>9525.166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4446,9 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,22 +4449,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C110" t="n">
         <v>9665</v>
       </c>
-      <c r="C110" t="n">
-        <v>9670</v>
-      </c>
       <c r="D110" t="n">
-        <v>9670</v>
+        <v>9665</v>
       </c>
       <c r="E110" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="F110" t="n">
         <v>14</v>
       </c>
       <c r="G110" t="n">
-        <v>9532.416666666666</v>
+        <v>9528.666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4487,9 +4473,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4504,22 +4488,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C111" t="n">
         <v>9670</v>
       </c>
-      <c r="C111" t="n">
-        <v>9700</v>
-      </c>
       <c r="D111" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="E111" t="n">
-        <v>9670</v>
+        <v>9665</v>
       </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>9536.75</v>
+        <v>9532.416666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4528,9 +4512,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4545,7 +4527,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="C112" t="n">
         <v>9700</v>
@@ -4554,13 +4536,13 @@
         <v>9700</v>
       </c>
       <c r="E112" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="F112" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>9541.25</v>
+        <v>9536.75</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4569,9 +4551,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,10 +4578,10 @@
         <v>9700</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G113" t="n">
-        <v>9545.666666666666</v>
+        <v>9541.25</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4610,9 +4590,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,19 +4608,19 @@
         <v>9700</v>
       </c>
       <c r="C114" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="D114" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="E114" t="n">
         <v>9700</v>
       </c>
       <c r="F114" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>9550.25</v>
+        <v>9545.666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4651,9 +4629,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4668,22 +4644,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C115" t="n">
         <v>9710</v>
       </c>
-      <c r="C115" t="n">
-        <v>9720</v>
-      </c>
       <c r="D115" t="n">
-        <v>9720</v>
+        <v>9710</v>
       </c>
       <c r="E115" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G115" t="n">
-        <v>9555.583333333334</v>
+        <v>9550.25</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4692,9 +4668,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,22 +4683,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C116" t="n">
         <v>9720</v>
       </c>
-      <c r="C116" t="n">
-        <v>9745</v>
-      </c>
       <c r="D116" t="n">
-        <v>9745</v>
+        <v>9720</v>
       </c>
       <c r="E116" t="n">
-        <v>9720</v>
+        <v>9710</v>
       </c>
       <c r="F116" t="n">
-        <v>33.4853</v>
+        <v>40</v>
       </c>
       <c r="G116" t="n">
-        <v>9561.166666666666</v>
+        <v>9555.583333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4733,9 +4707,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,22 +4722,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="C117" t="n">
-        <v>9750</v>
+        <v>9745</v>
       </c>
       <c r="D117" t="n">
-        <v>9750</v>
+        <v>9745</v>
       </c>
       <c r="E117" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="F117" t="n">
-        <v>6.26</v>
+        <v>33.4853</v>
       </c>
       <c r="G117" t="n">
-        <v>9566.416666666666</v>
+        <v>9561.166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4774,9 +4746,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4791,22 +4761,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="C118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="D118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="E118" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="F118" t="n">
-        <v>10.1862</v>
+        <v>6.26</v>
       </c>
       <c r="G118" t="n">
-        <v>9571.083333333334</v>
+        <v>9566.416666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4815,9 +4785,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,40 +4800,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9595</v>
+        <v>9745</v>
       </c>
       <c r="C119" t="n">
-        <v>9630</v>
+        <v>9745</v>
       </c>
       <c r="D119" t="n">
-        <v>9630</v>
+        <v>9745</v>
       </c>
       <c r="E119" t="n">
-        <v>9440</v>
+        <v>9745</v>
       </c>
       <c r="F119" t="n">
-        <v>77.9682</v>
+        <v>10.1862</v>
       </c>
       <c r="G119" t="n">
-        <v>9574.833333333334</v>
+        <v>9571.083333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9530</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>1.005493179433368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4873,32 +4839,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9580</v>
+        <v>9595</v>
       </c>
       <c r="C120" t="n">
-        <v>9580</v>
+        <v>9630</v>
       </c>
       <c r="D120" t="n">
-        <v>9580</v>
+        <v>9630</v>
       </c>
       <c r="E120" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="F120" t="n">
-        <v>10.66</v>
+        <v>77.9682</v>
       </c>
       <c r="G120" t="n">
-        <v>9576.416666666666</v>
+        <v>9574.833333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4920,10 +4890,10 @@
         <v>9580</v>
       </c>
       <c r="F121" t="n">
-        <v>17.18</v>
+        <v>10.66</v>
       </c>
       <c r="G121" t="n">
-        <v>9578</v>
+        <v>9576.416666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4933,7 +4903,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4943,22 +4917,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="C122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="D122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="E122" t="n">
-        <v>9540</v>
+        <v>9580</v>
       </c>
       <c r="F122" t="n">
-        <v>4</v>
+        <v>17.18</v>
       </c>
       <c r="G122" t="n">
-        <v>9579.583333333334</v>
+        <v>9578</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4968,7 +4942,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4990,10 +4968,10 @@
         <v>9540</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G123" t="n">
-        <v>9581.166666666666</v>
+        <v>9579.583333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5003,7 +4981,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5016,19 +4998,19 @@
         <v>9540</v>
       </c>
       <c r="C124" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="D124" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="E124" t="n">
         <v>9540</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>9582.5</v>
+        <v>9581.166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5038,7 +5020,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5048,7 +5034,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="C125" t="n">
         <v>9555</v>
@@ -5057,13 +5043,13 @@
         <v>9555</v>
       </c>
       <c r="E125" t="n">
-        <v>9555</v>
+        <v>9540</v>
       </c>
       <c r="F125" t="n">
-        <v>31.2392</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>9583.416666666666</v>
+        <v>9582.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5073,7 +5059,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5083,22 +5073,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="C126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="D126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="E126" t="n">
-        <v>9575</v>
+        <v>9555</v>
       </c>
       <c r="F126" t="n">
-        <v>14</v>
+        <v>31.2392</v>
       </c>
       <c r="G126" t="n">
-        <v>9583.583333333334</v>
+        <v>9583.416666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5108,7 +5098,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5121,19 +5115,19 @@
         <v>9575</v>
       </c>
       <c r="C127" t="n">
-        <v>9525</v>
+        <v>9575</v>
       </c>
       <c r="D127" t="n">
-        <v>9620</v>
+        <v>9575</v>
       </c>
       <c r="E127" t="n">
-        <v>9525</v>
+        <v>9575</v>
       </c>
       <c r="F127" t="n">
-        <v>18.9445</v>
+        <v>14</v>
       </c>
       <c r="G127" t="n">
-        <v>9583.833333333334</v>
+        <v>9583.583333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5143,7 +5137,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5153,22 +5151,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9525</v>
+      </c>
+      <c r="D128" t="n">
         <v>9620</v>
       </c>
-      <c r="C128" t="n">
-        <v>9625</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9625</v>
-      </c>
       <c r="E128" t="n">
-        <v>9620</v>
+        <v>9525</v>
       </c>
       <c r="F128" t="n">
-        <v>33.5</v>
+        <v>18.9445</v>
       </c>
       <c r="G128" t="n">
-        <v>9586.166666666666</v>
+        <v>9583.833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5178,7 +5176,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5188,22 +5190,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C129" t="n">
         <v>9625</v>
       </c>
-      <c r="C129" t="n">
-        <v>9645</v>
-      </c>
       <c r="D129" t="n">
-        <v>9645</v>
+        <v>9625</v>
       </c>
       <c r="E129" t="n">
-        <v>9625</v>
+        <v>9620</v>
       </c>
       <c r="F129" t="n">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="G129" t="n">
-        <v>9587.75</v>
+        <v>9586.166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5213,7 +5215,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5223,22 +5229,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="C130" t="n">
-        <v>9650</v>
+        <v>9645</v>
       </c>
       <c r="D130" t="n">
-        <v>9650</v>
+        <v>9645</v>
       </c>
       <c r="E130" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="F130" t="n">
-        <v>6.3843</v>
+        <v>34</v>
       </c>
       <c r="G130" t="n">
-        <v>9589.75</v>
+        <v>9587.75</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5248,7 +5254,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5261,19 +5271,19 @@
         <v>9650</v>
       </c>
       <c r="C131" t="n">
-        <v>9655</v>
+        <v>9650</v>
       </c>
       <c r="D131" t="n">
-        <v>9655</v>
+        <v>9650</v>
       </c>
       <c r="E131" t="n">
         <v>9650</v>
       </c>
       <c r="F131" t="n">
-        <v>7.9801</v>
+        <v>6.3843</v>
       </c>
       <c r="G131" t="n">
-        <v>9591.833333333334</v>
+        <v>9589.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5283,7 +5293,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5293,22 +5307,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="C132" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="D132" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="E132" t="n">
-        <v>9660</v>
+        <v>9650</v>
       </c>
       <c r="F132" t="n">
-        <v>12.59</v>
+        <v>7.9801</v>
       </c>
       <c r="G132" t="n">
-        <v>9595.083333333334</v>
+        <v>9591.833333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5318,7 +5332,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5328,22 +5346,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="C133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="D133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="E133" t="n">
-        <v>9655</v>
+        <v>9660</v>
       </c>
       <c r="F133" t="n">
-        <v>8.430400000000001</v>
+        <v>12.59</v>
       </c>
       <c r="G133" t="n">
-        <v>9598.5</v>
+        <v>9595.083333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5353,7 +5371,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5363,22 +5385,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="C134" t="n">
-        <v>9680</v>
+        <v>9655</v>
       </c>
       <c r="D134" t="n">
-        <v>9680</v>
+        <v>9655</v>
       </c>
       <c r="E134" t="n">
-        <v>9660</v>
+        <v>9655</v>
       </c>
       <c r="F134" t="n">
-        <v>30.99464793</v>
+        <v>8.430400000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>9601.25</v>
+        <v>9598.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5388,7 +5410,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5398,22 +5424,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="C135" t="n">
-        <v>9700</v>
+        <v>9680</v>
       </c>
       <c r="D135" t="n">
-        <v>9700</v>
+        <v>9680</v>
       </c>
       <c r="E135" t="n">
-        <v>9690</v>
+        <v>9660</v>
       </c>
       <c r="F135" t="n">
-        <v>14</v>
+        <v>30.99464793</v>
       </c>
       <c r="G135" t="n">
-        <v>9604.333333333334</v>
+        <v>9601.25</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5423,7 +5449,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5433,22 +5463,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="C136" t="n">
         <v>9700</v>
       </c>
       <c r="D136" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="E136" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="F136" t="n">
-        <v>263.8996</v>
+        <v>14</v>
       </c>
       <c r="G136" t="n">
-        <v>9607.416666666666</v>
+        <v>9604.333333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5458,7 +5488,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5468,22 +5502,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9625</v>
+        <v>9700</v>
       </c>
       <c r="C137" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="D137" t="n">
-        <v>9735</v>
+        <v>9705</v>
       </c>
       <c r="E137" t="n">
-        <v>9625</v>
+        <v>9700</v>
       </c>
       <c r="F137" t="n">
-        <v>215.09</v>
+        <v>263.8996</v>
       </c>
       <c r="G137" t="n">
-        <v>9611</v>
+        <v>9607.416666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5493,7 +5527,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5503,22 +5541,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9740</v>
+        <v>9625</v>
       </c>
       <c r="C138" t="n">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="D138" t="n">
-        <v>9740</v>
+        <v>9735</v>
       </c>
       <c r="E138" t="n">
-        <v>9740</v>
+        <v>9625</v>
       </c>
       <c r="F138" t="n">
-        <v>7.24</v>
+        <v>215.09</v>
       </c>
       <c r="G138" t="n">
-        <v>9614.666666666666</v>
+        <v>9611</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5528,7 +5566,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5550,10 +5592,10 @@
         <v>9740</v>
       </c>
       <c r="F139" t="n">
-        <v>23.779</v>
+        <v>7.24</v>
       </c>
       <c r="G139" t="n">
-        <v>9618.333333333334</v>
+        <v>9614.666666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5563,10 +5605,12 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5585,16 +5629,16 @@
         <v>9740</v>
       </c>
       <c r="F140" t="n">
-        <v>10.72</v>
+        <v>23.779</v>
       </c>
       <c r="G140" t="n">
-        <v>9622</v>
+        <v>9618.333333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5608,22 +5652,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="C141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="D141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="E141" t="n">
-        <v>9730</v>
+        <v>9740</v>
       </c>
       <c r="F141" t="n">
-        <v>33.71</v>
+        <v>10.72</v>
       </c>
       <c r="G141" t="n">
-        <v>9625.5</v>
+        <v>9622</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5643,22 +5687,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="C142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="D142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="E142" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="F142" t="n">
-        <v>20.4234</v>
+        <v>33.71</v>
       </c>
       <c r="G142" t="n">
-        <v>9628.583333333334</v>
+        <v>9625.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5681,19 +5725,19 @@
         <v>9700</v>
       </c>
       <c r="C143" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="D143" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="E143" t="n">
         <v>9700</v>
       </c>
       <c r="F143" t="n">
-        <v>32</v>
+        <v>20.4234</v>
       </c>
       <c r="G143" t="n">
-        <v>9631.75</v>
+        <v>9628.583333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5713,22 +5757,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="C144" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="D144" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="E144" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F144" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G144" t="n">
-        <v>9635.083333333334</v>
+        <v>9631.75</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5748,22 +5792,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="C145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="D145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="E145" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="F145" t="n">
-        <v>9.572900000000001</v>
+        <v>35</v>
       </c>
       <c r="G145" t="n">
-        <v>9637.75</v>
+        <v>9635.083333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5783,22 +5827,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="C146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="D146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="E146" t="n">
-        <v>9625</v>
+        <v>9705</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>9.572900000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>9638.916666666666</v>
+        <v>9637.75</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5821,25 +5865,25 @@
         <v>9625</v>
       </c>
       <c r="C147" t="n">
-        <v>9700</v>
+        <v>9625</v>
       </c>
       <c r="D147" t="n">
-        <v>9700</v>
+        <v>9625</v>
       </c>
       <c r="E147" t="n">
-        <v>9620</v>
+        <v>9625</v>
       </c>
       <c r="F147" t="n">
-        <v>43.3647</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>9640.666666666666</v>
+        <v>9638.916666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5853,22 +5897,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9685</v>
+        <v>9625</v>
       </c>
       <c r="C148" t="n">
-        <v>9690</v>
+        <v>9700</v>
       </c>
       <c r="D148" t="n">
-        <v>9690</v>
+        <v>9700</v>
       </c>
       <c r="E148" t="n">
-        <v>9685</v>
+        <v>9620</v>
       </c>
       <c r="F148" t="n">
-        <v>6.2</v>
+        <v>43.3647</v>
       </c>
       <c r="G148" t="n">
-        <v>9642.25</v>
+        <v>9640.666666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5888,10 +5932,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C149" t="n">
         <v>9690</v>
-      </c>
-      <c r="C149" t="n">
-        <v>9685</v>
       </c>
       <c r="D149" t="n">
         <v>9690</v>
@@ -5900,10 +5944,10 @@
         <v>9685</v>
       </c>
       <c r="F149" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="G149" t="n">
-        <v>9643.75</v>
+        <v>9642.25</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5923,22 +5967,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9685</v>
+        <v>9690</v>
       </c>
       <c r="C150" t="n">
         <v>9685</v>
       </c>
       <c r="D150" t="n">
-        <v>9685</v>
+        <v>9690</v>
       </c>
       <c r="E150" t="n">
         <v>9685</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G150" t="n">
-        <v>9645.416666666666</v>
+        <v>9643.75</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5961,25 +6005,25 @@
         <v>9685</v>
       </c>
       <c r="C151" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="D151" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="E151" t="n">
         <v>9685</v>
       </c>
       <c r="F151" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>9647.416666666666</v>
+        <v>9645.416666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5993,7 +6037,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="C152" t="n">
         <v>9700</v>
@@ -6002,13 +6046,13 @@
         <v>9700</v>
       </c>
       <c r="E152" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="F152" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="G152" t="n">
-        <v>9649.083333333334</v>
+        <v>9647.416666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6040,16 +6084,16 @@
         <v>9700</v>
       </c>
       <c r="F153" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G153" t="n">
-        <v>9651.916666666666</v>
+        <v>9649.083333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6063,22 +6107,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="D154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E154" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="F154" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G154" t="n">
-        <v>9653.5</v>
+        <v>9651.916666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6110,16 +6154,16 @@
         <v>9695</v>
       </c>
       <c r="F155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G155" t="n">
-        <v>9655.083333333334</v>
+        <v>9653.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -6145,10 +6189,10 @@
         <v>9695</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>9658.083333333334</v>
+        <v>9655.083333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6171,19 +6215,19 @@
         <v>9695</v>
       </c>
       <c r="C157" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="D157" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E157" t="n">
         <v>9695</v>
       </c>
       <c r="F157" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>9659.916666666666</v>
+        <v>9658.083333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6215,10 +6259,10 @@
         <v>9695</v>
       </c>
       <c r="F158" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G158" t="n">
-        <v>9661.666666666666</v>
+        <v>9659.916666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6238,7 +6282,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="C159" t="n">
         <v>9700</v>
@@ -6250,10 +6294,10 @@
         <v>9695</v>
       </c>
       <c r="F159" t="n">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="G159" t="n">
-        <v>9663.416666666666</v>
+        <v>9661.666666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6268,6 +6312,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F160" t="n">
+        <v>365</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9663.416666666666</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9980</v>
+        <v>9690</v>
       </c>
       <c r="C2" t="n">
-        <v>9880</v>
+        <v>9695</v>
       </c>
       <c r="D2" t="n">
-        <v>9980</v>
+        <v>9695</v>
       </c>
       <c r="E2" t="n">
-        <v>9880</v>
+        <v>9690</v>
       </c>
       <c r="F2" t="n">
-        <v>30.8346</v>
+        <v>710.6419</v>
       </c>
       <c r="G2" t="n">
-        <v>4394.569193700001</v>
+        <v>2216.6929</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10070</v>
+        <v>9645</v>
       </c>
       <c r="C3" t="n">
-        <v>9995</v>
+        <v>9645</v>
       </c>
       <c r="D3" t="n">
-        <v>10070</v>
+        <v>9645</v>
       </c>
       <c r="E3" t="n">
-        <v>9995</v>
+        <v>9645</v>
       </c>
       <c r="F3" t="n">
-        <v>17.12790025</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>4411.697093950001</v>
+        <v>2204.6929</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9695</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9995</v>
+        <v>9700</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="D4" t="n">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="E4" t="n">
-        <v>9995</v>
+        <v>9700</v>
       </c>
       <c r="F4" t="n">
-        <v>10.00221474</v>
+        <v>6.27</v>
       </c>
       <c r="G4" t="n">
-        <v>4421.69930869</v>
+        <v>2210.9629</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9645</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
       <c r="C5" t="n">
-        <v>9835</v>
+        <v>9700</v>
       </c>
       <c r="D5" t="n">
-        <v>9835</v>
+        <v>9700</v>
       </c>
       <c r="E5" t="n">
-        <v>9835</v>
+        <v>9690</v>
       </c>
       <c r="F5" t="n">
-        <v>16.0871</v>
+        <v>195.0263</v>
       </c>
       <c r="G5" t="n">
-        <v>4405.61220869</v>
+        <v>2210.9629</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9810</v>
+        <v>9700</v>
       </c>
       <c r="C6" t="n">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="D6" t="n">
-        <v>9810</v>
+        <v>9700</v>
       </c>
       <c r="E6" t="n">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F6" t="n">
-        <v>84.14570000000001</v>
+        <v>204.9737</v>
       </c>
       <c r="G6" t="n">
-        <v>4321.46650869</v>
+        <v>2210.9629</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9830</v>
+        <v>9645</v>
       </c>
       <c r="C7" t="n">
-        <v>9980</v>
+        <v>9640</v>
       </c>
       <c r="D7" t="n">
-        <v>9980</v>
+        <v>9645</v>
       </c>
       <c r="E7" t="n">
-        <v>9830</v>
+        <v>9640</v>
       </c>
       <c r="F7" t="n">
-        <v>227.5611</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>4549.02760869</v>
+        <v>2190.9629</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9980</v>
+        <v>9645</v>
       </c>
       <c r="C8" t="n">
-        <v>10000</v>
+        <v>9645</v>
       </c>
       <c r="D8" t="n">
-        <v>10000</v>
+        <v>9645</v>
       </c>
       <c r="E8" t="n">
-        <v>9980</v>
+        <v>9645</v>
       </c>
       <c r="F8" t="n">
-        <v>32.5</v>
+        <v>107.8054</v>
       </c>
       <c r="G8" t="n">
-        <v>4581.52760869</v>
+        <v>2298.768300000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +708,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9990</v>
+        <v>9695</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="E9" t="n">
-        <v>9990</v>
+        <v>9695</v>
       </c>
       <c r="F9" t="n">
-        <v>74</v>
+        <v>33.4133</v>
       </c>
       <c r="G9" t="n">
-        <v>4581.52760869</v>
+        <v>2332.181600000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +750,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10000</v>
+        <v>9680</v>
       </c>
       <c r="C10" t="n">
-        <v>10100</v>
+        <v>9690</v>
       </c>
       <c r="D10" t="n">
-        <v>10100</v>
+        <v>9690</v>
       </c>
       <c r="E10" t="n">
-        <v>10000</v>
+        <v>9680</v>
       </c>
       <c r="F10" t="n">
-        <v>562.04948501</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>5143.577093700001</v>
+        <v>2299.181600000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +792,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +810,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10040</v>
+        <v>9690</v>
       </c>
       <c r="C11" t="n">
-        <v>10040</v>
+        <v>9690</v>
       </c>
       <c r="D11" t="n">
-        <v>10040</v>
+        <v>9690</v>
       </c>
       <c r="E11" t="n">
-        <v>10040</v>
+        <v>9690</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>5133.577093700001</v>
+        <v>2299.181600000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9915</v>
+        <v>9690</v>
       </c>
       <c r="C12" t="n">
-        <v>9915</v>
+        <v>9705</v>
       </c>
       <c r="D12" t="n">
-        <v>9915</v>
+        <v>9705</v>
       </c>
       <c r="E12" t="n">
-        <v>9915</v>
+        <v>9690</v>
       </c>
       <c r="F12" t="n">
-        <v>19.1997</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>5114.377393700001</v>
+        <v>2333.181600000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +894,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9915</v>
+        <v>9705</v>
       </c>
       <c r="C13" t="n">
-        <v>10010</v>
+        <v>9705</v>
       </c>
       <c r="D13" t="n">
-        <v>10010</v>
+        <v>9705</v>
       </c>
       <c r="E13" t="n">
-        <v>9915</v>
+        <v>9705</v>
       </c>
       <c r="F13" t="n">
-        <v>37.2674</v>
+        <v>74</v>
       </c>
       <c r="G13" t="n">
-        <v>5151.6447937</v>
+        <v>2333.181600000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +936,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9970</v>
+        <v>9705</v>
       </c>
       <c r="C14" t="n">
-        <v>9940</v>
+        <v>9730</v>
       </c>
       <c r="D14" t="n">
-        <v>9970</v>
+        <v>9730</v>
       </c>
       <c r="E14" t="n">
-        <v>9940</v>
+        <v>9705</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>27.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5115.6447937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +978,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9840</v>
+        <v>9730</v>
       </c>
       <c r="C15" t="n">
-        <v>9995</v>
+        <v>9730</v>
       </c>
       <c r="D15" t="n">
-        <v>9995</v>
+        <v>9730</v>
       </c>
       <c r="E15" t="n">
-        <v>9840</v>
+        <v>9730</v>
       </c>
       <c r="F15" t="n">
-        <v>101.6151</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5217.2598937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1020,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9920</v>
+        <v>9730</v>
       </c>
       <c r="C16" t="n">
-        <v>9910</v>
+        <v>9730</v>
       </c>
       <c r="D16" t="n">
-        <v>9920</v>
+        <v>9730</v>
       </c>
       <c r="E16" t="n">
-        <v>9910</v>
+        <v>9730</v>
       </c>
       <c r="F16" t="n">
-        <v>10.8171</v>
+        <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>5206.4427937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1062,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9900</v>
+        <v>9730</v>
       </c>
       <c r="C17" t="n">
-        <v>9900</v>
+        <v>9730</v>
       </c>
       <c r="D17" t="n">
-        <v>9905</v>
+        <v>9730</v>
       </c>
       <c r="E17" t="n">
-        <v>9870</v>
+        <v>9730</v>
       </c>
       <c r="F17" t="n">
-        <v>168.2356</v>
+        <v>216.5</v>
       </c>
       <c r="G17" t="n">
-        <v>5038.2071937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9875</v>
+        <v>9730</v>
       </c>
       <c r="C18" t="n">
-        <v>9860</v>
+        <v>9730</v>
       </c>
       <c r="D18" t="n">
-        <v>9875</v>
+        <v>9730</v>
       </c>
       <c r="E18" t="n">
-        <v>9860</v>
+        <v>9730</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>169.2891</v>
       </c>
       <c r="G18" t="n">
-        <v>5012.2071937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1128,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1146,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9860</v>
+        <v>9730</v>
       </c>
       <c r="C19" t="n">
-        <v>9860</v>
+        <v>9730</v>
       </c>
       <c r="D19" t="n">
-        <v>9865</v>
+        <v>9730</v>
       </c>
       <c r="E19" t="n">
-        <v>9860</v>
+        <v>9730</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="G19" t="n">
-        <v>5012.2071937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1170,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="C20" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="D20" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="E20" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="F20" t="n">
-        <v>34.597</v>
+        <v>34.5</v>
       </c>
       <c r="G20" t="n">
-        <v>4977.6101937</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1212,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1230,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9670</v>
+        <v>9730</v>
       </c>
       <c r="C21" t="n">
-        <v>9780</v>
+        <v>9730</v>
       </c>
       <c r="D21" t="n">
-        <v>9785</v>
+        <v>9730</v>
       </c>
       <c r="E21" t="n">
-        <v>9630</v>
+        <v>9730</v>
       </c>
       <c r="F21" t="n">
-        <v>844.4372</v>
+        <v>64</v>
       </c>
       <c r="G21" t="n">
-        <v>5822.047393700001</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1254,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9655</v>
+        <v>9730</v>
       </c>
       <c r="C22" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="D22" t="n">
-        <v>9770</v>
+        <v>9730</v>
       </c>
       <c r="E22" t="n">
-        <v>9655</v>
+        <v>9730</v>
       </c>
       <c r="F22" t="n">
-        <v>93.48090000000001</v>
+        <v>68.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5728.566493700001</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1296,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1314,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="C23" t="n">
-        <v>9780</v>
+        <v>9730</v>
       </c>
       <c r="D23" t="n">
-        <v>9780</v>
+        <v>9730</v>
       </c>
       <c r="E23" t="n">
-        <v>9645</v>
+        <v>9730</v>
       </c>
       <c r="F23" t="n">
-        <v>525.9692</v>
+        <v>98</v>
       </c>
       <c r="G23" t="n">
-        <v>6254.535693700002</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1338,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1356,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="C24" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="D24" t="n">
-        <v>9760</v>
+        <v>9730</v>
       </c>
       <c r="E24" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="F24" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>6182.535693700002</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1380,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1398,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="C25" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="D25" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="E25" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="G25" t="n">
-        <v>6082.535693700002</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1422,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1440,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="C26" t="n">
-        <v>9635</v>
+        <v>9730</v>
       </c>
       <c r="D26" t="n">
-        <v>9750</v>
+        <v>9730</v>
       </c>
       <c r="E26" t="n">
-        <v>9635</v>
+        <v>9730</v>
       </c>
       <c r="F26" t="n">
-        <v>451.6566</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>5630.879093700001</v>
+        <v>2360.681600000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1464,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1482,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9630</v>
+        <v>9730</v>
       </c>
       <c r="C27" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2360.681600000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
         <v>9695</v>
       </c>
-      <c r="D27" t="n">
-        <v>9740</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F27" t="n">
-        <v>860.008</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6490.887093700001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1524,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9800</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9800</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2370.681600000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
         <v>9695</v>
       </c>
-      <c r="C28" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F28" t="n">
-        <v>35</v>
-      </c>
-      <c r="G28" t="n">
-        <v>6490.887093700001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1566,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="C29" t="n">
-        <v>9670</v>
+        <v>9800</v>
       </c>
       <c r="D29" t="n">
-        <v>9670</v>
+        <v>9800</v>
       </c>
       <c r="E29" t="n">
-        <v>9595</v>
+        <v>9800</v>
       </c>
       <c r="F29" t="n">
-        <v>129.1925</v>
+        <v>40.9532</v>
       </c>
       <c r="G29" t="n">
-        <v>6361.694593700001</v>
+        <v>2370.681600000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1590,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1608,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9595</v>
+        <v>9825</v>
       </c>
       <c r="C30" t="n">
-        <v>9570</v>
+        <v>9825</v>
       </c>
       <c r="D30" t="n">
-        <v>9595</v>
+        <v>9825</v>
       </c>
       <c r="E30" t="n">
-        <v>9570</v>
+        <v>9825</v>
       </c>
       <c r="F30" t="n">
-        <v>254.6913</v>
+        <v>20.3562</v>
       </c>
       <c r="G30" t="n">
-        <v>6107.003293700001</v>
+        <v>2391.037800000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1632,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1650,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9570</v>
+        <v>9830</v>
       </c>
       <c r="C31" t="n">
-        <v>9570</v>
+        <v>9830</v>
       </c>
       <c r="D31" t="n">
-        <v>9575</v>
+        <v>9830</v>
       </c>
       <c r="E31" t="n">
-        <v>9570</v>
+        <v>9830</v>
       </c>
       <c r="F31" t="n">
-        <v>101.063</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>6107.003293700001</v>
+        <v>2405.037800000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1674,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1692,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9570</v>
+        <v>9830</v>
       </c>
       <c r="C32" t="n">
-        <v>9550</v>
+        <v>9840</v>
       </c>
       <c r="D32" t="n">
-        <v>9570</v>
+        <v>9840</v>
       </c>
       <c r="E32" t="n">
-        <v>9550</v>
+        <v>9830</v>
       </c>
       <c r="F32" t="n">
-        <v>177.347</v>
+        <v>14.5</v>
       </c>
       <c r="G32" t="n">
-        <v>5929.656293700001</v>
+        <v>2419.537800000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1734,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9550</v>
+        <v>9840</v>
       </c>
       <c r="C33" t="n">
-        <v>9500</v>
+        <v>9920</v>
       </c>
       <c r="D33" t="n">
-        <v>9550</v>
+        <v>9920</v>
       </c>
       <c r="E33" t="n">
-        <v>9495</v>
+        <v>9840</v>
       </c>
       <c r="F33" t="n">
-        <v>518.9675999999999</v>
+        <v>264</v>
       </c>
       <c r="G33" t="n">
-        <v>5410.688693700001</v>
+        <v>2683.537800000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1758,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1776,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9495</v>
+        <v>9920</v>
       </c>
       <c r="C34" t="n">
-        <v>9490</v>
+        <v>9925</v>
       </c>
       <c r="D34" t="n">
-        <v>9500</v>
+        <v>9925</v>
       </c>
       <c r="E34" t="n">
-        <v>9485</v>
+        <v>9920</v>
       </c>
       <c r="F34" t="n">
-        <v>132.7348</v>
+        <v>1226.242</v>
       </c>
       <c r="G34" t="n">
-        <v>5277.953893700001</v>
+        <v>3909.779800000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1818,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9495</v>
+        <v>9925</v>
       </c>
       <c r="C35" t="n">
-        <v>9490</v>
+        <v>9930</v>
       </c>
       <c r="D35" t="n">
-        <v>9495</v>
+        <v>9930</v>
       </c>
       <c r="E35" t="n">
-        <v>9485</v>
+        <v>9925</v>
       </c>
       <c r="F35" t="n">
-        <v>209.7856</v>
+        <v>239.8356</v>
       </c>
       <c r="G35" t="n">
-        <v>5277.953893700001</v>
+        <v>4149.615400000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1842,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1860,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9485</v>
+        <v>9930</v>
       </c>
       <c r="C36" t="n">
-        <v>9440</v>
+        <v>10000</v>
       </c>
       <c r="D36" t="n">
-        <v>9485</v>
+        <v>10000</v>
       </c>
       <c r="E36" t="n">
-        <v>9440</v>
+        <v>9930</v>
       </c>
       <c r="F36" t="n">
-        <v>82.64060000000001</v>
+        <v>2358.1661</v>
       </c>
       <c r="G36" t="n">
-        <v>5195.313293700001</v>
+        <v>6507.781500000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1884,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1902,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9440</v>
+        <v>10000</v>
       </c>
       <c r="C37" t="n">
-        <v>9455</v>
+        <v>10000</v>
       </c>
       <c r="D37" t="n">
-        <v>9455</v>
+        <v>10000</v>
       </c>
       <c r="E37" t="n">
-        <v>9440</v>
+        <v>10000</v>
       </c>
       <c r="F37" t="n">
-        <v>227.6278</v>
+        <v>112.1459</v>
       </c>
       <c r="G37" t="n">
-        <v>5422.941093700001</v>
+        <v>6507.781500000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1944,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9455</v>
+        <v>10010</v>
       </c>
       <c r="C38" t="n">
-        <v>9445</v>
+        <v>10010</v>
       </c>
       <c r="D38" t="n">
-        <v>9455</v>
+        <v>10010</v>
       </c>
       <c r="E38" t="n">
-        <v>9445</v>
+        <v>9980</v>
       </c>
       <c r="F38" t="n">
-        <v>23.1887</v>
+        <v>116.3973</v>
       </c>
       <c r="G38" t="n">
-        <v>5399.752393700001</v>
+        <v>6624.178800000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1968,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1986,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9445</v>
+        <v>10000</v>
       </c>
       <c r="C39" t="n">
-        <v>9440</v>
+        <v>10000</v>
       </c>
       <c r="D39" t="n">
-        <v>9445</v>
+        <v>10000</v>
       </c>
       <c r="E39" t="n">
-        <v>9440</v>
+        <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>97.3865</v>
+        <v>8.456799999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>5302.365893700002</v>
+        <v>6615.722000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2010,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2028,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9445</v>
+        <v>10010</v>
       </c>
       <c r="C40" t="n">
-        <v>9430</v>
+        <v>10010</v>
       </c>
       <c r="D40" t="n">
-        <v>9450</v>
+        <v>10010</v>
       </c>
       <c r="E40" t="n">
-        <v>9430</v>
+        <v>10010</v>
       </c>
       <c r="F40" t="n">
-        <v>165.0508</v>
+        <v>5.034</v>
       </c>
       <c r="G40" t="n">
-        <v>5137.315093700002</v>
+        <v>6620.756</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2052,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2070,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9435</v>
+        <v>10020</v>
       </c>
       <c r="C41" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="D41" t="n">
-        <v>9435</v>
+        <v>10020</v>
       </c>
       <c r="E41" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>1071.0564</v>
       </c>
       <c r="G41" t="n">
-        <v>5141.315093700002</v>
+        <v>5549.6996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2112,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="C42" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="D42" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="E42" t="n">
-        <v>9435</v>
+        <v>9980</v>
       </c>
       <c r="F42" t="n">
-        <v>27</v>
+        <v>4.9875</v>
       </c>
       <c r="G42" t="n">
-        <v>5141.315093700002</v>
+        <v>5549.6996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2136,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2154,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9435</v>
+        <v>10060</v>
       </c>
       <c r="C43" t="n">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="D43" t="n">
-        <v>9435</v>
+        <v>10100</v>
       </c>
       <c r="E43" t="n">
-        <v>9400</v>
+        <v>10060</v>
       </c>
       <c r="F43" t="n">
-        <v>219.6466</v>
+        <v>72</v>
       </c>
       <c r="G43" t="n">
-        <v>4921.668493700002</v>
+        <v>5621.6996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2178,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,34 +2196,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9405</v>
+        <v>10100</v>
       </c>
       <c r="C44" t="n">
-        <v>9410</v>
+        <v>10100</v>
       </c>
       <c r="D44" t="n">
-        <v>9415</v>
+        <v>10100</v>
       </c>
       <c r="E44" t="n">
-        <v>9405</v>
+        <v>10100</v>
       </c>
       <c r="F44" t="n">
-        <v>265.9343</v>
+        <v>175</v>
       </c>
       <c r="G44" t="n">
-        <v>5187.602793700002</v>
+        <v>5621.6996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9695</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>1.036774110366168</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -1986,38 +2238,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9405</v>
+        <v>10100</v>
       </c>
       <c r="C45" t="n">
-        <v>9435</v>
+        <v>10100</v>
       </c>
       <c r="D45" t="n">
-        <v>9435</v>
+        <v>10100</v>
       </c>
       <c r="E45" t="n">
-        <v>9405</v>
+        <v>10100</v>
       </c>
       <c r="F45" t="n">
-        <v>17.1806</v>
+        <v>449.0099</v>
       </c>
       <c r="G45" t="n">
-        <v>5204.783393700001</v>
+        <v>5621.6996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9410</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2028,38 +2274,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9435</v>
+        <v>10050</v>
       </c>
       <c r="C46" t="n">
-        <v>9465</v>
+        <v>10100</v>
       </c>
       <c r="D46" t="n">
-        <v>9465</v>
+        <v>10100</v>
       </c>
       <c r="E46" t="n">
-        <v>9425</v>
+        <v>10050</v>
       </c>
       <c r="F46" t="n">
-        <v>49.3572</v>
+        <v>709</v>
       </c>
       <c r="G46" t="n">
-        <v>5254.140593700002</v>
+        <v>5621.6996</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9435</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2070,38 +2310,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9490</v>
+        <v>10100</v>
       </c>
       <c r="C47" t="n">
-        <v>9405</v>
+        <v>10120</v>
       </c>
       <c r="D47" t="n">
-        <v>9490</v>
+        <v>10120</v>
       </c>
       <c r="E47" t="n">
-        <v>9405</v>
+        <v>10100</v>
       </c>
       <c r="F47" t="n">
-        <v>14.4395</v>
+        <v>512.734</v>
       </c>
       <c r="G47" t="n">
-        <v>5239.701093700001</v>
+        <v>6134.4336</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9465</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2112,38 +2346,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9485</v>
+        <v>10120</v>
       </c>
       <c r="C48" t="n">
-        <v>9485</v>
+        <v>10120</v>
       </c>
       <c r="D48" t="n">
-        <v>9485</v>
+        <v>10120</v>
       </c>
       <c r="E48" t="n">
-        <v>9485</v>
+        <v>10120</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>246.5111</v>
       </c>
       <c r="G48" t="n">
-        <v>5241.701093700001</v>
+        <v>6134.4336</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9405</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2154,38 +2382,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9485</v>
+        <v>10140</v>
       </c>
       <c r="C49" t="n">
-        <v>9485</v>
+        <v>10140</v>
       </c>
       <c r="D49" t="n">
-        <v>9485</v>
+        <v>10140</v>
       </c>
       <c r="E49" t="n">
-        <v>9485</v>
+        <v>10140</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>115.0689</v>
       </c>
       <c r="G49" t="n">
-        <v>5241.701093700001</v>
+        <v>6249.502500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>9485</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2196,36 +2418,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="C50" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="D50" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="E50" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="F50" t="n">
-        <v>1.7394</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>5239.961693700001</v>
+        <v>6249.502500000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2236,36 +2454,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="C51" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="D51" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="E51" t="n">
-        <v>9445</v>
+        <v>10140</v>
       </c>
       <c r="F51" t="n">
-        <v>20.9312</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>5239.961693700001</v>
+        <v>6249.502500000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2276,36 +2490,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9475</v>
+        <v>10150</v>
       </c>
       <c r="C52" t="n">
-        <v>9475</v>
+        <v>10160</v>
       </c>
       <c r="D52" t="n">
-        <v>9475</v>
+        <v>10160</v>
       </c>
       <c r="E52" t="n">
-        <v>9475</v>
+        <v>10150</v>
       </c>
       <c r="F52" t="n">
-        <v>9.6342</v>
+        <v>103.75</v>
       </c>
       <c r="G52" t="n">
-        <v>5249.595893700001</v>
+        <v>6353.252500000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2316,36 +2526,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9500</v>
+        <v>10140</v>
       </c>
       <c r="C53" t="n">
-        <v>9500</v>
+        <v>10140</v>
       </c>
       <c r="D53" t="n">
-        <v>9500</v>
+        <v>10140</v>
       </c>
       <c r="E53" t="n">
-        <v>9500</v>
+        <v>10140</v>
       </c>
       <c r="F53" t="n">
-        <v>1.893</v>
+        <v>48.6962</v>
       </c>
       <c r="G53" t="n">
-        <v>5251.488893700001</v>
+        <v>6304.5563</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2356,36 +2562,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9565</v>
+        <v>10140</v>
       </c>
       <c r="C54" t="n">
-        <v>9565</v>
+        <v>10040</v>
       </c>
       <c r="D54" t="n">
-        <v>9565</v>
+        <v>10140</v>
       </c>
       <c r="E54" t="n">
-        <v>9565</v>
+        <v>10040</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0085</v>
+        <v>76.7848</v>
       </c>
       <c r="G54" t="n">
-        <v>5252.497393700001</v>
+        <v>6227.7715</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2396,36 +2598,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9515</v>
+        <v>10050</v>
       </c>
       <c r="C55" t="n">
-        <v>9510</v>
+        <v>10130</v>
       </c>
       <c r="D55" t="n">
-        <v>9515</v>
+        <v>10130</v>
       </c>
       <c r="E55" t="n">
-        <v>9510</v>
+        <v>10040</v>
       </c>
       <c r="F55" t="n">
-        <v>156.8461</v>
+        <v>13.7249</v>
       </c>
       <c r="G55" t="n">
-        <v>5095.651293700002</v>
+        <v>6241.4964</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2436,36 +2634,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9495</v>
+        <v>10080</v>
       </c>
       <c r="C56" t="n">
-        <v>9485</v>
+        <v>10080</v>
       </c>
       <c r="D56" t="n">
-        <v>9495</v>
+        <v>10080</v>
       </c>
       <c r="E56" t="n">
-        <v>9485</v>
+        <v>10080</v>
       </c>
       <c r="F56" t="n">
-        <v>400.7795</v>
+        <v>3.766</v>
       </c>
       <c r="G56" t="n">
-        <v>4694.871793700002</v>
+        <v>6237.7304</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2476,36 +2670,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9550</v>
+        <v>10130</v>
       </c>
       <c r="C57" t="n">
-        <v>9550</v>
+        <v>10140</v>
       </c>
       <c r="D57" t="n">
-        <v>9550</v>
+        <v>10140</v>
       </c>
       <c r="E57" t="n">
-        <v>9550</v>
+        <v>10130</v>
       </c>
       <c r="F57" t="n">
-        <v>30.5</v>
+        <v>4.7127</v>
       </c>
       <c r="G57" t="n">
-        <v>4725.371793700002</v>
+        <v>6242.4431</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2516,36 +2706,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="C58" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="D58" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="E58" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="F58" t="n">
-        <v>40.5</v>
+        <v>53.8448</v>
       </c>
       <c r="G58" t="n">
-        <v>4684.871793700002</v>
+        <v>6242.4431</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2556,36 +2742,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9525</v>
+        <v>10130</v>
       </c>
       <c r="C59" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="D59" t="n">
-        <v>9530</v>
+        <v>10140</v>
       </c>
       <c r="E59" t="n">
-        <v>9525</v>
+        <v>10130</v>
       </c>
       <c r="F59" t="n">
-        <v>34.5</v>
+        <v>611.7507000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>4684.871793700002</v>
+        <v>6242.4431</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2596,36 +2778,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9465</v>
+        <v>10090</v>
       </c>
       <c r="C60" t="n">
-        <v>9465</v>
+        <v>10090</v>
       </c>
       <c r="D60" t="n">
-        <v>9465</v>
+        <v>10090</v>
       </c>
       <c r="E60" t="n">
-        <v>9465</v>
+        <v>10090</v>
       </c>
       <c r="F60" t="n">
-        <v>0.367</v>
+        <v>3.9785</v>
       </c>
       <c r="G60" t="n">
-        <v>4684.504793700002</v>
+        <v>6238.4646</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2636,36 +2814,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9460</v>
+        <v>10140</v>
       </c>
       <c r="C61" t="n">
-        <v>9450</v>
+        <v>10020</v>
       </c>
       <c r="D61" t="n">
-        <v>9460</v>
+        <v>10160</v>
       </c>
       <c r="E61" t="n">
-        <v>9450</v>
+        <v>10020</v>
       </c>
       <c r="F61" t="n">
-        <v>168.3499</v>
+        <v>1604.25639921</v>
       </c>
       <c r="G61" t="n">
-        <v>4516.154893700002</v>
+        <v>4634.208200790001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2676,36 +2850,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9515</v>
+        <v>10130</v>
       </c>
       <c r="C62" t="n">
-        <v>9515</v>
+        <v>10020</v>
       </c>
       <c r="D62" t="n">
-        <v>9515</v>
+        <v>10160</v>
       </c>
       <c r="E62" t="n">
-        <v>9515</v>
+        <v>10020</v>
       </c>
       <c r="F62" t="n">
-        <v>6.46</v>
+        <v>177.72413267</v>
       </c>
       <c r="G62" t="n">
-        <v>4522.614893700002</v>
+        <v>4634.208200790001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2716,36 +2886,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9515</v>
+        <v>10100</v>
       </c>
       <c r="C63" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="D63" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="E63" t="n">
-        <v>9515</v>
+        <v>10100</v>
       </c>
       <c r="F63" t="n">
-        <v>22</v>
+        <v>107.082</v>
       </c>
       <c r="G63" t="n">
-        <v>4522.614893700002</v>
+        <v>4741.290200790001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2756,36 +2922,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="C64" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="D64" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="E64" t="n">
-        <v>9515</v>
+        <v>10150</v>
       </c>
       <c r="F64" t="n">
-        <v>1.051</v>
+        <v>63</v>
       </c>
       <c r="G64" t="n">
-        <v>4522.614893700002</v>
+        <v>4741.290200790001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2796,36 +2958,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9510</v>
+        <v>10160</v>
       </c>
       <c r="C65" t="n">
-        <v>9515</v>
+        <v>10160</v>
       </c>
       <c r="D65" t="n">
-        <v>9515</v>
+        <v>10160</v>
       </c>
       <c r="E65" t="n">
-        <v>9510</v>
+        <v>10160</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>44.26079291</v>
       </c>
       <c r="G65" t="n">
-        <v>4522.614893700002</v>
+        <v>4785.550993700002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2836,36 +2994,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9515</v>
+        <v>10160</v>
       </c>
       <c r="C66" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="D66" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="E66" t="n">
-        <v>9515</v>
+        <v>10160</v>
       </c>
       <c r="F66" t="n">
-        <v>42</v>
+        <v>32.5</v>
       </c>
       <c r="G66" t="n">
-        <v>4564.614893700002</v>
+        <v>4785.550993700002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2876,36 +3030,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="C67" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="D67" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="E67" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>186.3713</v>
       </c>
       <c r="G67" t="n">
-        <v>4564.614893700002</v>
+        <v>4785.550993700002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2916,36 +3066,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="C68" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="D68" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="E68" t="n">
-        <v>9520</v>
+        <v>10160</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>48.5838</v>
       </c>
       <c r="G68" t="n">
-        <v>4564.614893700002</v>
+        <v>4785.550993700002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2956,36 +3102,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9520</v>
+        <v>10030</v>
       </c>
       <c r="C69" t="n">
-        <v>9520</v>
+        <v>9975</v>
       </c>
       <c r="D69" t="n">
-        <v>9520</v>
+        <v>10030</v>
       </c>
       <c r="E69" t="n">
-        <v>9520</v>
+        <v>9975</v>
       </c>
       <c r="F69" t="n">
-        <v>8.43</v>
+        <v>629.3538</v>
       </c>
       <c r="G69" t="n">
-        <v>4564.614893700002</v>
+        <v>4156.197193700002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +3138,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9515</v>
+        <v>10140</v>
       </c>
       <c r="C70" t="n">
-        <v>9515</v>
+        <v>10100</v>
       </c>
       <c r="D70" t="n">
-        <v>9515</v>
+        <v>10140</v>
       </c>
       <c r="E70" t="n">
-        <v>9515</v>
+        <v>10100</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>62.34</v>
       </c>
       <c r="G70" t="n">
-        <v>4560.614893700002</v>
+        <v>4218.537193700002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3021,11 +3163,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3036,36 +3174,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9510</v>
+        <v>10080</v>
       </c>
       <c r="C71" t="n">
-        <v>9515</v>
+        <v>10080</v>
       </c>
       <c r="D71" t="n">
-        <v>9515</v>
+        <v>10080</v>
       </c>
       <c r="E71" t="n">
-        <v>9510</v>
+        <v>10080</v>
       </c>
       <c r="F71" t="n">
-        <v>18</v>
+        <v>55.14</v>
       </c>
       <c r="G71" t="n">
-        <v>4560.614893700002</v>
+        <v>4163.397193700001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3076,36 +3210,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9515</v>
+        <v>9985</v>
       </c>
       <c r="C72" t="n">
-        <v>9510</v>
+        <v>10090</v>
       </c>
       <c r="D72" t="n">
-        <v>9515</v>
+        <v>10090</v>
       </c>
       <c r="E72" t="n">
-        <v>9510</v>
+        <v>9985</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>262.0066</v>
       </c>
       <c r="G72" t="n">
-        <v>4550.614893700002</v>
+        <v>4425.403793700001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3116,22 +3246,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9510</v>
+        <v>9980</v>
       </c>
       <c r="C73" t="n">
-        <v>9545</v>
+        <v>9880</v>
       </c>
       <c r="D73" t="n">
-        <v>9545</v>
+        <v>9980</v>
       </c>
       <c r="E73" t="n">
-        <v>9510</v>
+        <v>9880</v>
       </c>
       <c r="F73" t="n">
-        <v>12</v>
+        <v>30.8346</v>
       </c>
       <c r="G73" t="n">
-        <v>4562.614893700002</v>
+        <v>4394.569193700001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3141,11 +3271,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +3282,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9550</v>
+        <v>10070</v>
       </c>
       <c r="C74" t="n">
-        <v>9555</v>
+        <v>9995</v>
       </c>
       <c r="D74" t="n">
-        <v>9555</v>
+        <v>10070</v>
       </c>
       <c r="E74" t="n">
-        <v>9550</v>
+        <v>9995</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>17.12790025</v>
       </c>
       <c r="G74" t="n">
-        <v>4574.614893700002</v>
+        <v>4411.697093950001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3181,11 +3307,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3196,22 +3318,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9595</v>
+        <v>9995</v>
       </c>
       <c r="C75" t="n">
-        <v>9595</v>
+        <v>10000</v>
       </c>
       <c r="D75" t="n">
-        <v>9595</v>
+        <v>10000</v>
       </c>
       <c r="E75" t="n">
-        <v>9595</v>
+        <v>9995</v>
       </c>
       <c r="F75" t="n">
-        <v>34</v>
+        <v>10.00221474</v>
       </c>
       <c r="G75" t="n">
-        <v>4608.614893700002</v>
+        <v>4421.69930869</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3221,11 +3343,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +3354,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9595</v>
+        <v>9835</v>
       </c>
       <c r="C76" t="n">
-        <v>9595</v>
+        <v>9835</v>
       </c>
       <c r="D76" t="n">
-        <v>9595</v>
+        <v>9835</v>
       </c>
       <c r="E76" t="n">
-        <v>9595</v>
+        <v>9835</v>
       </c>
       <c r="F76" t="n">
-        <v>63.5</v>
+        <v>16.0871</v>
       </c>
       <c r="G76" t="n">
-        <v>4608.614893700002</v>
+        <v>4405.61220869</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3261,11 +3379,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3276,22 +3390,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9595</v>
+        <v>9810</v>
       </c>
       <c r="C77" t="n">
-        <v>9595</v>
+        <v>9800</v>
       </c>
       <c r="D77" t="n">
-        <v>9595</v>
+        <v>9810</v>
       </c>
       <c r="E77" t="n">
-        <v>9595</v>
+        <v>9800</v>
       </c>
       <c r="F77" t="n">
-        <v>42.8571</v>
+        <v>84.14570000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>4608.614893700002</v>
+        <v>4321.46650869</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3301,11 +3415,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3426,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9590</v>
+        <v>9830</v>
       </c>
       <c r="C78" t="n">
-        <v>9585</v>
+        <v>9980</v>
       </c>
       <c r="D78" t="n">
-        <v>9600</v>
+        <v>9980</v>
       </c>
       <c r="E78" t="n">
-        <v>9585</v>
+        <v>9830</v>
       </c>
       <c r="F78" t="n">
-        <v>122.5</v>
+        <v>227.5611</v>
       </c>
       <c r="G78" t="n">
-        <v>4486.114893700002</v>
+        <v>4549.02760869</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3341,11 +3451,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3462,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9580</v>
+        <v>9980</v>
       </c>
       <c r="C79" t="n">
-        <v>9580</v>
+        <v>10000</v>
       </c>
       <c r="D79" t="n">
-        <v>9580</v>
+        <v>10000</v>
       </c>
       <c r="E79" t="n">
-        <v>9580</v>
+        <v>9980</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>32.5</v>
       </c>
       <c r="G79" t="n">
-        <v>4476.114893700002</v>
+        <v>4581.52760869</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3381,11 +3487,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3396,22 +3498,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9600</v>
+        <v>9990</v>
       </c>
       <c r="C80" t="n">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="D80" t="n">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="E80" t="n">
-        <v>9600</v>
+        <v>9990</v>
       </c>
       <c r="F80" t="n">
-        <v>27.08</v>
+        <v>74</v>
       </c>
       <c r="G80" t="n">
-        <v>4503.194893700002</v>
+        <v>4581.52760869</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3421,11 +3523,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3436,22 +3534,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9595</v>
+        <v>10000</v>
       </c>
       <c r="C81" t="n">
-        <v>9530</v>
+        <v>10100</v>
       </c>
       <c r="D81" t="n">
-        <v>9595</v>
+        <v>10100</v>
       </c>
       <c r="E81" t="n">
-        <v>9530</v>
+        <v>10000</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>562.04948501</v>
       </c>
       <c r="G81" t="n">
-        <v>4485.194893700002</v>
+        <v>5143.577093700001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3461,11 +3559,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3570,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9600</v>
+        <v>10040</v>
       </c>
       <c r="C82" t="n">
-        <v>9600</v>
+        <v>10040</v>
       </c>
       <c r="D82" t="n">
-        <v>9600</v>
+        <v>10040</v>
       </c>
       <c r="E82" t="n">
-        <v>9600</v>
+        <v>10040</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>4487.194893700002</v>
+        <v>5133.577093700001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3501,11 +3595,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3606,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9600</v>
+        <v>9915</v>
       </c>
       <c r="C83" t="n">
-        <v>9600</v>
+        <v>9915</v>
       </c>
       <c r="D83" t="n">
-        <v>9600</v>
+        <v>9915</v>
       </c>
       <c r="E83" t="n">
-        <v>9600</v>
+        <v>9915</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>19.1997</v>
       </c>
       <c r="G83" t="n">
-        <v>4487.194893700002</v>
+        <v>5114.377393700001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3541,11 +3631,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3642,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9520</v>
+        <v>9915</v>
       </c>
       <c r="C84" t="n">
-        <v>9515</v>
+        <v>10010</v>
       </c>
       <c r="D84" t="n">
-        <v>9520</v>
+        <v>10010</v>
       </c>
       <c r="E84" t="n">
-        <v>9515</v>
+        <v>9915</v>
       </c>
       <c r="F84" t="n">
-        <v>111.1119</v>
+        <v>37.2674</v>
       </c>
       <c r="G84" t="n">
-        <v>4376.082993700002</v>
+        <v>5151.6447937</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3581,11 +3667,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3596,22 +3678,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9590</v>
+        <v>9970</v>
       </c>
       <c r="C85" t="n">
-        <v>9590</v>
+        <v>9940</v>
       </c>
       <c r="D85" t="n">
-        <v>9590</v>
+        <v>9970</v>
       </c>
       <c r="E85" t="n">
-        <v>9590</v>
+        <v>9940</v>
       </c>
       <c r="F85" t="n">
-        <v>12.3186</v>
+        <v>36</v>
       </c>
       <c r="G85" t="n">
-        <v>4388.401593700001</v>
+        <v>5115.6447937</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3621,11 +3703,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3636,22 +3714,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9595</v>
+        <v>9840</v>
       </c>
       <c r="C86" t="n">
-        <v>9595</v>
+        <v>9995</v>
       </c>
       <c r="D86" t="n">
-        <v>9595</v>
+        <v>9995</v>
       </c>
       <c r="E86" t="n">
-        <v>9595</v>
+        <v>9840</v>
       </c>
       <c r="F86" t="n">
-        <v>38</v>
+        <v>101.6151</v>
       </c>
       <c r="G86" t="n">
-        <v>4426.401593700001</v>
+        <v>5217.2598937</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3661,11 +3739,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3750,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9595</v>
+        <v>9920</v>
       </c>
       <c r="C87" t="n">
-        <v>9595</v>
+        <v>9910</v>
       </c>
       <c r="D87" t="n">
-        <v>9595</v>
+        <v>9920</v>
       </c>
       <c r="E87" t="n">
-        <v>9595</v>
+        <v>9910</v>
       </c>
       <c r="F87" t="n">
-        <v>31</v>
+        <v>10.8171</v>
       </c>
       <c r="G87" t="n">
-        <v>4426.401593700001</v>
+        <v>5206.4427937</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3701,11 +3775,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3786,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9595</v>
+        <v>9900</v>
       </c>
       <c r="C88" t="n">
-        <v>9595</v>
+        <v>9900</v>
       </c>
       <c r="D88" t="n">
-        <v>9595</v>
+        <v>9905</v>
       </c>
       <c r="E88" t="n">
-        <v>9595</v>
+        <v>9870</v>
       </c>
       <c r="F88" t="n">
-        <v>12.56</v>
+        <v>168.2356</v>
       </c>
       <c r="G88" t="n">
-        <v>4426.401593700001</v>
+        <v>5038.2071937</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3741,11 +3811,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3756,22 +3822,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9500</v>
+        <v>9875</v>
       </c>
       <c r="C89" t="n">
-        <v>9500</v>
+        <v>9860</v>
       </c>
       <c r="D89" t="n">
-        <v>9500</v>
+        <v>9875</v>
       </c>
       <c r="E89" t="n">
-        <v>9500</v>
+        <v>9860</v>
       </c>
       <c r="F89" t="n">
-        <v>6.79</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
-        <v>4419.611593700001</v>
+        <v>5012.2071937</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3781,11 +3847,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3796,22 +3858,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9590</v>
+        <v>9860</v>
       </c>
       <c r="C90" t="n">
-        <v>9590</v>
+        <v>9860</v>
       </c>
       <c r="D90" t="n">
-        <v>9590</v>
+        <v>9865</v>
       </c>
       <c r="E90" t="n">
-        <v>9590</v>
+        <v>9860</v>
       </c>
       <c r="F90" t="n">
-        <v>3.39</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>4423.001593700002</v>
+        <v>5012.2071937</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3821,11 +3883,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3836,22 +3894,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9585</v>
+        <v>9750</v>
       </c>
       <c r="C91" t="n">
-        <v>9620</v>
+        <v>9750</v>
       </c>
       <c r="D91" t="n">
-        <v>9620</v>
+        <v>9750</v>
       </c>
       <c r="E91" t="n">
-        <v>9585</v>
+        <v>9750</v>
       </c>
       <c r="F91" t="n">
-        <v>80.5</v>
+        <v>34.597</v>
       </c>
       <c r="G91" t="n">
-        <v>4503.501593700002</v>
+        <v>4977.6101937</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3861,11 +3919,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +3930,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9600</v>
+        <v>9670</v>
       </c>
       <c r="C92" t="n">
-        <v>9600</v>
+        <v>9780</v>
       </c>
       <c r="D92" t="n">
-        <v>9600</v>
+        <v>9785</v>
       </c>
       <c r="E92" t="n">
-        <v>9600</v>
+        <v>9630</v>
       </c>
       <c r="F92" t="n">
-        <v>15.53</v>
+        <v>844.4372</v>
       </c>
       <c r="G92" t="n">
-        <v>4487.971593700002</v>
+        <v>5822.047393700001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3901,11 +3955,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3966,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9615</v>
+        <v>9655</v>
       </c>
       <c r="C93" t="n">
-        <v>9640</v>
+        <v>9760</v>
       </c>
       <c r="D93" t="n">
-        <v>9640</v>
+        <v>9770</v>
       </c>
       <c r="E93" t="n">
-        <v>9615</v>
+        <v>9655</v>
       </c>
       <c r="F93" t="n">
-        <v>103.7212</v>
+        <v>93.48090000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>4591.692793700002</v>
+        <v>5728.566493700001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3941,11 +3991,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3956,22 +4002,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9645</v>
+        <v>9760</v>
       </c>
       <c r="C94" t="n">
-        <v>9645</v>
+        <v>9780</v>
       </c>
       <c r="D94" t="n">
-        <v>9645</v>
+        <v>9780</v>
       </c>
       <c r="E94" t="n">
         <v>9645</v>
       </c>
       <c r="F94" t="n">
-        <v>42.8731</v>
+        <v>525.9692</v>
       </c>
       <c r="G94" t="n">
-        <v>4634.565893700002</v>
+        <v>6254.535693700002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3981,11 +4027,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3996,22 +4038,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9640</v>
+        <v>9750</v>
       </c>
       <c r="C95" t="n">
-        <v>9640</v>
+        <v>9760</v>
       </c>
       <c r="D95" t="n">
-        <v>9640</v>
+        <v>9760</v>
       </c>
       <c r="E95" t="n">
-        <v>9640</v>
+        <v>9750</v>
       </c>
       <c r="F95" t="n">
-        <v>6.35</v>
+        <v>72</v>
       </c>
       <c r="G95" t="n">
-        <v>4628.215893700001</v>
+        <v>6182.535693700002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4021,11 +4063,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +4074,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9650</v>
+        <v>9745</v>
       </c>
       <c r="C96" t="n">
-        <v>9650</v>
+        <v>9750</v>
       </c>
       <c r="D96" t="n">
-        <v>9650</v>
+        <v>9750</v>
       </c>
       <c r="E96" t="n">
-        <v>9650</v>
+        <v>9745</v>
       </c>
       <c r="F96" t="n">
-        <v>6.18</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>4634.395893700002</v>
+        <v>6082.535693700002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4061,11 +4099,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +4110,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9650</v>
+        <v>9750</v>
       </c>
       <c r="C97" t="n">
-        <v>9665</v>
+        <v>9635</v>
       </c>
       <c r="D97" t="n">
-        <v>9665</v>
+        <v>9750</v>
       </c>
       <c r="E97" t="n">
-        <v>9650</v>
+        <v>9635</v>
       </c>
       <c r="F97" t="n">
-        <v>14</v>
+        <v>451.6566</v>
       </c>
       <c r="G97" t="n">
-        <v>4648.395893700002</v>
+        <v>5630.879093700001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4101,11 +4135,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +4146,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9665</v>
+        <v>9630</v>
       </c>
       <c r="C98" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="D98" t="n">
-        <v>9670</v>
+        <v>9740</v>
       </c>
       <c r="E98" t="n">
-        <v>9665</v>
+        <v>9600</v>
       </c>
       <c r="F98" t="n">
-        <v>14</v>
+        <v>860.008</v>
       </c>
       <c r="G98" t="n">
-        <v>4662.395893700002</v>
+        <v>6490.887093700001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4141,11 +4171,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4156,22 +4182,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="C99" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="D99" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E99" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G99" t="n">
-        <v>4666.395893700002</v>
+        <v>6490.887093700001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4181,11 +4207,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4218,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="C100" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="D100" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="E100" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="F100" t="n">
-        <v>35</v>
+        <v>129.1925</v>
       </c>
       <c r="G100" t="n">
-        <v>4666.395893700002</v>
+        <v>6361.694593700001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4221,11 +4243,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4254,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="C101" t="n">
-        <v>9700</v>
+        <v>9570</v>
       </c>
       <c r="D101" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E101" t="n">
-        <v>9700</v>
+        <v>9570</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>254.6913</v>
       </c>
       <c r="G101" t="n">
-        <v>4666.395893700002</v>
+        <v>6107.003293700001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4261,11 +4279,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4276,22 +4290,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9700</v>
+        <v>9570</v>
       </c>
       <c r="C102" t="n">
-        <v>9710</v>
+        <v>9570</v>
       </c>
       <c r="D102" t="n">
-        <v>9710</v>
+        <v>9575</v>
       </c>
       <c r="E102" t="n">
-        <v>9700</v>
+        <v>9570</v>
       </c>
       <c r="F102" t="n">
-        <v>28</v>
+        <v>101.063</v>
       </c>
       <c r="G102" t="n">
-        <v>4694.395893700002</v>
+        <v>6107.003293700001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4301,11 +4315,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4316,22 +4326,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9710</v>
+        <v>9570</v>
       </c>
       <c r="C103" t="n">
-        <v>9720</v>
+        <v>9550</v>
       </c>
       <c r="D103" t="n">
-        <v>9720</v>
+        <v>9570</v>
       </c>
       <c r="E103" t="n">
-        <v>9710</v>
+        <v>9550</v>
       </c>
       <c r="F103" t="n">
-        <v>40</v>
+        <v>177.347</v>
       </c>
       <c r="G103" t="n">
-        <v>4734.395893700002</v>
+        <v>5929.656293700001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4341,11 +4351,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +4362,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9720</v>
+        <v>9550</v>
       </c>
       <c r="C104" t="n">
-        <v>9745</v>
+        <v>9500</v>
       </c>
       <c r="D104" t="n">
-        <v>9745</v>
+        <v>9550</v>
       </c>
       <c r="E104" t="n">
-        <v>9720</v>
+        <v>9495</v>
       </c>
       <c r="F104" t="n">
-        <v>33.4853</v>
+        <v>518.9675999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>4767.881193700002</v>
+        <v>5410.688693700001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4381,11 +4387,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4398,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9750</v>
+        <v>9495</v>
       </c>
       <c r="C105" t="n">
-        <v>9750</v>
+        <v>9490</v>
       </c>
       <c r="D105" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="E105" t="n">
-        <v>9750</v>
+        <v>9485</v>
       </c>
       <c r="F105" t="n">
-        <v>6.26</v>
+        <v>132.7348</v>
       </c>
       <c r="G105" t="n">
-        <v>4774.141193700002</v>
+        <v>5277.953893700001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4421,11 +4423,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4436,22 +4434,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9745</v>
+        <v>9495</v>
       </c>
       <c r="C106" t="n">
-        <v>9745</v>
+        <v>9490</v>
       </c>
       <c r="D106" t="n">
-        <v>9745</v>
+        <v>9495</v>
       </c>
       <c r="E106" t="n">
-        <v>9745</v>
+        <v>9485</v>
       </c>
       <c r="F106" t="n">
-        <v>10.1862</v>
+        <v>209.7856</v>
       </c>
       <c r="G106" t="n">
-        <v>4763.954993700002</v>
+        <v>5277.953893700001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4461,11 +4459,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4470,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9595</v>
+        <v>9485</v>
       </c>
       <c r="C107" t="n">
-        <v>9630</v>
+        <v>9440</v>
       </c>
       <c r="D107" t="n">
-        <v>9630</v>
+        <v>9485</v>
       </c>
       <c r="E107" t="n">
         <v>9440</v>
       </c>
       <c r="F107" t="n">
-        <v>77.9682</v>
+        <v>82.64060000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>4685.986793700002</v>
+        <v>5195.313293700001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4501,11 +4495,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4506,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="C108" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="D108" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="E108" t="n">
-        <v>9580</v>
+        <v>9440</v>
       </c>
       <c r="F108" t="n">
-        <v>10.66</v>
+        <v>227.6278</v>
       </c>
       <c r="G108" t="n">
-        <v>4675.326793700002</v>
+        <v>5422.941093700001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4541,11 +4531,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4556,22 +4542,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="C109" t="n">
-        <v>9580</v>
+        <v>9445</v>
       </c>
       <c r="D109" t="n">
-        <v>9580</v>
+        <v>9455</v>
       </c>
       <c r="E109" t="n">
-        <v>9580</v>
+        <v>9445</v>
       </c>
       <c r="F109" t="n">
-        <v>17.18</v>
+        <v>23.1887</v>
       </c>
       <c r="G109" t="n">
-        <v>4675.326793700002</v>
+        <v>5399.752393700001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4581,11 +4567,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4596,22 +4578,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="C110" t="n">
-        <v>9540</v>
+        <v>9440</v>
       </c>
       <c r="D110" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="E110" t="n">
-        <v>9540</v>
+        <v>9440</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>97.3865</v>
       </c>
       <c r="G110" t="n">
-        <v>4671.326793700002</v>
+        <v>5302.365893700002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4621,11 +4603,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +4614,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9540</v>
+        <v>9445</v>
       </c>
       <c r="C111" t="n">
-        <v>9540</v>
+        <v>9430</v>
       </c>
       <c r="D111" t="n">
-        <v>9540</v>
+        <v>9450</v>
       </c>
       <c r="E111" t="n">
-        <v>9540</v>
+        <v>9430</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>165.0508</v>
       </c>
       <c r="G111" t="n">
-        <v>4671.326793700002</v>
+        <v>5137.315093700002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4661,11 +4639,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4676,22 +4650,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="C112" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="D112" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="E112" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="F112" t="n">
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>4675.326793700002</v>
+        <v>5141.315093700002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4701,11 +4675,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4716,22 +4686,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="C113" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="D113" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="E113" t="n">
-        <v>9555</v>
+        <v>9435</v>
       </c>
       <c r="F113" t="n">
-        <v>31.2392</v>
+        <v>27</v>
       </c>
       <c r="G113" t="n">
-        <v>4675.326793700002</v>
+        <v>5141.315093700002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4741,11 +4711,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4722,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9575</v>
+        <v>9435</v>
       </c>
       <c r="C114" t="n">
-        <v>9575</v>
+        <v>9400</v>
       </c>
       <c r="D114" t="n">
-        <v>9575</v>
+        <v>9435</v>
       </c>
       <c r="E114" t="n">
-        <v>9575</v>
+        <v>9400</v>
       </c>
       <c r="F114" t="n">
-        <v>14</v>
+        <v>219.6466</v>
       </c>
       <c r="G114" t="n">
-        <v>4689.326793700002</v>
+        <v>4921.668493700002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4781,11 +4747,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4796,22 +4758,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9575</v>
+        <v>9405</v>
       </c>
       <c r="C115" t="n">
-        <v>9525</v>
+        <v>9410</v>
       </c>
       <c r="D115" t="n">
-        <v>9620</v>
+        <v>9415</v>
       </c>
       <c r="E115" t="n">
-        <v>9525</v>
+        <v>9405</v>
       </c>
       <c r="F115" t="n">
-        <v>18.9445</v>
+        <v>265.9343</v>
       </c>
       <c r="G115" t="n">
-        <v>4670.382293700002</v>
+        <v>5187.602793700002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4821,11 +4783,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4836,22 +4794,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9620</v>
+        <v>9405</v>
       </c>
       <c r="C116" t="n">
-        <v>9625</v>
+        <v>9435</v>
       </c>
       <c r="D116" t="n">
-        <v>9625</v>
+        <v>9435</v>
       </c>
       <c r="E116" t="n">
-        <v>9620</v>
+        <v>9405</v>
       </c>
       <c r="F116" t="n">
-        <v>33.5</v>
+        <v>17.1806</v>
       </c>
       <c r="G116" t="n">
-        <v>4703.882293700002</v>
+        <v>5204.783393700001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4861,11 +4819,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4876,22 +4830,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9625</v>
+        <v>9435</v>
       </c>
       <c r="C117" t="n">
-        <v>9645</v>
+        <v>9465</v>
       </c>
       <c r="D117" t="n">
-        <v>9645</v>
+        <v>9465</v>
       </c>
       <c r="E117" t="n">
-        <v>9625</v>
+        <v>9425</v>
       </c>
       <c r="F117" t="n">
-        <v>34</v>
+        <v>49.3572</v>
       </c>
       <c r="G117" t="n">
-        <v>4737.882293700002</v>
+        <v>5254.140593700002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4901,11 +4855,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4866,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9650</v>
+        <v>9490</v>
       </c>
       <c r="C118" t="n">
-        <v>9650</v>
+        <v>9405</v>
       </c>
       <c r="D118" t="n">
-        <v>9650</v>
+        <v>9490</v>
       </c>
       <c r="E118" t="n">
-        <v>9650</v>
+        <v>9405</v>
       </c>
       <c r="F118" t="n">
-        <v>6.3843</v>
+        <v>14.4395</v>
       </c>
       <c r="G118" t="n">
-        <v>4744.266593700002</v>
+        <v>5239.701093700001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4941,11 +4891,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4956,22 +4902,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9650</v>
+        <v>9485</v>
       </c>
       <c r="C119" t="n">
-        <v>9655</v>
+        <v>9485</v>
       </c>
       <c r="D119" t="n">
-        <v>9655</v>
+        <v>9485</v>
       </c>
       <c r="E119" t="n">
-        <v>9650</v>
+        <v>9485</v>
       </c>
       <c r="F119" t="n">
-        <v>7.9801</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>4752.246693700002</v>
+        <v>5241.701093700001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4981,11 +4927,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4996,22 +4938,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9660</v>
+        <v>9485</v>
       </c>
       <c r="C120" t="n">
-        <v>9660</v>
+        <v>9485</v>
       </c>
       <c r="D120" t="n">
-        <v>9660</v>
+        <v>9485</v>
       </c>
       <c r="E120" t="n">
-        <v>9660</v>
+        <v>9485</v>
       </c>
       <c r="F120" t="n">
-        <v>12.59</v>
+        <v>4</v>
       </c>
       <c r="G120" t="n">
-        <v>4764.836693700002</v>
+        <v>5241.701093700001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5021,11 +4963,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5036,22 +4974,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9655</v>
+        <v>9445</v>
       </c>
       <c r="C121" t="n">
-        <v>9655</v>
+        <v>9445</v>
       </c>
       <c r="D121" t="n">
-        <v>9655</v>
+        <v>9445</v>
       </c>
       <c r="E121" t="n">
-        <v>9655</v>
+        <v>9445</v>
       </c>
       <c r="F121" t="n">
-        <v>8.430400000000001</v>
+        <v>1.7394</v>
       </c>
       <c r="G121" t="n">
-        <v>4756.406293700002</v>
+        <v>5239.961693700001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5061,11 +4999,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5076,22 +5010,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9660</v>
+        <v>9445</v>
       </c>
       <c r="C122" t="n">
-        <v>9680</v>
+        <v>9445</v>
       </c>
       <c r="D122" t="n">
-        <v>9680</v>
+        <v>9445</v>
       </c>
       <c r="E122" t="n">
-        <v>9660</v>
+        <v>9445</v>
       </c>
       <c r="F122" t="n">
-        <v>30.99464793</v>
+        <v>20.9312</v>
       </c>
       <c r="G122" t="n">
-        <v>4787.400941630001</v>
+        <v>5239.961693700001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5101,11 +5035,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5116,22 +5046,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9690</v>
+        <v>9475</v>
       </c>
       <c r="C123" t="n">
-        <v>9700</v>
+        <v>9475</v>
       </c>
       <c r="D123" t="n">
-        <v>9700</v>
+        <v>9475</v>
       </c>
       <c r="E123" t="n">
-        <v>9690</v>
+        <v>9475</v>
       </c>
       <c r="F123" t="n">
-        <v>14</v>
+        <v>9.6342</v>
       </c>
       <c r="G123" t="n">
-        <v>4801.400941630001</v>
+        <v>5249.595893700001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5141,11 +5071,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5156,22 +5082,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="C124" t="n">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="D124" t="n">
-        <v>9705</v>
+        <v>9500</v>
       </c>
       <c r="E124" t="n">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="F124" t="n">
-        <v>263.8996</v>
+        <v>1.893</v>
       </c>
       <c r="G124" t="n">
-        <v>4801.400941630001</v>
+        <v>5251.488893700001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5181,11 +5107,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5196,22 +5118,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9625</v>
+        <v>9565</v>
       </c>
       <c r="C125" t="n">
-        <v>9730</v>
+        <v>9565</v>
       </c>
       <c r="D125" t="n">
-        <v>9735</v>
+        <v>9565</v>
       </c>
       <c r="E125" t="n">
-        <v>9625</v>
+        <v>9565</v>
       </c>
       <c r="F125" t="n">
-        <v>215.09</v>
+        <v>1.0085</v>
       </c>
       <c r="G125" t="n">
-        <v>5016.490941630002</v>
+        <v>5252.497393700001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5221,11 +5143,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5236,22 +5154,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9740</v>
+        <v>9515</v>
       </c>
       <c r="C126" t="n">
-        <v>9740</v>
+        <v>9510</v>
       </c>
       <c r="D126" t="n">
-        <v>9740</v>
+        <v>9515</v>
       </c>
       <c r="E126" t="n">
-        <v>9740</v>
+        <v>9510</v>
       </c>
       <c r="F126" t="n">
-        <v>7.24</v>
+        <v>156.8461</v>
       </c>
       <c r="G126" t="n">
-        <v>5023.730941630001</v>
+        <v>5095.651293700002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5261,11 +5179,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5276,22 +5190,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9740</v>
+        <v>9495</v>
       </c>
       <c r="C127" t="n">
-        <v>9740</v>
+        <v>9485</v>
       </c>
       <c r="D127" t="n">
-        <v>9740</v>
+        <v>9495</v>
       </c>
       <c r="E127" t="n">
-        <v>9740</v>
+        <v>9485</v>
       </c>
       <c r="F127" t="n">
-        <v>23.779</v>
+        <v>400.7795</v>
       </c>
       <c r="G127" t="n">
-        <v>5023.730941630001</v>
+        <v>4694.871793700002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5301,11 +5215,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5226,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="C128" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="D128" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="E128" t="n">
-        <v>9740</v>
+        <v>9550</v>
       </c>
       <c r="F128" t="n">
-        <v>10.72</v>
+        <v>30.5</v>
       </c>
       <c r="G128" t="n">
-        <v>5023.730941630001</v>
+        <v>4725.371793700002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5341,11 +5251,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5262,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9730</v>
+        <v>9530</v>
       </c>
       <c r="C129" t="n">
-        <v>9730</v>
+        <v>9530</v>
       </c>
       <c r="D129" t="n">
-        <v>9730</v>
+        <v>9530</v>
       </c>
       <c r="E129" t="n">
-        <v>9730</v>
+        <v>9530</v>
       </c>
       <c r="F129" t="n">
-        <v>33.71</v>
+        <v>40.5</v>
       </c>
       <c r="G129" t="n">
-        <v>4990.020941630001</v>
+        <v>4684.871793700002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5381,11 +5287,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5396,22 +5298,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9700</v>
+        <v>9525</v>
       </c>
       <c r="C130" t="n">
-        <v>9700</v>
+        <v>9530</v>
       </c>
       <c r="D130" t="n">
-        <v>9700</v>
+        <v>9530</v>
       </c>
       <c r="E130" t="n">
-        <v>9700</v>
+        <v>9525</v>
       </c>
       <c r="F130" t="n">
-        <v>20.4234</v>
+        <v>34.5</v>
       </c>
       <c r="G130" t="n">
-        <v>4969.597541630002</v>
+        <v>4684.871793700002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5421,11 +5323,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5436,22 +5334,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9700</v>
+        <v>9465</v>
       </c>
       <c r="C131" t="n">
-        <v>9705</v>
+        <v>9465</v>
       </c>
       <c r="D131" t="n">
-        <v>9705</v>
+        <v>9465</v>
       </c>
       <c r="E131" t="n">
-        <v>9700</v>
+        <v>9465</v>
       </c>
       <c r="F131" t="n">
-        <v>32</v>
+        <v>0.367</v>
       </c>
       <c r="G131" t="n">
-        <v>5001.597541630002</v>
+        <v>4684.504793700002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5461,11 +5359,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5476,38 +5370,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9710</v>
+        <v>9460</v>
       </c>
       <c r="C132" t="n">
-        <v>9710</v>
+        <v>9450</v>
       </c>
       <c r="D132" t="n">
-        <v>9710</v>
+        <v>9460</v>
       </c>
       <c r="E132" t="n">
-        <v>9710</v>
+        <v>9450</v>
       </c>
       <c r="F132" t="n">
-        <v>35</v>
+        <v>168.3499</v>
       </c>
       <c r="G132" t="n">
-        <v>5036.597541630002</v>
+        <v>4516.154893700002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>9705</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5518,38 +5406,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9705</v>
+        <v>9515</v>
       </c>
       <c r="C133" t="n">
-        <v>9705</v>
+        <v>9515</v>
       </c>
       <c r="D133" t="n">
-        <v>9705</v>
+        <v>9515</v>
       </c>
       <c r="E133" t="n">
-        <v>9705</v>
+        <v>9515</v>
       </c>
       <c r="F133" t="n">
-        <v>9.572900000000001</v>
+        <v>6.46</v>
       </c>
       <c r="G133" t="n">
-        <v>5027.024641630001</v>
+        <v>4522.614893700002</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>9710</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5560,38 +5442,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9625</v>
+        <v>9515</v>
       </c>
       <c r="C134" t="n">
-        <v>9625</v>
+        <v>9515</v>
       </c>
       <c r="D134" t="n">
-        <v>9625</v>
+        <v>9515</v>
       </c>
       <c r="E134" t="n">
-        <v>9625</v>
+        <v>9515</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G134" t="n">
-        <v>5017.024641630001</v>
+        <v>4522.614893700002</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>9705</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5602,38 +5478,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9625</v>
+        <v>9515</v>
       </c>
       <c r="C135" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="D135" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="E135" t="n">
-        <v>9620</v>
+        <v>9515</v>
       </c>
       <c r="F135" t="n">
-        <v>43.3647</v>
+        <v>1.051</v>
       </c>
       <c r="G135" t="n">
-        <v>5060.389341630002</v>
+        <v>4522.614893700002</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>9625</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5644,38 +5514,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9685</v>
+        <v>9510</v>
       </c>
       <c r="C136" t="n">
-        <v>9690</v>
+        <v>9515</v>
       </c>
       <c r="D136" t="n">
-        <v>9690</v>
+        <v>9515</v>
       </c>
       <c r="E136" t="n">
-        <v>9685</v>
+        <v>9510</v>
       </c>
       <c r="F136" t="n">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="G136" t="n">
-        <v>5054.189341630002</v>
+        <v>4522.614893700002</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>9700</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5686,22 +5550,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9690</v>
+        <v>9515</v>
       </c>
       <c r="C137" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="D137" t="n">
-        <v>9690</v>
+        <v>9520</v>
       </c>
       <c r="E137" t="n">
-        <v>9685</v>
+        <v>9515</v>
       </c>
       <c r="F137" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G137" t="n">
-        <v>5042.189341630002</v>
+        <v>4564.614893700002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5711,11 +5575,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5726,22 +5586,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="C138" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="D138" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="E138" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>5042.189341630002</v>
+        <v>4564.614893700002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5751,11 +5611,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5766,22 +5622,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="C139" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="D139" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="E139" t="n">
-        <v>9685</v>
+        <v>9520</v>
       </c>
       <c r="F139" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>5127.189341630002</v>
+        <v>4564.614893700002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5791,11 +5647,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5806,22 +5658,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="C140" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="D140" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="E140" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="F140" t="n">
-        <v>6</v>
+        <v>8.43</v>
       </c>
       <c r="G140" t="n">
-        <v>5127.189341630002</v>
+        <v>4564.614893700002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5831,11 +5683,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5846,22 +5694,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="C141" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="D141" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="E141" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="F141" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G141" t="n">
-        <v>5127.189341630002</v>
+        <v>4560.614893700002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5871,11 +5719,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5886,22 +5730,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="C142" t="n">
-        <v>9695</v>
+        <v>9515</v>
       </c>
       <c r="D142" t="n">
-        <v>9695</v>
+        <v>9515</v>
       </c>
       <c r="E142" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="F142" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G142" t="n">
-        <v>5113.189341630002</v>
+        <v>4560.614893700002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5911,11 +5755,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5926,22 +5766,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9695</v>
+        <v>9515</v>
       </c>
       <c r="C143" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="D143" t="n">
-        <v>9695</v>
+        <v>9515</v>
       </c>
       <c r="E143" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="F143" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>5113.189341630002</v>
+        <v>4550.614893700002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5951,11 +5791,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5966,22 +5802,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="C144" t="n">
-        <v>9695</v>
+        <v>9545</v>
       </c>
       <c r="D144" t="n">
-        <v>9695</v>
+        <v>9545</v>
       </c>
       <c r="E144" t="n">
-        <v>9695</v>
+        <v>9510</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G144" t="n">
-        <v>5113.189341630002</v>
+        <v>4562.614893700002</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5991,11 +5827,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6006,22 +5838,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9695</v>
+        <v>9550</v>
       </c>
       <c r="C145" t="n">
-        <v>9700</v>
+        <v>9555</v>
       </c>
       <c r="D145" t="n">
-        <v>9700</v>
+        <v>9555</v>
       </c>
       <c r="E145" t="n">
-        <v>9695</v>
+        <v>9550</v>
       </c>
       <c r="F145" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>5137.189341630002</v>
+        <v>4574.614893700002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6031,11 +5863,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6046,22 +5874,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9695</v>
+        <v>9595</v>
       </c>
       <c r="C146" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="D146" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E146" t="n">
-        <v>9695</v>
+        <v>9595</v>
       </c>
       <c r="F146" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G146" t="n">
-        <v>5137.189341630002</v>
+        <v>4608.614893700002</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6071,11 +5899,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6086,22 +5910,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="C147" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="D147" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E147" t="n">
-        <v>9695</v>
+        <v>9595</v>
       </c>
       <c r="F147" t="n">
-        <v>365</v>
+        <v>63.5</v>
       </c>
       <c r="G147" t="n">
-        <v>5137.189341630002</v>
+        <v>4608.614893700002</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6111,11 +5935,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6126,22 +5946,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9695</v>
+        <v>9595</v>
       </c>
       <c r="C148" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="D148" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E148" t="n">
-        <v>9695</v>
+        <v>9595</v>
       </c>
       <c r="F148" t="n">
-        <v>183</v>
+        <v>42.8571</v>
       </c>
       <c r="G148" t="n">
-        <v>5137.189341630002</v>
+        <v>4608.614893700002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6151,11 +5971,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6166,22 +5982,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9700</v>
+        <v>9590</v>
       </c>
       <c r="C149" t="n">
-        <v>9700</v>
+        <v>9585</v>
       </c>
       <c r="D149" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E149" t="n">
-        <v>9700</v>
+        <v>9585</v>
       </c>
       <c r="F149" t="n">
-        <v>6.28</v>
+        <v>122.5</v>
       </c>
       <c r="G149" t="n">
-        <v>5137.189341630002</v>
+        <v>4486.114893700002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6191,11 +6007,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6206,22 +6018,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9700</v>
+        <v>9580</v>
       </c>
       <c r="C150" t="n">
-        <v>9700</v>
+        <v>9580</v>
       </c>
       <c r="D150" t="n">
-        <v>9700</v>
+        <v>9580</v>
       </c>
       <c r="E150" t="n">
-        <v>9700</v>
+        <v>9580</v>
       </c>
       <c r="F150" t="n">
-        <v>26.13</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>5137.189341630002</v>
+        <v>4476.114893700002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6231,11 +6043,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6054,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="C151" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="D151" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E151" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F151" t="n">
-        <v>26.12</v>
+        <v>27.08</v>
       </c>
       <c r="G151" t="n">
-        <v>5137.189341630002</v>
+        <v>4503.194893700002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6271,11 +6079,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6286,22 +6090,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="C152" t="n">
-        <v>9700</v>
+        <v>9530</v>
       </c>
       <c r="D152" t="n">
-        <v>9700</v>
+        <v>9595</v>
       </c>
       <c r="E152" t="n">
-        <v>9700</v>
+        <v>9530</v>
       </c>
       <c r="F152" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G152" t="n">
-        <v>5137.189341630002</v>
+        <v>4485.194893700002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6311,11 +6115,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6326,36 +6126,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="C153" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="D153" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="E153" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0532</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>5136.136141630001</v>
+        <v>4487.194893700002</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="n">
+        <v>9530</v>
+      </c>
+      <c r="K153" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6366,34 +6166,38 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="C154" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="D154" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E154" t="n">
-        <v>9620</v>
+        <v>9600</v>
       </c>
       <c r="F154" t="n">
-        <v>42.0489</v>
+        <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>5178.185041630001</v>
+        <v>4487.194893700002</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9600</v>
+      </c>
+      <c r="K154" t="n">
+        <v>9530</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -6406,34 +6210,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="C155" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="D155" t="n">
-        <v>9700</v>
+        <v>9520</v>
       </c>
       <c r="E155" t="n">
-        <v>9700</v>
+        <v>9515</v>
       </c>
       <c r="F155" t="n">
-        <v>45.5</v>
+        <v>111.1119</v>
       </c>
       <c r="G155" t="n">
-        <v>5178.185041630001</v>
+        <v>4376.082993700002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9600</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9530</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -6446,31 +6254,35 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9700</v>
+        <v>9590</v>
       </c>
       <c r="C156" t="n">
-        <v>9700</v>
+        <v>9590</v>
       </c>
       <c r="D156" t="n">
-        <v>9700</v>
+        <v>9590</v>
       </c>
       <c r="E156" t="n">
-        <v>9700</v>
+        <v>9590</v>
       </c>
       <c r="F156" t="n">
-        <v>31</v>
+        <v>12.3186</v>
       </c>
       <c r="G156" t="n">
-        <v>5178.185041630001</v>
+        <v>4388.401593700001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9515</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9530</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,40 +6298,3068 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C157" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F157" t="n">
+        <v>38</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4426.401593700001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F158" t="n">
+        <v>31</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4426.401593700001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9595</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9595</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4426.401593700001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K159" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>9500</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4419.611593700001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>9595</v>
+      </c>
+      <c r="K160" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9590</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9590</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4423.001593700002</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9500</v>
+      </c>
+      <c r="K161" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>9585</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E162" t="n">
+        <v>9585</v>
+      </c>
+      <c r="F162" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4503.501593700002</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>9590</v>
+      </c>
+      <c r="K162" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C163" t="n">
+        <v>9600</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9600</v>
+      </c>
+      <c r="F163" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4487.971593700002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>9620</v>
+      </c>
+      <c r="K163" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C164" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9615</v>
+      </c>
+      <c r="F164" t="n">
+        <v>103.7212</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4591.692793700002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9600</v>
+      </c>
+      <c r="K164" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C165" t="n">
+        <v>9645</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9645</v>
+      </c>
+      <c r="F165" t="n">
+        <v>42.8731</v>
+      </c>
+      <c r="G165" t="n">
+        <v>4634.565893700002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>9640</v>
+      </c>
+      <c r="K165" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C166" t="n">
+        <v>9640</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9640</v>
+      </c>
+      <c r="E166" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4628.215893700001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D167" t="n">
+        <v>9650</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="G167" t="n">
+        <v>4634.395893700002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>9640</v>
+      </c>
+      <c r="K167" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C168" t="n">
+        <v>9665</v>
+      </c>
+      <c r="D168" t="n">
+        <v>9665</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4648.395893700002</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>9650</v>
+      </c>
+      <c r="K168" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>9665</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D169" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E169" t="n">
+        <v>9665</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4662.395893700002</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>9665</v>
+      </c>
+      <c r="K169" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>9670</v>
+      </c>
+      <c r="C170" t="n">
         <v>9700</v>
       </c>
-      <c r="C157" t="n">
+      <c r="D170" t="n">
         <v>9700</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E170" t="n">
+        <v>9670</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4666.395893700002</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K170" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>9700</v>
       </c>
-      <c r="E157" t="n">
+      <c r="C171" t="n">
         <v>9700</v>
       </c>
-      <c r="F157" t="n">
+      <c r="D171" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E171" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F171" t="n">
+        <v>35</v>
+      </c>
+      <c r="G171" t="n">
+        <v>4666.395893700002</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C172" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D172" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4666.395893700002</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D173" t="n">
+        <v>9710</v>
+      </c>
+      <c r="E173" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F173" t="n">
+        <v>28</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4694.395893700002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9720</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9720</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9710</v>
+      </c>
+      <c r="F174" t="n">
+        <v>40</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4734.395893700002</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9720</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D175" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F175" t="n">
+        <v>33.4853</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4767.881193700002</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C176" t="n">
+        <v>9750</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9750</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4774.141193700002</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9745</v>
+      </c>
+      <c r="D177" t="n">
+        <v>9745</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9745</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10.1862</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4763.954993700002</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>9595</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D178" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9440</v>
+      </c>
+      <c r="F178" t="n">
+        <v>77.9682</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4685.986793700002</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D179" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4675.326793700002</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>9580</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9580</v>
+      </c>
+      <c r="D180" t="n">
+        <v>9580</v>
+      </c>
+      <c r="E180" t="n">
+        <v>9580</v>
+      </c>
+      <c r="F180" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4675.326793700002</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D181" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4671.326793700002</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>9580</v>
+      </c>
+      <c r="K181" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D182" t="n">
+        <v>9540</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4671.326793700002</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K182" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9540</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4675.326793700002</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>9540</v>
+      </c>
+      <c r="K183" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>9555</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9555</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9555</v>
+      </c>
+      <c r="E184" t="n">
+        <v>9555</v>
+      </c>
+      <c r="F184" t="n">
+        <v>31.2392</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4675.326793700002</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9555</v>
+      </c>
+      <c r="K184" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9575</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9575</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9575</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4689.326793700002</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>9555</v>
+      </c>
+      <c r="K185" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>9575</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9525</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9525</v>
+      </c>
+      <c r="F186" t="n">
+        <v>18.9445</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4670.382293700002</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9575</v>
+      </c>
+      <c r="K186" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9625</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F187" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4703.882293700002</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>9525</v>
+      </c>
+      <c r="K187" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>9625</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9645</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9645</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>34</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4737.882293700002</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>9625</v>
+      </c>
+      <c r="K188" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9650</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9650</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6.3843</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4744.266593700002</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9645</v>
+      </c>
+      <c r="K189" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C190" t="n">
+        <v>9655</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E190" t="n">
+        <v>9650</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.9801</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4752.246693700002</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9660</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9660</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9660</v>
+      </c>
+      <c r="E191" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4764.836693700002</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9655</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9655</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9655</v>
+      </c>
+      <c r="E192" t="n">
+        <v>9655</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8.430400000000001</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4756.406293700002</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>9660</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9680</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9680</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9660</v>
+      </c>
+      <c r="F193" t="n">
+        <v>30.99464793</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4787.400941630001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9690</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4801.400941630001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9705</v>
+      </c>
+      <c r="E195" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F195" t="n">
+        <v>263.8996</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4801.400941630001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9625</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9735</v>
+      </c>
+      <c r="E196" t="n">
+        <v>9625</v>
+      </c>
+      <c r="F196" t="n">
+        <v>215.09</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5016.490941630002</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C197" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5023.730941630001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23.779</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5023.730941630001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9740</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9740</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5023.730941630001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>9730</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9730</v>
+      </c>
+      <c r="F200" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4990.020941630001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C201" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E201" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20.4234</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4969.597541630002</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9705</v>
+      </c>
+      <c r="E202" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F202" t="n">
+        <v>32</v>
+      </c>
+      <c r="G202" t="n">
+        <v>5001.597541630002</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>9710</v>
+      </c>
+      <c r="C203" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D203" t="n">
+        <v>9710</v>
+      </c>
+      <c r="E203" t="n">
+        <v>9710</v>
+      </c>
+      <c r="F203" t="n">
+        <v>35</v>
+      </c>
+      <c r="G203" t="n">
+        <v>5036.597541630002</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>9705</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9705</v>
+      </c>
+      <c r="D204" t="n">
+        <v>9705</v>
+      </c>
+      <c r="E204" t="n">
+        <v>9705</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9.572900000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>5027.024641630001</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>9625</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D205" t="n">
+        <v>9625</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9625</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5017.024641630001</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9625</v>
+      </c>
+      <c r="C206" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F206" t="n">
+        <v>43.3647</v>
+      </c>
+      <c r="G206" t="n">
+        <v>5060.389341630002</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9690</v>
+      </c>
+      <c r="D207" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9685</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5054.189341630002</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>9690</v>
+      </c>
+      <c r="C208" t="n">
+        <v>9685</v>
+      </c>
+      <c r="D208" t="n">
+        <v>9690</v>
+      </c>
+      <c r="E208" t="n">
+        <v>9685</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12</v>
+      </c>
+      <c r="G208" t="n">
+        <v>5042.189341630002</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9685</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9685</v>
+      </c>
+      <c r="E209" t="n">
+        <v>9685</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="n">
+        <v>5042.189341630002</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>9685</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9685</v>
+      </c>
+      <c r="F210" t="n">
+        <v>85</v>
+      </c>
+      <c r="G210" t="n">
+        <v>5127.189341630002</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5127.189341630002</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F212" t="n">
+        <v>24</v>
+      </c>
+      <c r="G212" t="n">
+        <v>5127.189341630002</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D213" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F213" t="n">
+        <v>14</v>
+      </c>
+      <c r="G213" t="n">
+        <v>5113.189341630002</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D214" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F214" t="n">
+        <v>12</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5113.189341630002</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9695</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9695</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5113.189341630002</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F216" t="n">
+        <v>24</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F217" t="n">
+        <v>69</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F218" t="n">
+        <v>365</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9695</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F219" t="n">
+        <v>183</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F221" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="G221" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F222" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F223" t="n">
+        <v>33</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5137.189341630002</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9620</v>
+      </c>
+      <c r="E224" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.0532</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5136.136141630001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9620</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F225" t="n">
+        <v>42.0489</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5178.185041630001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C226" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E226" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F226" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5178.185041630001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C227" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F227" t="n">
+        <v>31</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5178.185041630001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C228" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F228" t="n">
         <v>182.5</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G228" t="n">
         <v>5178.185041630001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>9530</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2216.6929</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2204.6929</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9695</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9695</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2210.9629</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9645</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2210.9629</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>2210.9629</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>2190.9629</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>2298.768300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9640</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>2332.181600000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9645</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9690</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>2333.181600000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9690</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>2333.181600000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9705</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9705</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1505,19 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1546,19 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1587,19 @@
         <v>2391.037800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9800</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1631,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1667,17 @@
         <v>2419.537800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1706,17 @@
         <v>2683.537800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1745,17 @@
         <v>3909.779800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1784,17 @@
         <v>4149.615400000002</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1823,17 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1865,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1901,17 @@
         <v>6624.178800000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1940,17 @@
         <v>6615.722000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1979,17 @@
         <v>6620.756</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2018,17 @@
         <v>5549.6996</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2057,17 @@
         <v>5549.6996</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2096,17 @@
         <v>5621.6996</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2135,17 @@
         <v>5621.6996</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2174,17 @@
         <v>5621.6996</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2213,17 @@
         <v>5621.6996</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2252,17 @@
         <v>6134.4336</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2291,17 @@
         <v>6134.4336</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2330,17 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2369,17 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2408,17 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2447,17 @@
         <v>6353.252500000001</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2486,17 @@
         <v>6304.5563</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2525,17 @@
         <v>6227.7715</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2564,17 @@
         <v>6241.4964</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2603,17 @@
         <v>6237.7304</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2642,17 @@
         <v>6242.4431</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2681,17 @@
         <v>6242.4431</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2720,17 @@
         <v>6242.4431</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2759,17 @@
         <v>6238.4646</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,13 +2798,19 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>1.028522434244456</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2431,7 +2837,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2870,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2903,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +3002,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2959,7 +3365,7 @@
         <v>4549.02760869</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3398,7 @@
         <v>4581.52760869</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3431,7 @@
         <v>4581.52760869</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3464,7 @@
         <v>5143.577093700001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3497,7 @@
         <v>5133.577093700001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3530,7 @@
         <v>5114.377393700001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3563,7 @@
         <v>5151.6447937</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3596,7 @@
         <v>5115.6447937</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3662,7 @@
         <v>5206.4427937</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5500,11 +5906,17 @@
         <v>4376.082993700002</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>9600</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,15 +5945,17 @@
         <v>4388.401593700001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>9515</v>
       </c>
-      <c r="J156" t="n">
-        <v>9515</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,17 +5984,15 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>9590</v>
       </c>
-      <c r="J157" t="n">
-        <v>9515</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5611,17 +6023,15 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>9595</v>
       </c>
-      <c r="J158" t="n">
-        <v>9515</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5652,15 +6062,17 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>9595</v>
       </c>
-      <c r="J159" t="n">
-        <v>9595</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5689,17 +6101,15 @@
         <v>4419.611593700001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>9595</v>
       </c>
-      <c r="J160" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5730,17 +6140,15 @@
         <v>4423.001593700002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>9500</v>
       </c>
-      <c r="J161" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5771,17 +6179,15 @@
         <v>4503.501593700002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>9590</v>
       </c>
-      <c r="J162" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5812,14 +6218,12 @@
         <v>4487.971593700002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>9620</v>
       </c>
-      <c r="J163" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,14 +6257,12 @@
         <v>4591.692793700002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>9600</v>
       </c>
-      <c r="J164" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,14 +6296,12 @@
         <v>4634.565893700002</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>9640</v>
       </c>
-      <c r="J165" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,9 +6338,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,9 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6016,9 +6412,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6055,9 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6094,9 +6486,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6133,9 +6523,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6172,9 +6560,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,9 +6597,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,9 +6634,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,9 +6671,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6328,9 +6708,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,9 +6745,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,9 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6445,9 +6819,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6484,9 +6856,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,9 +6893,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,9 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,9 +6967,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,14 +7001,10 @@
         <v>4675.326793700002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>9555</v>
-      </c>
-      <c r="J184" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,14 +7038,10 @@
         <v>4689.326793700002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>9555</v>
-      </c>
-      <c r="J185" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6719,14 +7075,10 @@
         <v>4670.382293700002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>9575</v>
-      </c>
-      <c r="J186" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,14 +7112,10 @@
         <v>4703.882293700002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>9525</v>
-      </c>
-      <c r="J187" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6801,14 +7149,10 @@
         <v>4737.882293700002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>9625</v>
-      </c>
-      <c r="J188" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,14 +7186,10 @@
         <v>4744.266593700002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>9645</v>
-      </c>
-      <c r="J189" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,9 +7226,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +7263,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,9 +7300,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,9 +7337,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7042,9 +7374,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,9 +7411,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7120,9 +7448,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,9 +7485,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,9 +7522,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,9 +7559,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,9 +7596,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,9 +7633,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,9 +7670,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7393,9 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,9 +7744,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,9 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,9 +7818,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,9 +7855,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,9 +7892,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7627,9 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7666,9 +7966,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,9 +8003,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,9 +8040,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7783,9 +8077,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7822,9 +8114,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,9 +8151,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,9 +8188,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,9 +8225,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7978,9 +8262,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8017,9 +8299,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8056,9 +8336,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8095,9 +8373,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8134,9 +8410,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8173,9 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,19 +8481,17 @@
         <v>5136.136141630001</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9595</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>0.9976055237102658</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -8252,7 +8522,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +8559,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8318,7 +8596,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8351,13 +8633,17 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -890,11 +890,9 @@
         <v>2333.181600000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>9695</v>
       </c>
@@ -931,11 +929,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>9695</v>
       </c>
@@ -972,11 +968,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>9695</v>
       </c>
@@ -1013,11 +1007,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>9695</v>
       </c>
@@ -1054,11 +1046,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>9695</v>
       </c>
@@ -1095,11 +1085,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>9695</v>
       </c>
@@ -1136,11 +1124,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>9695</v>
       </c>
@@ -1177,11 +1163,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>9695</v>
       </c>
@@ -1218,11 +1202,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>9695</v>
       </c>
@@ -1259,11 +1241,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>9695</v>
       </c>
@@ -1300,11 +1280,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>9695</v>
       </c>
@@ -1341,11 +1319,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>9695</v>
       </c>
@@ -1382,11 +1358,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>9695</v>
       </c>
@@ -1423,11 +1397,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>9695</v>
       </c>
@@ -1464,11 +1436,9 @@
         <v>2360.681600000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>9695</v>
       </c>
@@ -1505,11 +1475,9 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>9695</v>
       </c>
@@ -1546,21 +1514,19 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>9695</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>1.005830324909747</v>
       </c>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1587,19 +1553,11 @@
         <v>2391.037800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1628,17 +1586,11 @@
         <v>2405.037800000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1667,17 +1619,11 @@
         <v>2419.537800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,17 +1652,11 @@
         <v>2683.537800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1745,17 +1685,11 @@
         <v>3909.779800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,17 +1718,11 @@
         <v>4149.615400000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1823,17 +1751,11 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1862,17 +1784,11 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1901,17 +1817,11 @@
         <v>6624.178800000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1940,17 +1850,11 @@
         <v>6615.722000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1979,17 +1883,11 @@
         <v>6620.756</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1919,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2060,14 +1952,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2099,14 +1985,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2138,14 +2018,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2177,14 +2051,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2216,14 +2084,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2255,14 +2117,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +2150,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2333,14 +2183,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2372,14 +2216,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2411,14 +2249,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2450,14 +2282,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2489,14 +2315,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2348,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2381,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2606,14 +2414,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2447,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2684,14 +2480,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2513,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2546,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2798,19 +2576,13 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9695</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.028522434244456</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2837,7 +2609,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2870,7 +2642,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2903,7 +2675,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3365,7 +3137,7 @@
         <v>4549.02760869</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3398,7 +3170,7 @@
         <v>4581.52760869</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3431,7 +3203,7 @@
         <v>4581.52760869</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3464,7 +3236,7 @@
         <v>5143.577093700001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3497,7 +3269,7 @@
         <v>5133.577093700001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3530,7 +3302,7 @@
         <v>5114.377393700001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3563,7 +3335,7 @@
         <v>5151.6447937</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3596,7 +3368,7 @@
         <v>5115.6447937</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3662,7 +3434,7 @@
         <v>5206.4427937</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -5906,17 +5678,11 @@
         <v>4376.082993700002</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5945,17 +5711,11 @@
         <v>4388.401593700001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>9515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5984,17 +5744,11 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6023,17 +5777,11 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6062,17 +5810,11 @@
         <v>4426.401593700001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6101,17 +5843,11 @@
         <v>4419.611593700001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>9595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6140,17 +5876,11 @@
         <v>4423.001593700002</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>9500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6179,17 +5909,11 @@
         <v>4503.501593700002</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>9590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6218,17 +5942,11 @@
         <v>4487.971593700002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>9620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6257,17 +5975,11 @@
         <v>4591.692793700002</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>9600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6296,17 +6008,11 @@
         <v>4634.565893700002</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>9640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6335,15 +6041,11 @@
         <v>4628.215893700001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +6078,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +6111,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6450,11 +6144,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +6177,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6524,11 +6210,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6557,15 +6239,11 @@
         <v>4666.395893700002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6594,15 +6272,11 @@
         <v>4694.395893700002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6631,15 +6305,11 @@
         <v>4734.395893700002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6672,11 +6342,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6705,15 +6371,11 @@
         <v>4774.141193700002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6742,15 +6404,11 @@
         <v>4763.954993700002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6779,15 +6437,11 @@
         <v>4685.986793700002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6816,15 +6470,11 @@
         <v>4675.326793700002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +6507,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6894,11 +6540,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +6573,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +6606,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7005,11 +6639,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7042,11 +6672,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7079,11 +6705,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +6738,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7153,11 +6771,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7186,15 +6800,11 @@
         <v>4744.266593700002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +6837,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7264,11 +6870,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7301,11 +6903,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7338,11 +6936,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7375,11 +6969,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7412,11 +7002,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7449,11 +7035,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7482,15 +7064,11 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7519,15 +7097,11 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7556,15 +7130,11 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7593,15 +7163,11 @@
         <v>4990.020941630001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7630,15 +7196,11 @@
         <v>4969.597541630002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7667,15 +7229,11 @@
         <v>5001.597541630002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7708,11 +7266,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +7299,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +7332,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7365,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +7398,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7893,11 +7431,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +7464,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +7497,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +7530,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +7563,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +7596,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +7629,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +7662,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +7695,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +7728,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +7761,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8300,11 +7794,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +7827,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +7860,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +7893,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +7926,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8485,11 +7959,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +7992,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +8025,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8058,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8633,17 +8091,13 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest BTG.xlsx
+++ b/BackTest/2019-10-17 BackTest BTG.xlsx
@@ -767,11 +767,9 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>9695</v>
       </c>
@@ -808,11 +806,9 @@
         <v>2299.181600000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>9695</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>2370.681600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
@@ -1522,11 +1518,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.005830324909747</v>
+        <v>1</v>
       </c>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1553,11 +1549,17 @@
         <v>2391.037800000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1586,11 +1588,17 @@
         <v>2405.037800000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1627,17 @@
         <v>2419.537800000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,11 +1666,17 @@
         <v>2683.537800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1685,11 +1705,17 @@
         <v>3909.779800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1718,11 +1744,17 @@
         <v>4149.615400000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1751,11 +1783,17 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1784,11 +1822,17 @@
         <v>6507.781500000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1861,17 @@
         <v>6624.178800000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1850,11 +1900,17 @@
         <v>6615.722000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1883,11 +1939,17 @@
         <v>6620.756</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1919,8 +1981,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1952,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1985,8 +2059,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2018,8 +2098,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2051,8 +2137,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2084,8 +2176,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2117,8 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2150,8 +2254,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2180,13 +2290,19 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9695</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>1.040899948427024</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2213,7 +2329,7 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2246,7 +2362,7 @@
         <v>6249.502500000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2279,7 +2395,7 @@
         <v>6353.252500000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2312,7 +2428,7 @@
         <v>6304.5563</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2345,7 +2461,7 @@
         <v>6227.7715</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2378,7 +2494,7 @@
         <v>6241.4964</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2411,7 +2527,7 @@
         <v>6237.7304</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2444,7 +2560,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2477,7 +2593,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2510,7 +2626,7 @@
         <v>6242.4431</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2543,7 +2659,7 @@
         <v>6238.4646</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2576,7 +2692,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2609,7 +2725,7 @@
         <v>4634.208200790001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2642,7 +2758,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2675,7 +2791,7 @@
         <v>4741.290200790001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2708,7 +2824,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2741,7 +2857,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2774,7 +2890,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2807,7 +2923,7 @@
         <v>4785.550993700002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2840,7 +2956,7 @@
         <v>4156.197193700002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2873,7 +2989,7 @@
         <v>4218.537193700002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2939,7 +3055,7 @@
         <v>4425.403793700001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -6041,7 +6157,7 @@
         <v>4628.215893700001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6239,7 +6355,7 @@
         <v>4666.395893700002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6272,7 +6388,7 @@
         <v>4694.395893700002</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6305,7 +6421,7 @@
         <v>4734.395893700002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6371,7 +6487,7 @@
         <v>4774.141193700002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6404,7 +6520,7 @@
         <v>4763.954993700002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6437,7 +6553,7 @@
         <v>4685.986793700002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6470,7 +6586,7 @@
         <v>4675.326793700002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6800,7 +6916,7 @@
         <v>4744.266593700002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7064,7 +7180,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7097,7 +7213,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7130,7 +7246,7 @@
         <v>5023.730941630001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7163,7 +7279,7 @@
         <v>4990.020941630001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7196,7 +7312,7 @@
         <v>4969.597541630002</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7229,7 +7345,7 @@
         <v>5001.597541630002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
